--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D70FC-5F56-46D4-B322-CE729ED16872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DCA6D8-4FE0-44AC-84F7-E2AC8163ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2165,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -14960,8 +14960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9DD83-4E8C-4A41-986C-F727F17C4502}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15235,7 +15235,7 @@
         <v>68</v>
       </c>
       <c r="B25">
-        <v>38847.800000000003</v>
+        <v>39190.400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -15243,7 +15243,7 @@
         <v>69</v>
       </c>
       <c r="B26">
-        <v>33166.400000000001</v>
+        <v>32444.6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="B27" s="4">
         <f>1-B25/B24</f>
-        <v>0.22298183854708375</v>
+        <v>0.21612929034322748</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="B28" s="4">
         <f>1-B26/B24</f>
-        <v>0.33661892951436112</v>
+        <v>0.35105608448675896</v>
       </c>
     </row>
   </sheetData>
@@ -15278,8 +15278,8 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15394,126 +15394,124 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="5">
-        <f>B2+($H$2-$B$2)/COUNT($C$1:$H$1)</f>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:G2" si="0">C2+($H$2-$B$2)/COUNT($C$1:$H$1)</f>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="I2" s="5">
+        <f>H2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:K2" si="0">I2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="I2" s="5">
-        <f>0.37</f>
-        <v>0.37</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L2" s="5">
-        <v>0.43</v>
+        <f>K2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ref="N2:AG2" si="1">M2</f>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -15522,131 +15520,131 @@
       </c>
       <c r="B3" s="5">
         <f>B2</f>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:AG7" si="2">C2</f>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="2"/>
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -15655,131 +15653,131 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B7" si="3">B3</f>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="2"/>
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG4" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -15788,131 +15786,131 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="2"/>
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -15921,131 +15919,131 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="2"/>
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -16054,131 +16052,131 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="3"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="2"/>
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0.39</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="2"/>
-        <v>0.41</v>
+        <v>0.47600000000000003</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>0.43</v>
+        <v>0.48800000000000004</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AF7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,36 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DCA6D8-4FE0-44AC-84F7-E2AC8163ACBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12CCF9-60A5-4FBA-A67E-52491542EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="BBSoEVP" sheetId="2" r:id="rId4"/>
+    <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="EV freight LDVs" sheetId="7" r:id="rId4"/>
+    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId5"/>
+    <sheet name="CARB ACT ISOR" sheetId="9" r:id="rId6"/>
+    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
+    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
     <definedName name="AEO">[1]Safety!$L$2</definedName>
+    <definedName name="asdf">[8]About!$A$113</definedName>
     <definedName name="compa">[2]PROVP!#REF!</definedName>
     <definedName name="Comparaison">[2]PROVP!$A:$A</definedName>
+    <definedName name="cpi_2010to2012">[7]About!#REF!</definedName>
+    <definedName name="cpi_2014to2012">[7]About!#REF!</definedName>
+    <definedName name="cpi_2017to2012">[7]About!$A$121</definedName>
+    <definedName name="cpi_2018to2012">[7]About!$A$122</definedName>
+    <definedName name="cpi_2019to2012">[7]About!$A$123</definedName>
+    <definedName name="cpi_2020to2012">[7]About!$A$124</definedName>
     <definedName name="cut_allowed_LT">[1]Safety!$L$6</definedName>
     <definedName name="cut_allowed_PC">[1]Safety!$L$5</definedName>
     <definedName name="cut_safety_LT">[1]Safety!$AK$8</definedName>
     <definedName name="cut_safety_PC">[1]Safety!$AK$7</definedName>
     <definedName name="gC_kWh">[3]INPUTS!$B$32</definedName>
     <definedName name="gCO2_gC">[3]INPUTS!$B$34</definedName>
+    <definedName name="H2_kg_to_MMBtu">[9]Constants!$D$7</definedName>
     <definedName name="Impres_titres_MI">[2]PROVP!$A:$A</definedName>
+    <definedName name="kWh_to_Btu">[9]Constants!$D$4</definedName>
     <definedName name="mode">[4]Config!$AD$7:$AD$19</definedName>
     <definedName name="P91_">[2]PROVP!#REF!</definedName>
     <definedName name="P92_">[2]PROVP!#REF!</definedName>
@@ -69,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
   <si>
     <t>Sources:</t>
   </si>
@@ -302,9 +318,6 @@
     <t>Estimated Price from NAS Figure 5.37, using BEV200 range</t>
   </si>
   <si>
-    <t>EV Cost</t>
-  </si>
-  <si>
     <t>The National Academies Press</t>
   </si>
   <si>
@@ -323,9 +336,6 @@
     <t>for passenger LDVs with the cited NAP study.</t>
   </si>
   <si>
-    <t>EV Sales Share by Vehicle Class</t>
-  </si>
-  <si>
     <t>EIA</t>
   </si>
   <si>
@@ -336,17 +346,387 @@
   </si>
   <si>
     <t>Table 38</t>
+  </si>
+  <si>
+    <t>Passenger LDV EV Cost</t>
+  </si>
+  <si>
+    <t>Passenger LDV Sales Share by Vehicle Class</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Vehicle cost including battery</t>
+  </si>
+  <si>
+    <t>imputed $/KWh (CARB 2024)</t>
+  </si>
+  <si>
+    <t>Battery cost</t>
+  </si>
+  <si>
+    <t>Battery size</t>
+  </si>
+  <si>
+    <t>Average vehicle cost 2024</t>
+  </si>
+  <si>
+    <t>2024 Vehicle cost</t>
+  </si>
+  <si>
+    <t>Battery share</t>
+  </si>
+  <si>
+    <t>Battery cost (as in CARB, $173.8 in 2024)</t>
+  </si>
+  <si>
+    <t>Vehicle plus battery cost (2024)</t>
+  </si>
+  <si>
+    <t>Vehicle cost not including battery</t>
+  </si>
+  <si>
+    <t>Calculations to find vehicle cost not including battery</t>
+  </si>
+  <si>
+    <t>total LDV freight</t>
+  </si>
+  <si>
+    <t>Sales shared for LDV freight - total</t>
+  </si>
+  <si>
+    <t>Share of battery for EPS purposes</t>
+  </si>
+  <si>
+    <t>Vehicle including battery</t>
+  </si>
+  <si>
+    <t>Calculate with BNEF 2019 battery pack cost (capacity weighted average)</t>
+  </si>
+  <si>
+    <t>Calculate vehicle costs (new price and battery share) with 2019 historical data.</t>
+  </si>
+  <si>
+    <t>LDV freight</t>
+  </si>
+  <si>
+    <t>BNVP - 2019 (in 2018 $s)</t>
+  </si>
+  <si>
+    <t>2012s</t>
+  </si>
+  <si>
+    <t>inferred from use of 2018 dollars elsewhere in regulatory documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 dollars, not stated directly, but rather is </t>
+  </si>
+  <si>
+    <t>7-8 Tractor - electric</t>
+  </si>
+  <si>
+    <t>imputed $/KWh</t>
+  </si>
+  <si>
+    <t>Vehicle cost and battery cost in ARB analysis (2024)</t>
+  </si>
+  <si>
+    <t>7-8 Tractors</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Battery cost (based on 2019 battery pack price)</t>
+  </si>
+  <si>
+    <t>Battery calculations</t>
+  </si>
+  <si>
+    <t>https://about.bnef.com/blog/battery-pack-prices-fall-as-market-ramps-up-with-market-average-at-156-kwh-in-2019/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Battery Pack Prices Fall as Market Ramps Up with Market Average at $156/KWh in 2019” </t>
+  </si>
+  <si>
+    <t>Bloomberg New Energy Finance</t>
+  </si>
+  <si>
+    <t>per BNEF - weighted average battery pack price</t>
+  </si>
+  <si>
+    <t>$/kWh</t>
+  </si>
+  <si>
+    <t>https://theicct.org/publications/transitioning-zero-emission-heavy-duty-freight-vehicles</t>
+  </si>
+  <si>
+    <t>"Transitioning to zero-emission heavy-duty freight vehicles"</t>
+  </si>
+  <si>
+    <t>International Council on Clean Transportation</t>
+  </si>
+  <si>
+    <t>"Both battery pack and fuel cell systems are assumed to use similar technology in heavy-duty applications as in light-duty, and  therefore these component prices are assumed to follow price projections for lightduty vehicles.</t>
+  </si>
+  <si>
+    <t>Use same battery price as LDVs, in line with ICCT's assumption:</t>
+  </si>
+  <si>
+    <t>Ratio of natural gas to diesel</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Natural Gas - LDV per AEO and USEPS</t>
+  </si>
+  <si>
+    <t>ISOR states:</t>
+  </si>
+  <si>
+    <t>Diesel fraction within class 2b-3</t>
+  </si>
+  <si>
+    <t>Ratio of Fuel Cell to Electric</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor - Fuel Cell</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor - Electric</t>
+  </si>
+  <si>
+    <t>Class 8 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 8 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 6-7 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 6-7 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 4-5 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 4-5 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>2030 MY</t>
+  </si>
+  <si>
+    <t>2029 MY</t>
+  </si>
+  <si>
+    <t>2028 MY</t>
+  </si>
+  <si>
+    <t>2027 MY</t>
+  </si>
+  <si>
+    <t>2026 MY</t>
+  </si>
+  <si>
+    <t>2025 MY</t>
+  </si>
+  <si>
+    <t>2024 MY</t>
+  </si>
+  <si>
+    <t>Vehicle Group</t>
+  </si>
+  <si>
+    <t>Sales Share - DIESEL ONLY (2024-2030)</t>
+  </si>
+  <si>
+    <t>Class 8</t>
+  </si>
+  <si>
+    <t>Class 6-7</t>
+  </si>
+  <si>
+    <t>Class 4-5</t>
+  </si>
+  <si>
+    <t>Class 2b-3</t>
+  </si>
+  <si>
+    <t>LDV Freight</t>
+  </si>
+  <si>
+    <t>BEV and FCEV Price Forecasts:</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Calculated LDV Avg - Gasoline</t>
+  </si>
+  <si>
+    <t>Use ratio of Gasoline/Diesel for Class 2b-3 for calculated gasoline value:</t>
+  </si>
+  <si>
+    <t>Calculated LDV Avg - Diesel</t>
+  </si>
+  <si>
+    <t>2012 $s</t>
+  </si>
+  <si>
+    <t>2018 $s</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractors</t>
+  </si>
+  <si>
+    <t>LDV freight sales - DIESEL ONLY</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Diesel</t>
+  </si>
+  <si>
+    <t>This file uses EIA's definition that includes Class 8 non-tractors in vocational vehicles/LDV freight.</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Gasoline</t>
+  </si>
+  <si>
+    <t>* E3 categorizes Class 8 non-tractors and Class 7-8 tractors as HDV freight.</t>
+  </si>
+  <si>
+    <t>Vehicle Price</t>
+  </si>
+  <si>
+    <t>Sales Share (2024-2030)</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor</t>
+  </si>
+  <si>
+    <t>Gasoline and Diesel Vehicle Starting Prices:</t>
+  </si>
+  <si>
+    <t>HDV Freight</t>
+  </si>
+  <si>
+    <t>Note that E3 groups Class 8 non-tractors with Class 7-8 tractors in HDV freight.</t>
+  </si>
+  <si>
+    <t>*Vocational Vehicles encompass Class 8 non-tractor vehicles according to the EIA.</t>
+  </si>
+  <si>
+    <t>Calculated LDV Average</t>
+  </si>
+  <si>
+    <t>Tractors</t>
+  </si>
+  <si>
+    <t>Vocational Vehicles*</t>
+  </si>
+  <si>
+    <t>Model Year</t>
+  </si>
+  <si>
+    <t>Class 2b-3 Pickup/Van</t>
+  </si>
+  <si>
+    <t>2027-2030 MY</t>
+  </si>
+  <si>
+    <t>2024-2026 MY</t>
+  </si>
+  <si>
+    <t>2021-2023 MY</t>
+  </si>
+  <si>
+    <t>In 2012 $s for rows 20 and 21</t>
+  </si>
+  <si>
+    <t>Sales - diesel and gasoline</t>
+  </si>
+  <si>
+    <t>Added notes/calculation</t>
+  </si>
+  <si>
+    <t>Copied from CARB source</t>
+  </si>
+  <si>
+    <t>Color Key:</t>
+  </si>
+  <si>
+    <t>https://ww3.arb.ca.gov/regact/2019/act2019/isor.pdf</t>
+  </si>
+  <si>
+    <t>PUBLIC HEARING TO CONSIDER THE PROPOSED ADVANCED CLEAN TRUCKS REGULATION</t>
+  </si>
+  <si>
+    <t>Source: CARB</t>
+  </si>
+  <si>
+    <t>LDV-freight</t>
+  </si>
+  <si>
+    <t>CARB</t>
+  </si>
+  <si>
+    <t>Public Hearing to Consider the Proposed Advanced Clean Trucks Regulation. Initial Statement of Reasons (ISOR).</t>
+  </si>
+  <si>
+    <t>Tables IX-2, IX-6, IX-7, IX-9</t>
+  </si>
+  <si>
+    <t>Energy and Environmental Economics (E3)</t>
+  </si>
+  <si>
+    <t>Achieving Carbon Neutrality in California (Revised Report): 2045 Abatement Cost Estimates</t>
+  </si>
+  <si>
+    <t>https://ww2.arb.ca.gov/sites/default/files/2020-10/e3_cn_final_cost_data_supplement_oct2020.xlsx</t>
+  </si>
+  <si>
+    <t>"MDV &amp; HDV Decarbonization" sheet</t>
+  </si>
+  <si>
+    <t>For other vehicle types, we use the LDV-freight calculations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,8 +769,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,8 +860,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -490,8 +905,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -503,8 +995,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,11 +1037,91 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
+    <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{FEE8019A-152E-4283-8314-55D41AB83B33}"/>
     <cellStyle name="Header: bottom row" xfId="6" xr:uid="{9E6962E9-AFA2-41CA-BAD9-275094EDBAE7}"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C503966-CFFD-4326-9D3B-E3B164AC8CF2}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1762,6 +2336,366 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6245279" cy="1345811"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1387BE-840E-4F8A-8308-1EEEC171C115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325937" y="5912250"/>
+          <a:ext cx="6245279" cy="1345811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149204</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5749975" cy="1427196"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1C87BC-DBB4-430C-80CB-19C88C46A695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="4384654"/>
+          <a:ext cx="5749975" cy="1427196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107973</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5964292" cy="947722"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33050539-B8ED-4C36-9B3A-D2915DE8BF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292599" y="7473973"/>
+          <a:ext cx="5964292" cy="947722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5056359" cy="1063625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F769AE-BF9F-4E37-87F8-C727D60B49FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1657350"/>
+          <a:ext cx="5056359" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2858789" cy="1708946"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BA4FE6-91A3-40A6-A3D2-C455164B9096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906" y="5237160"/>
+          <a:ext cx="2858789" cy="1708946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5608159" cy="1141411"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E9903-FA14-4D2E-AE15-CE9847D7771D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8110538"/>
+          <a:ext cx="5608159" cy="1141411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6259513" cy="856166"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0552C69B-315A-455F-9343-80E800709370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31751" y="9235570"/>
+          <a:ext cx="6259513" cy="856166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6052442" cy="2014537"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A26EA4-5529-432D-9808-0A9ECB2E1D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3079750" y="534988"/>
+          <a:ext cx="6052442" cy="2014537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198439</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6132513" cy="1539900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DE5A9A-25F5-47A3-AADE-919455275704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="-5820" t="58889" r="8022" b="-2256"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198439" y="14346237"/>
+          <a:ext cx="6132513" cy="1539900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1837,6 +2771,326 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="Table_38"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 52"/>
+      <sheetName val="NREL_ATB_2020"/>
+      <sheetName val="NREL Calcs"/>
+      <sheetName val="LDV Cost Calcs"/>
+      <sheetName val="PHEV Price Calcs"/>
+      <sheetName val="Start Year psgr LDV EV Price"/>
+      <sheetName val="LDV Shares"/>
+      <sheetName val="EV freight LDVs"/>
+      <sheetName val="EV freight truck batteries"/>
+      <sheetName val="CARB ACT ISOR"/>
+      <sheetName val="Freight HDVs"/>
+      <sheetName val="Hydrogen Vehicle Calcs"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="121">
+          <cell r="A121">
+            <v>0.93665959530026111</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>0.91400000000000003</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>0.89805481563188172</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>0.88711067149387013</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="26">
+          <cell r="K26">
+            <v>970.98468000000003</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>981.23956299999998</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>966.18756099999996</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>953.71936000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>966.38690199999996</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>964.77038600000003</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>940.58337400000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="K26">
+            <v>296.49893200000002</v>
+          </cell>
+          <cell r="U26">
+            <v>217.47422800000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>295.82556199999999</v>
+          </cell>
+          <cell r="U27">
+            <v>216.90455600000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>291.37560999999999</v>
+          </cell>
+          <cell r="U28">
+            <v>217.18345600000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>286.20315599999998</v>
+          </cell>
+          <cell r="U29">
+            <v>221.50202899999999</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>287.59738199999998</v>
+          </cell>
+          <cell r="U30">
+            <v>230.97200000000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>284.73254400000002</v>
+          </cell>
+          <cell r="U31">
+            <v>230.983047</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>273.59762599999999</v>
+          </cell>
+          <cell r="U32">
+            <v>222.50271599999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 53"/>
+      <sheetName val="BEV and PHEV Price Calcs"/>
+      <sheetName val="LDV Shares"/>
+      <sheetName val="Hydrogen Vehicle Calcs"/>
+      <sheetName val="Conventional Daycab Trucks"/>
+      <sheetName val="Conventional Sleeper Trucks"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="113">
+          <cell r="A113">
+            <v>0.91400000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Electricity Decarbonization"/>
+      <sheetName val="Industry Elec. - Boilers"/>
+      <sheetName val="Industry Elec. - Process Heat"/>
+      <sheetName val="Industry CCS - Process Heat"/>
+      <sheetName val="Industry Hydrogen &amp; SNG"/>
+      <sheetName val="MDV &amp; HDV Decarbonization"/>
+      <sheetName val="DAC &amp; BECCS"/>
+      <sheetName val="Fuel Costs - PATHWAYS"/>
+      <sheetName val="Emission Factors - PATHWAYS"/>
+      <sheetName val="Constants"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="13">
+          <cell r="D13">
+            <v>10.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="7">
+          <cell r="D7">
+            <v>42.766231219576298</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="7">
+          <cell r="D7">
+            <v>1.7765038912431299</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="D4">
+            <v>3412.14</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>0.13450999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2163,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,12 +3438,12 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2199,27 +3453,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2229,45 +3483,109 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="77" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>83</v>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{18F0FF1B-47B9-4F49-ADF2-C7A2A53893E5}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{D9A18C3F-356D-4AC7-AF7C-AEFD19442E02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14961,7 +16279,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15272,14 +16590,2053 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="44">
+        <f>B5*cpi_2018to2012</f>
+        <v>65177.846652390654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="43">
+        <f>B19*B11+C19*B12+D19*B13</f>
+        <v>71310.554324278608</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>B23</f>
+        <v>Vehicle cost not including battery</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>'EV freight truck batteries'!$D$19</f>
+        <v>Battery cost (based on 2019 battery pack price)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>A24</f>
+        <v>2-3</v>
+      </c>
+      <c r="B11" s="43">
+        <f>D11+C11</f>
+        <v>65732</v>
+      </c>
+      <c r="C11" s="42">
+        <f>B24</f>
+        <v>55337</v>
+      </c>
+      <c r="D11" s="41">
+        <f>'EV freight truck batteries'!D20</f>
+        <v>10395</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11/(D11+C11)</f>
+        <v>0.15814215298484757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>A25</f>
+        <v>4-5</v>
+      </c>
+      <c r="B12" s="43">
+        <f>D12+C12</f>
+        <v>82459</v>
+      </c>
+      <c r="C12" s="42">
+        <f>B25</f>
+        <v>56664</v>
+      </c>
+      <c r="D12" s="41">
+        <f>'EV freight truck batteries'!D21</f>
+        <v>25795</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12/(D12+C12)</f>
+        <v>0.31282212978571167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>A26</f>
+        <v>6-7</v>
+      </c>
+      <c r="B13" s="43">
+        <f>D13+C13</f>
+        <v>119914</v>
+      </c>
+      <c r="C13" s="42">
+        <f>B26</f>
+        <v>81414</v>
+      </c>
+      <c r="D13" s="41">
+        <f>'EV freight truck batteries'!D22</f>
+        <v>38500</v>
+      </c>
+      <c r="E13" s="4">
+        <f>D13/(D13+C13)</f>
+        <v>0.32106342879063327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f>'CARB ACT ISOR'!G27</f>
+        <v>LDV Freight</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f>'CARB ACT ISOR'!G28</f>
+        <v>Class 2b-3</v>
+      </c>
+      <c r="C18" t="str">
+        <f>'CARB ACT ISOR'!H28</f>
+        <v>Class 4-5</v>
+      </c>
+      <c r="D18" t="str">
+        <f>'CARB ACT ISOR'!I28</f>
+        <v>Class 6-7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="str">
+        <f>'CARB ACT ISOR'!F29</f>
+        <v>Sales Share (2024-2030)</v>
+      </c>
+      <c r="B19" s="40">
+        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32)*1000/E19</f>
+        <v>0.84903672433063349</v>
+      </c>
+      <c r="C19" s="40">
+        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!H46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
+        <v>6.9441673422480865E-2</v>
+      </c>
+      <c r="D19" s="40">
+        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!I46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
+        <v>8.1521602246885733E-2</v>
+      </c>
+      <c r="E19" s="39">
+        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32,'[7]Table 49'!U26:U32)*1000</f>
+        <v>10317224.670000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>'EV freight LDVs'!A33</f>
+        <v>2-3</v>
+      </c>
+      <c r="B24" s="34">
+        <f>C24-D24</f>
+        <v>55337</v>
+      </c>
+      <c r="C24" s="34">
+        <f>'EV freight LDVs'!B33</f>
+        <v>67068.5</v>
+      </c>
+      <c r="D24" s="34">
+        <f>'EV freight truck batteries'!C20</f>
+        <v>11731.5</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/C24</f>
+        <v>0.17491818066603548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>'EV freight LDVs'!A34</f>
+        <v>4-5</v>
+      </c>
+      <c r="B25" s="34">
+        <f>C25-D25</f>
+        <v>56664</v>
+      </c>
+      <c r="C25" s="34">
+        <f>'EV freight LDVs'!B34</f>
+        <v>85775.5</v>
+      </c>
+      <c r="D25" s="34">
+        <f>'EV freight truck batteries'!C21</f>
+        <v>29111.500000000004</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/C25</f>
+        <v>0.33939178436733103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>'EV freight LDVs'!A35</f>
+        <v>6-7</v>
+      </c>
+      <c r="B26" s="34">
+        <f>C26-D26</f>
+        <v>81414</v>
+      </c>
+      <c r="C26" s="34">
+        <f>'EV freight LDVs'!B35</f>
+        <v>124864</v>
+      </c>
+      <c r="D26" s="34">
+        <f>'EV freight truck batteries'!C22</f>
+        <v>43450</v>
+      </c>
+      <c r="E26" s="4">
+        <f>D26/C26</f>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="34">
+        <f>D48</f>
+        <v>67068.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="34">
+        <f>D49</f>
+        <v>85775.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="34">
+        <f>D50</f>
+        <v>124864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <f>'EV freight truck batteries'!B28</f>
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <f>'EV freight truck batteries'!C28</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <f>'EV freight truck batteries'!B29</f>
+        <v>135</v>
+      </c>
+      <c r="C40">
+        <f>'EV freight truck batteries'!C29</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
+        <f>'EV freight truck batteries'!B30</f>
+        <v>200</v>
+      </c>
+      <c r="C41">
+        <f>'EV freight truck batteries'!C30</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <f>'EV freight truck batteries'!$E$38</f>
+        <v>173.8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="34">
+        <f>'EV freight truck batteries'!B38</f>
+        <v>64896</v>
+      </c>
+      <c r="C48" s="34">
+        <f>'EV freight truck batteries'!C38</f>
+        <v>69241</v>
+      </c>
+      <c r="D48">
+        <f>(C48+B48)/2</f>
+        <v>67068.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="34">
+        <f>'EV freight truck batteries'!B39</f>
+        <v>80127</v>
+      </c>
+      <c r="C49" s="34">
+        <f>'EV freight truck batteries'!C39</f>
+        <v>91424</v>
+      </c>
+      <c r="D49">
+        <f>(C49+B49)/2</f>
+        <v>85775.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="34">
+        <f>'EV freight truck batteries'!B40</f>
+        <v>116174</v>
+      </c>
+      <c r="C50" s="34">
+        <f>'EV freight truck batteries'!C40</f>
+        <v>133554</v>
+      </c>
+      <c r="D50">
+        <f>(C50+B50)/2</f>
+        <v>124864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="47">
+        <v>43004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="34">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="47">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B19" t="str">
+        <f>E27</f>
+        <v>Average</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <f>E28</f>
+        <v>67.5</v>
+      </c>
+      <c r="C20" s="34">
+        <f>B20*$E$38</f>
+        <v>11731.5</v>
+      </c>
+      <c r="D20" s="41">
+        <f>B20*$A$10</f>
+        <v>10395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <f>E29</f>
+        <v>167.5</v>
+      </c>
+      <c r="C21" s="34">
+        <f>B21*$E$38</f>
+        <v>29111.500000000004</v>
+      </c>
+      <c r="D21" s="41">
+        <f>B21*$A$10</f>
+        <v>25795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <f>E30</f>
+        <v>250</v>
+      </c>
+      <c r="C22" s="34">
+        <f>B22*$E$38</f>
+        <v>43450</v>
+      </c>
+      <c r="D22" s="41">
+        <f>B22*$A$10</f>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="35">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <f>E31</f>
+        <v>300</v>
+      </c>
+      <c r="C23" s="34">
+        <f>B23*$E$38</f>
+        <v>52140</v>
+      </c>
+      <c r="D23" s="41">
+        <f>B23*$A$10</f>
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f>E32</f>
+        <v>400</v>
+      </c>
+      <c r="C24" s="34">
+        <f>B24*$E$38</f>
+        <v>69520</v>
+      </c>
+      <c r="D24" s="41">
+        <f>B24*$A$10</f>
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="35"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <f>C28-B28</f>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f>(C28+B28)/2</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <f>C29-B29</f>
+        <v>65</v>
+      </c>
+      <c r="E29">
+        <f>(C29+B29)/2</f>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30">
+        <f>C30-B30</f>
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <f>(C30+B30)/2</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="35">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>360</v>
+      </c>
+      <c r="D31">
+        <f>C31-B31</f>
+        <v>120</v>
+      </c>
+      <c r="E31">
+        <f>(C31+B31)/2</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="E32">
+        <f>B32</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <f>64896</f>
+        <v>64896</v>
+      </c>
+      <c r="C38">
+        <v>69241</v>
+      </c>
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>4345</v>
+      </c>
+      <c r="E38">
+        <f>D38/D28</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>80127</v>
+      </c>
+      <c r="C39">
+        <v>91424</v>
+      </c>
+      <c r="D39">
+        <f>C39-B39</f>
+        <v>11297</v>
+      </c>
+      <c r="E39">
+        <f>D39/D29</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40">
+        <v>116174</v>
+      </c>
+      <c r="C40">
+        <v>133554</v>
+      </c>
+      <c r="D40">
+        <f>C40-B40</f>
+        <v>17380</v>
+      </c>
+      <c r="E40">
+        <f>D40/D30</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="35">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>154799</v>
+      </c>
+      <c r="C41">
+        <v>175655</v>
+      </c>
+      <c r="D41">
+        <f>C41-B41</f>
+        <v>20856</v>
+      </c>
+      <c r="E41">
+        <f>D41/D31</f>
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>201351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{4CA6B487-191E-4EC2-9F5E-4A9F38E6A0F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AB7CB3-320B-4564-A868-DC7FC0585BBF}">
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="73"/>
+      <c r="B17" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="52">
+        <v>524</v>
+      </c>
+      <c r="C18" s="52">
+        <v>963</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1364</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="52">
+        <v>1110</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="52">
+        <v>2662</v>
+      </c>
+      <c r="F19" s="53">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="60">
+        <v>53761</v>
+      </c>
+      <c r="H19" s="60">
+        <v>6436</v>
+      </c>
+      <c r="I19" s="60">
+        <v>7556</v>
+      </c>
+      <c r="J19" s="60">
+        <v>1119</v>
+      </c>
+      <c r="K19" s="71">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="52">
+        <f>6484*cpi_2018to2012</f>
+        <v>5926.3760000000002</v>
+      </c>
+      <c r="C20" s="52">
+        <f>10101*cpi_2018to2012</f>
+        <v>9232.3140000000003</v>
+      </c>
+      <c r="D20" s="52">
+        <f>12442*cpi_2018to2012</f>
+        <v>11371.988000000001</v>
+      </c>
+      <c r="F20" s="53">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="60">
+        <v>54217</v>
+      </c>
+      <c r="H20" s="60">
+        <v>6531</v>
+      </c>
+      <c r="I20" s="60">
+        <v>7667</v>
+      </c>
+      <c r="J20" s="60">
+        <v>1137</v>
+      </c>
+      <c r="K20" s="71">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="61">
+        <f>(B18*$G$46+B19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>658.83351490019675</v>
+      </c>
+      <c r="C21" s="61">
+        <f>(C18*$G$46+C19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>1205.2868946745875</v>
+      </c>
+      <c r="D21" s="61">
+        <f>(D18*$G$46+D19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>1645.1720654273984</v>
+      </c>
+      <c r="F21" s="53">
+        <v>2026</v>
+      </c>
+      <c r="G21" s="60">
+        <v>54753</v>
+      </c>
+      <c r="H21" s="60">
+        <v>6649</v>
+      </c>
+      <c r="I21" s="60">
+        <v>7806</v>
+      </c>
+      <c r="J21" s="60">
+        <v>1177</v>
+      </c>
+      <c r="K21" s="71">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="F22" s="53">
+        <v>2027</v>
+      </c>
+      <c r="G22" s="60">
+        <v>55152</v>
+      </c>
+      <c r="H22" s="60">
+        <v>6786</v>
+      </c>
+      <c r="I22" s="60">
+        <v>7966</v>
+      </c>
+      <c r="J22" s="60">
+        <v>1194</v>
+      </c>
+      <c r="K22" s="71">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="F23" s="53">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="60">
+        <v>55765</v>
+      </c>
+      <c r="H23" s="60">
+        <v>6904</v>
+      </c>
+      <c r="I23" s="60">
+        <v>8105</v>
+      </c>
+      <c r="J23" s="60">
+        <v>1216</v>
+      </c>
+      <c r="K23" s="71">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="F24" s="53">
+        <v>2029</v>
+      </c>
+      <c r="G24" s="60">
+        <v>56371</v>
+      </c>
+      <c r="H24" s="60">
+        <v>7024</v>
+      </c>
+      <c r="I24" s="60">
+        <v>8246</v>
+      </c>
+      <c r="J24" s="60">
+        <v>1239</v>
+      </c>
+      <c r="K24" s="71">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F25" s="53">
+        <v>2030</v>
+      </c>
+      <c r="G25" s="60">
+        <v>56968</v>
+      </c>
+      <c r="H25" s="60">
+        <v>7147</v>
+      </c>
+      <c r="I25" s="60">
+        <v>8390</v>
+      </c>
+      <c r="J25" s="60">
+        <v>1264</v>
+      </c>
+      <c r="K25" s="71">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F26" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="60">
+        <f>SUM(G19:G25)</f>
+        <v>386987</v>
+      </c>
+      <c r="H26" s="60">
+        <f>SUM(H19:H25)</f>
+        <v>47477</v>
+      </c>
+      <c r="I26" s="60">
+        <f>SUM(I19:I25)</f>
+        <v>55736</v>
+      </c>
+      <c r="J26" s="60">
+        <f>SUM(J19:J25)</f>
+        <v>8346</v>
+      </c>
+      <c r="K26" s="60">
+        <f>SUM(K19:K25)</f>
+        <v>34865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F27" s="59"/>
+      <c r="G27" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F29" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="54">
+        <f>G26/SUM($G26:$J26)</f>
+        <v>0.7762312805638798</v>
+      </c>
+      <c r="H29" s="54">
+        <f>H26/SUM($G26:$J26)</f>
+        <v>9.5230931548944325E-2</v>
+      </c>
+      <c r="I29" s="54">
+        <f>I26/SUM($G26:$J26)</f>
+        <v>0.11179710598420206</v>
+      </c>
+      <c r="J29" s="54">
+        <f>J26/SUM($G26:$J26)</f>
+        <v>1.6740681902973849E-2</v>
+      </c>
+      <c r="K29" s="68">
+        <f>K19/K19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C31" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C32" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="52">
+        <v>45000</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C33" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="52">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="52">
+        <v>55000</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C35" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="52">
+        <v>85000</v>
+      </c>
+      <c r="F35" t="str">
+        <f>F18</f>
+        <v>Model Year</v>
+      </c>
+      <c r="G35" t="str">
+        <f>G18</f>
+        <v>Class 2b-3</v>
+      </c>
+      <c r="H35" t="str">
+        <f>H18</f>
+        <v>Class 4-5</v>
+      </c>
+      <c r="I35" t="str">
+        <f>I18</f>
+        <v>Class 6-7</v>
+      </c>
+      <c r="J35" t="str">
+        <f>J18</f>
+        <v>Class 8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="52">
+        <v>120000</v>
+      </c>
+      <c r="F36">
+        <f>F19</f>
+        <v>2024</v>
+      </c>
+      <c r="G36" s="48">
+        <f>G19*$B$76</f>
+        <v>30643.769999999997</v>
+      </c>
+      <c r="H36" s="48">
+        <f>H19</f>
+        <v>6436</v>
+      </c>
+      <c r="I36" s="48">
+        <f>I19</f>
+        <v>7556</v>
+      </c>
+      <c r="J36" s="48">
+        <f>J19</f>
+        <v>1119</v>
+      </c>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="52">
+        <v>130000</v>
+      </c>
+      <c r="E37" s="41">
+        <f>D37*cpi_2018to2012</f>
+        <v>118820</v>
+      </c>
+      <c r="F37">
+        <f>F20</f>
+        <v>2025</v>
+      </c>
+      <c r="G37" s="48">
+        <f>G20*$B$76</f>
+        <v>30903.69</v>
+      </c>
+      <c r="H37" s="48">
+        <f>H20</f>
+        <v>6531</v>
+      </c>
+      <c r="I37" s="48">
+        <f>I20</f>
+        <v>7667</v>
+      </c>
+      <c r="J37" s="48">
+        <f>J20</f>
+        <v>1137</v>
+      </c>
+      <c r="K37" s="48"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f>F21</f>
+        <v>2026</v>
+      </c>
+      <c r="G38" s="48">
+        <f>G21*$B$76</f>
+        <v>31209.21</v>
+      </c>
+      <c r="H38" s="48">
+        <f>H21</f>
+        <v>6649</v>
+      </c>
+      <c r="I38" s="48">
+        <f>I21</f>
+        <v>7806</v>
+      </c>
+      <c r="J38" s="48">
+        <f>J21</f>
+        <v>1177</v>
+      </c>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <f>F22</f>
+        <v>2027</v>
+      </c>
+      <c r="G39" s="48">
+        <f>G22*$B$76</f>
+        <v>31436.639999999996</v>
+      </c>
+      <c r="H39" s="48">
+        <f>H22</f>
+        <v>6786</v>
+      </c>
+      <c r="I39" s="48">
+        <f>I22</f>
+        <v>7966</v>
+      </c>
+      <c r="J39" s="48">
+        <f>J22</f>
+        <v>1194</v>
+      </c>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="C40" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="61">
+        <f>D33*G46+D34*H46+D35*I46</f>
+        <v>55331.59668441402</v>
+      </c>
+      <c r="E40" s="41">
+        <f>D40*cpi_2018to2012</f>
+        <v>50573.07936955442</v>
+      </c>
+      <c r="F40">
+        <f>F23</f>
+        <v>2028</v>
+      </c>
+      <c r="G40" s="48">
+        <f>G23*$B$76</f>
+        <v>31786.049999999996</v>
+      </c>
+      <c r="H40" s="48">
+        <f>H23</f>
+        <v>6904</v>
+      </c>
+      <c r="I40" s="48">
+        <f>I23</f>
+        <v>8105</v>
+      </c>
+      <c r="J40" s="48">
+        <f>J23</f>
+        <v>1216</v>
+      </c>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="61">
+        <f>(D32/D33)*D40</f>
+        <v>49798.437015972617</v>
+      </c>
+      <c r="E41" s="41">
+        <f>D41*cpi_2018to2012</f>
+        <v>45515.771432598973</v>
+      </c>
+      <c r="F41">
+        <f>F24</f>
+        <v>2029</v>
+      </c>
+      <c r="G41" s="48">
+        <f>G24*$B$76</f>
+        <v>32131.469999999998</v>
+      </c>
+      <c r="H41" s="48">
+        <f>H24</f>
+        <v>7024</v>
+      </c>
+      <c r="I41" s="48">
+        <f>I24</f>
+        <v>8246</v>
+      </c>
+      <c r="J41" s="48">
+        <f>J24</f>
+        <v>1239</v>
+      </c>
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f>F25</f>
+        <v>2030</v>
+      </c>
+      <c r="G42" s="48">
+        <f>G25*$B$76</f>
+        <v>32471.759999999998</v>
+      </c>
+      <c r="H42" s="48">
+        <f>H25</f>
+        <v>7147</v>
+      </c>
+      <c r="I42" s="48">
+        <f>I25</f>
+        <v>8390</v>
+      </c>
+      <c r="J42" s="48">
+        <f>J25</f>
+        <v>1264</v>
+      </c>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F43" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="60">
+        <f>SUM(G36:G42)</f>
+        <v>220582.59</v>
+      </c>
+      <c r="H43" s="60">
+        <f>SUM(H36:H42)</f>
+        <v>47477</v>
+      </c>
+      <c r="I43" s="60">
+        <f>SUM(I36:I42)</f>
+        <v>55736</v>
+      </c>
+      <c r="J43" s="60">
+        <f>SUM(J36:J42)</f>
+        <v>8346</v>
+      </c>
+      <c r="K43" s="48">
+        <f>G43+H43+I43+J43</f>
+        <v>332141.58999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="G44" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F45" s="56"/>
+      <c r="G45" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="F46" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="54">
+        <f>G43/SUM($G43:$J43)</f>
+        <v>0.66412215946819553</v>
+      </c>
+      <c r="H46" s="54">
+        <f>H43/SUM($G43:$J43)</f>
+        <v>0.1429420507079526</v>
+      </c>
+      <c r="I46" s="54">
+        <f>I43/SUM($G43:$J43)</f>
+        <v>0.16780795202431592</v>
+      </c>
+      <c r="J46" s="54">
+        <f>J43/SUM($G43:$J43)</f>
+        <v>2.5127837799536038E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="52">
+        <v>64896</v>
+      </c>
+      <c r="C63" s="52">
+        <v>63635</v>
+      </c>
+      <c r="D63" s="52">
+        <v>62599</v>
+      </c>
+      <c r="E63" s="52">
+        <v>61684</v>
+      </c>
+      <c r="F63" s="52">
+        <v>60829</v>
+      </c>
+      <c r="G63" s="52">
+        <v>60035</v>
+      </c>
+      <c r="H63" s="52">
+        <v>59241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="52">
+        <v>69241</v>
+      </c>
+      <c r="C64" s="52">
+        <v>67568</v>
+      </c>
+      <c r="D64" s="52">
+        <v>66201</v>
+      </c>
+      <c r="E64" s="52">
+        <v>65011</v>
+      </c>
+      <c r="F64" s="52">
+        <v>63909</v>
+      </c>
+      <c r="G64" s="52">
+        <v>62895</v>
+      </c>
+      <c r="H64" s="52">
+        <v>61881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="52">
+        <v>80127</v>
+      </c>
+      <c r="C65" s="52">
+        <v>77616</v>
+      </c>
+      <c r="D65" s="52">
+        <v>75585</v>
+      </c>
+      <c r="E65" s="52">
+        <v>73852</v>
+      </c>
+      <c r="F65" s="52">
+        <v>72267</v>
+      </c>
+      <c r="G65" s="52">
+        <v>70830</v>
+      </c>
+      <c r="H65" s="52">
+        <v>69394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="52">
+        <v>91424</v>
+      </c>
+      <c r="C66" s="52">
+        <v>87841</v>
+      </c>
+      <c r="D66" s="52">
+        <v>84952</v>
+      </c>
+      <c r="E66" s="52">
+        <v>82503</v>
+      </c>
+      <c r="F66" s="52">
+        <v>80275</v>
+      </c>
+      <c r="G66" s="52">
+        <v>78266</v>
+      </c>
+      <c r="H66" s="52">
+        <v>76258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="52">
+        <v>116174</v>
+      </c>
+      <c r="C67" s="52">
+        <v>112591</v>
+      </c>
+      <c r="D67" s="52">
+        <v>109702</v>
+      </c>
+      <c r="E67" s="52">
+        <v>107253</v>
+      </c>
+      <c r="F67" s="52">
+        <v>105025</v>
+      </c>
+      <c r="G67" s="52">
+        <v>103016</v>
+      </c>
+      <c r="H67" s="52">
+        <v>101008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="52">
+        <v>133554</v>
+      </c>
+      <c r="C68" s="52">
+        <v>128321</v>
+      </c>
+      <c r="D68" s="52">
+        <v>124112</v>
+      </c>
+      <c r="E68" s="52">
+        <v>120563</v>
+      </c>
+      <c r="F68" s="52">
+        <v>117345</v>
+      </c>
+      <c r="G68" s="52">
+        <v>114456</v>
+      </c>
+      <c r="H68" s="52">
+        <v>111568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="52">
+        <v>154799</v>
+      </c>
+      <c r="C69" s="52">
+        <v>150486</v>
+      </c>
+      <c r="D69" s="52">
+        <v>147007</v>
+      </c>
+      <c r="E69" s="52">
+        <v>144057</v>
+      </c>
+      <c r="F69" s="52">
+        <v>141371</v>
+      </c>
+      <c r="G69" s="52">
+        <v>138949</v>
+      </c>
+      <c r="H69" s="52">
+        <v>136527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="52">
+        <v>175655</v>
+      </c>
+      <c r="C70" s="52">
+        <v>169362</v>
+      </c>
+      <c r="D70" s="52">
+        <v>164299</v>
+      </c>
+      <c r="E70" s="52">
+        <v>160029</v>
+      </c>
+      <c r="F70" s="52">
+        <v>156155</v>
+      </c>
+      <c r="G70" s="52">
+        <v>152677</v>
+      </c>
+      <c r="H70" s="52">
+        <v>149199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="52">
+        <v>201351</v>
+      </c>
+      <c r="C71" s="52">
+        <v>194134</v>
+      </c>
+      <c r="D71" s="52">
+        <v>188312</v>
+      </c>
+      <c r="E71" s="52">
+        <v>183371</v>
+      </c>
+      <c r="F71" s="52">
+        <v>178870</v>
+      </c>
+      <c r="G71" s="52">
+        <v>174809</v>
+      </c>
+      <c r="H71" s="52">
+        <v>170748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="52">
+        <v>216931</v>
+      </c>
+      <c r="C72" s="52">
+        <v>212353</v>
+      </c>
+      <c r="D72" s="52">
+        <v>207885</v>
+      </c>
+      <c r="E72" s="52">
+        <v>203439</v>
+      </c>
+      <c r="F72" s="52">
+        <v>199004</v>
+      </c>
+      <c r="G72" s="52">
+        <v>194579</v>
+      </c>
+      <c r="H72" s="52">
+        <v>190155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <f>B72/B71</f>
+        <v>1.077377316228874</v>
+      </c>
+      <c r="C74">
+        <f>C72/C71</f>
+        <v>1.0938475486004513</v>
+      </c>
+      <c r="D74">
+        <f>D72/D71</f>
+        <v>1.1039392072730363</v>
+      </c>
+      <c r="E74">
+        <f>E72/E71</f>
+        <v>1.109439333373325</v>
+      </c>
+      <c r="F74">
+        <f>F72/F71</f>
+        <v>1.1125621960082741</v>
+      </c>
+      <c r="G74">
+        <f>G72/G71</f>
+        <v>1.1130948635367743</v>
+      </c>
+      <c r="H74">
+        <f>H72/H71</f>
+        <v>1.113658725138801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="50">
+        <f>0.57</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="49">
+        <v>59513.619728112782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="48">
+        <f>$D$40</f>
+        <v>55331.59668441402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="41">
+        <f>B89/B90</f>
+        <v>1.0755811018350165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:J44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6CA68799-D590-4E9C-A58B-FCBBA33FC526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15434,7 +18791,7 @@
         <v>0.5</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2:AG2" si="1">M2</f>
+        <f t="shared" ref="N2:AG3" si="1">M2</f>
         <v>0.5</v>
       </c>
       <c r="O2" s="5">
@@ -15519,132 +18876,132 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>B2</f>
-        <v>0.44</v>
+        <f>'EV freight LDVs'!E26</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ref="C3:AG7" si="2">C2</f>
-        <v>0.44</v>
+        <f>B3</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" ref="D3:M3" si="2">C3</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" si="2"/>
-        <v>0.45200000000000001</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" si="2"/>
-        <v>0.46400000000000002</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" si="2"/>
-        <v>0.47600000000000003</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" si="2"/>
-        <v>0.48800000000000004</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AA3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AF3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AG3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -15652,132 +19009,132 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B7" si="3">B3</f>
-        <v>0.44</v>
+        <f t="shared" ref="B4:C7" si="3">B3</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" ref="D4:AG4" si="4">D3</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45200000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.46400000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.47600000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48800000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -15786,131 +19143,131 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" ref="C5:C7" si="5">C4</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" ref="D5:AG5" si="6">D4</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45200000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.46400000000000002</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.47600000000000003</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48800000000000004</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.34797860071758074</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -15919,131 +19276,131 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="5"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" ref="D6:AG6" si="7">D5</f>
+        <v>0.34797860071758074</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45200000000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.46400000000000002</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.47600000000000003</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48800000000000004</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="7"/>
+        <v>0.34797860071758074</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -16052,131 +19409,1052 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="3"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:AG7" si="8">D6</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <f>'EV freight LDVs'!E24</f>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2</f>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:AG2" si="0">C2</f>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17491818066603548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'EV freight LDVs'!E26</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:M3" si="1">C3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:AC3" si="2">M3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="2"/>
-        <v>0.44</v>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:AG7" si="4">B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.44</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.45200000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.46400000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.47600000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.48800000000000004</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12CCF9-60A5-4FBA-A67E-52491542EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE09212-5A88-489F-A023-A6FAF937A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
     <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="EV freight LDVs" sheetId="7" r:id="rId4"/>
-    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId5"/>
-    <sheet name="CARB ACT ISOR" sheetId="9" r:id="rId6"/>
-    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
-    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
+    <sheet name="Freight LDVs" sheetId="13" r:id="rId4"/>
+    <sheet name="Table 44" sheetId="14" r:id="rId5"/>
+    <sheet name="Table 49" sheetId="15" r:id="rId6"/>
+    <sheet name="Heavy freight" sheetId="7" r:id="rId7"/>
+    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId8"/>
+    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId9"/>
+    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -32,42 +32,44 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
     <definedName name="AEO">[1]Safety!$L$2</definedName>
-    <definedName name="asdf">[8]About!$A$113</definedName>
-    <definedName name="compa">[2]PROVP!#REF!</definedName>
-    <definedName name="Comparaison">[2]PROVP!$A:$A</definedName>
-    <definedName name="cpi_2010to2012">[7]About!#REF!</definedName>
-    <definedName name="cpi_2014to2012">[7]About!#REF!</definedName>
-    <definedName name="cpi_2017to2012">[7]About!$A$121</definedName>
-    <definedName name="cpi_2018to2012">[7]About!$A$122</definedName>
-    <definedName name="cpi_2019to2012">[7]About!$A$123</definedName>
-    <definedName name="cpi_2020to2012">[7]About!$A$124</definedName>
+    <definedName name="asdf">[2]About!$A$113</definedName>
+    <definedName name="compa">[3]PROVP!#REF!</definedName>
+    <definedName name="Comparaison">[3]PROVP!$A:$A</definedName>
+    <definedName name="cpi_2010to2012">[4]About!#REF!</definedName>
+    <definedName name="cpi_2014to2012">[4]About!#REF!</definedName>
+    <definedName name="cpi_2017to2012">[4]About!$A$121</definedName>
+    <definedName name="cpi_2018to2012">[4]About!$A$122</definedName>
+    <definedName name="cpi_2019to2012">[4]About!$A$123</definedName>
+    <definedName name="cpi_2020to2012">[4]About!$A$124</definedName>
     <definedName name="cut_allowed_LT">[1]Safety!$L$6</definedName>
     <definedName name="cut_allowed_PC">[1]Safety!$L$5</definedName>
     <definedName name="cut_safety_LT">[1]Safety!$AK$8</definedName>
     <definedName name="cut_safety_PC">[1]Safety!$AK$7</definedName>
-    <definedName name="gC_kWh">[3]INPUTS!$B$32</definedName>
-    <definedName name="gCO2_gC">[3]INPUTS!$B$34</definedName>
-    <definedName name="H2_kg_to_MMBtu">[9]Constants!$D$7</definedName>
-    <definedName name="Impres_titres_MI">[2]PROVP!$A:$A</definedName>
-    <definedName name="kWh_to_Btu">[9]Constants!$D$4</definedName>
-    <definedName name="mode">[4]Config!$AD$7:$AD$19</definedName>
-    <definedName name="P91_">[2]PROVP!#REF!</definedName>
-    <definedName name="P92_">[2]PROVP!#REF!</definedName>
-    <definedName name="Renewable_and_Non_Renewable_Generation">[5]Contents!#REF!</definedName>
-    <definedName name="Scenario">[6]Targets_byFleet!$A$1</definedName>
+    <definedName name="gC_kWh">[5]INPUTS!$B$32</definedName>
+    <definedName name="gCO2_gC">[5]INPUTS!$B$34</definedName>
+    <definedName name="H2_kg_to_MMBtu">[6]Constants!$D$7</definedName>
+    <definedName name="Impres_titres_MI">[3]PROVP!$A:$A</definedName>
+    <definedName name="kWh_to_Btu">[6]Constants!$D$4</definedName>
+    <definedName name="mode">[7]Config!$AD$7:$AD$19</definedName>
+    <definedName name="P91_">[3]PROVP!#REF!</definedName>
+    <definedName name="P92_">[3]PROVP!#REF!</definedName>
+    <definedName name="Renewable_and_Non_Renewable_Generation">[8]Contents!#REF!</definedName>
+    <definedName name="Scenario">[9]Targets_byFleet!$A$1</definedName>
     <definedName name="TableName">"Dummy"</definedName>
     <definedName name="tblVspecsData">#REF!</definedName>
     <definedName name="tblVspecsHeader">#REF!</definedName>
-    <definedName name="Transmission_loss">[3]kWhpMi!$G$1</definedName>
-    <definedName name="UF_REEV20">[3]kWhpMi!$M$5</definedName>
-    <definedName name="UF_REEV40">[3]kWhpMi!$M$4</definedName>
+    <definedName name="Transmission_loss">[5]kWhpMi!$G$1</definedName>
+    <definedName name="UF_REEV20">[5]kWhpMi!$M$5</definedName>
+    <definedName name="UF_REEV40">[5]kWhpMi!$M$4</definedName>
     <definedName name="WRcap_2021">[1]Safety!$L$3</definedName>
     <definedName name="WRcap_2025">[1]Safety!$L$4</definedName>
-    <definedName name="Zone_impres_MI">[2]PROVP!$B$5:$B$90</definedName>
+    <definedName name="Zone_impres_MI">[3]PROVP!$B$5:$B$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="190">
   <si>
     <t>Sources:</t>
   </si>
@@ -333,9 +335,6 @@
     <t>In the US, we use this value as a calibrating parameter and choose values that align our EV cost declines</t>
   </si>
   <si>
-    <t>for passenger LDVs with the cited NAP study.</t>
-  </si>
-  <si>
     <t>EIA</t>
   </si>
   <si>
@@ -345,13 +344,7 @@
     <t>Annual Energy Outlook 2021</t>
   </si>
   <si>
-    <t>Table 38</t>
-  </si>
-  <si>
     <t>Passenger LDV EV Cost</t>
-  </si>
-  <si>
-    <t>Passenger LDV Sales Share by Vehicle Class</t>
   </si>
   <si>
     <t>6-7</t>
@@ -381,37 +374,13 @@
     <t>Battery size</t>
   </si>
   <si>
-    <t>Average vehicle cost 2024</t>
-  </si>
-  <si>
     <t>2024 Vehicle cost</t>
-  </si>
-  <si>
-    <t>Battery share</t>
   </si>
   <si>
     <t>Battery cost (as in CARB, $173.8 in 2024)</t>
   </si>
   <si>
-    <t>Vehicle plus battery cost (2024)</t>
-  </si>
-  <si>
-    <t>Vehicle cost not including battery</t>
-  </si>
-  <si>
     <t>Calculations to find vehicle cost not including battery</t>
-  </si>
-  <si>
-    <t>total LDV freight</t>
-  </si>
-  <si>
-    <t>Sales shared for LDV freight - total</t>
-  </si>
-  <si>
-    <t>Share of battery for EPS purposes</t>
-  </si>
-  <si>
-    <t>Vehicle including battery</t>
   </si>
   <si>
     <t>Calculate with BNEF 2019 battery pack cost (capacity weighted average)</t>
@@ -492,84 +461,6 @@
     <t>Use same battery price as LDVs, in line with ICCT's assumption:</t>
   </si>
   <si>
-    <t>Ratio of natural gas to diesel</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Natural Gas - LDV per AEO and USEPS</t>
-  </si>
-  <si>
-    <t>ISOR states:</t>
-  </si>
-  <si>
-    <t>Diesel fraction within class 2b-3</t>
-  </si>
-  <si>
-    <t>Ratio of Fuel Cell to Electric</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor - Fuel Cell</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor - Electric</t>
-  </si>
-  <si>
-    <t>Class 8 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 8 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 6-7 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 6-7 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 4-5 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 4-5 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>2030 MY</t>
-  </si>
-  <si>
-    <t>2029 MY</t>
-  </si>
-  <si>
-    <t>2028 MY</t>
-  </si>
-  <si>
-    <t>2027 MY</t>
-  </si>
-  <si>
-    <t>2026 MY</t>
-  </si>
-  <si>
-    <t>2025 MY</t>
-  </si>
-  <si>
-    <t>2024 MY</t>
-  </si>
-  <si>
-    <t>Vehicle Group</t>
-  </si>
-  <si>
-    <t>Sales Share - DIESEL ONLY (2024-2030)</t>
-  </si>
-  <si>
-    <t>Class 8</t>
-  </si>
-  <si>
     <t>Class 6-7</t>
   </si>
   <si>
@@ -579,118 +470,7 @@
     <t>Class 2b-3</t>
   </si>
   <si>
-    <t>LDV Freight</t>
-  </si>
-  <si>
-    <t>BEV and FCEV Price Forecasts:</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>Calculated LDV Avg - Gasoline</t>
-  </si>
-  <si>
-    <t>Use ratio of Gasoline/Diesel for Class 2b-3 for calculated gasoline value:</t>
-  </si>
-  <si>
-    <t>Calculated LDV Avg - Diesel</t>
-  </si>
-  <si>
-    <t>2012 $s</t>
-  </si>
-  <si>
-    <t>2018 $s</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractors</t>
-  </si>
-  <si>
-    <t>LDV freight sales - DIESEL ONLY</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Diesel</t>
-  </si>
-  <si>
-    <t>This file uses EIA's definition that includes Class 8 non-tractors in vocational vehicles/LDV freight.</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Gasoline</t>
-  </si>
-  <si>
-    <t>* E3 categorizes Class 8 non-tractors and Class 7-8 tractors as HDV freight.</t>
-  </si>
-  <si>
-    <t>Vehicle Price</t>
-  </si>
-  <si>
-    <t>Sales Share (2024-2030)</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor</t>
-  </si>
-  <si>
-    <t>Gasoline and Diesel Vehicle Starting Prices:</t>
-  </si>
-  <si>
-    <t>HDV Freight</t>
-  </si>
-  <si>
-    <t>Note that E3 groups Class 8 non-tractors with Class 7-8 tractors in HDV freight.</t>
-  </si>
-  <si>
-    <t>*Vocational Vehicles encompass Class 8 non-tractor vehicles according to the EIA.</t>
-  </si>
-  <si>
-    <t>Calculated LDV Average</t>
-  </si>
-  <si>
-    <t>Tractors</t>
-  </si>
-  <si>
-    <t>Vocational Vehicles*</t>
-  </si>
-  <si>
-    <t>Model Year</t>
-  </si>
-  <si>
-    <t>Class 2b-3 Pickup/Van</t>
-  </si>
-  <si>
-    <t>2027-2030 MY</t>
-  </si>
-  <si>
-    <t>2024-2026 MY</t>
-  </si>
-  <si>
-    <t>2021-2023 MY</t>
-  </si>
-  <si>
-    <t>In 2012 $s for rows 20 and 21</t>
-  </si>
-  <si>
-    <t>Sales - diesel and gasoline</t>
-  </si>
-  <si>
-    <t>Added notes/calculation</t>
-  </si>
-  <si>
-    <t>Copied from CARB source</t>
-  </si>
-  <si>
-    <t>Color Key:</t>
-  </si>
-  <si>
     <t>https://ww3.arb.ca.gov/regact/2019/act2019/isor.pdf</t>
-  </si>
-  <si>
-    <t>PUBLIC HEARING TO CONSIDER THE PROPOSED ADVANCED CLEAN TRUCKS REGULATION</t>
-  </si>
-  <si>
-    <t>Source: CARB</t>
-  </si>
-  <si>
-    <t>LDV-freight</t>
   </si>
   <si>
     <t>CARB</t>
@@ -714,7 +494,169 @@
     <t>"MDV &amp; HDV Decarbonization" sheet</t>
   </si>
   <si>
-    <t>For other vehicle types, we use the LDV-freight calculations</t>
+    <t>Fleet Vehicle Sales Commercial Light Trucks (Case High oil and gas supply)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=54-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;linechart=highogs-d120120a.57-54-AEO2021~highogs-d120120a.58-54-AEO2021~highogs-d120120a.59-54-AEO2021~highogs-d120120a.60-54-AEO2021~highogs-d120120a.61-54-AEO2021~highogs-d120120a.62-54-AEO2021~highogs-d120120a.63-54-AEO2021~highogs-d120120a.64-54-AEO2021~highogs-d120120a.65-54-AEO2021~highogs-d120120a.66-54-AEO2021&amp;ctype=linechart&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>10:53:55 GMT-0700 (Pacific Daylight Time)</t>
+  </si>
+  <si>
+    <t>Source: U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Gasoline thousands</t>
+  </si>
+  <si>
+    <t>TDI Diesel thousands</t>
+  </si>
+  <si>
+    <t>Propane thousands</t>
+  </si>
+  <si>
+    <t>CNG/LNG thousands</t>
+  </si>
+  <si>
+    <t>Ethanol Flex thousands</t>
+  </si>
+  <si>
+    <t>Electric thousands</t>
+  </si>
+  <si>
+    <t>Plug-in Gas thousands</t>
+  </si>
+  <si>
+    <t>Plug-in Diesel thousands</t>
+  </si>
+  <si>
+    <t>Fuel Cell thousands</t>
+  </si>
+  <si>
+    <t>Total thousands</t>
+  </si>
+  <si>
+    <t>Freight New Trucks Sales (Case High oil and gas supply)</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=58-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;linechart=highogs-d120120a.198-58-AEO2021~highogs-d120120a.199-58-AEO2021~highogs-d120120a.200-58-AEO2021~highogs-d120120a.201-58-AEO2021~highogs-d120120a.202-58-AEO2021~highogs-d120120a.203-58-AEO2021~highogs-d120120a.204-58-AEO2021~highogs-d120120a.205-58-AEO2021~highogs-d120120a.206-58-AEO2021~highogs-d120120a.207-58-AEO2021~highogs-d120120a.209-58-AEO2021~highogs-d120120a.210-58-AEO2021~highogs-d120120a.211-58-AEO2021~highogs-d120120a.212-58-AEO2021~highogs-d120120a.213-58-AEO2021~highogs-d120120a.214-58-AEO2021~highogs-d120120a.215-58-AEO2021~highogs-d120120a.216-58-AEO2021~highogs-d120120a.217-58-AEO2021~highogs-d120120a.218-58-AEO2021~~~~~~~~~~&amp;ctype=linechart&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>10:52:58 GMT-0700 (Pacific Daylight Time)</t>
+  </si>
+  <si>
+    <t>Light Medium: Diesel thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Motor Gasoline thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Propane thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Natural Gas thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Ethanol-Flex Fuel thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Electric thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Plug-in Diesel Hybrid thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Plug-in Gasoline Hybrid thousands</t>
+  </si>
+  <si>
+    <t>Light Medium: Fuel Cell thousands</t>
+  </si>
+  <si>
+    <t>Light Medium thousands</t>
+  </si>
+  <si>
+    <t>Medium: Diesel thousands</t>
+  </si>
+  <si>
+    <t>Medium: Motor Gasoline thousands</t>
+  </si>
+  <si>
+    <t>Medium: Propane thousands</t>
+  </si>
+  <si>
+    <t>Medium: Natural Gas thousands</t>
+  </si>
+  <si>
+    <t>Medium: Ethanol-Flex Fuel thousands</t>
+  </si>
+  <si>
+    <t>Medium: Electric thousands</t>
+  </si>
+  <si>
+    <t>Medium: Plug-in Diesel Hybrid thousands</t>
+  </si>
+  <si>
+    <t>Medium: Plug-in Gasoline Hybrid thousands</t>
+  </si>
+  <si>
+    <t>Medium: Fuel Cell thousands</t>
+  </si>
+  <si>
+    <t>Medium thousands</t>
+  </si>
+  <si>
+    <t>Percent of vehicle that is battery</t>
+  </si>
+  <si>
+    <t>2019 USD</t>
+  </si>
+  <si>
+    <t>2012 USD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>% medium</t>
+  </si>
+  <si>
+    <t>% light medium</t>
+  </si>
+  <si>
+    <t>% light</t>
+  </si>
+  <si>
+    <t>2019 to 2012 USD (see cpi.xlsx)</t>
+  </si>
+  <si>
+    <t>Start Year Freight LDV price (see BNVP)</t>
+  </si>
+  <si>
+    <t>% Decline by 2030</t>
+  </si>
+  <si>
+    <t>2030 Freight LDV price from EPS (calibrated)</t>
+  </si>
+  <si>
+    <t>% Decline by 2030 (calibrated)</t>
+  </si>
+  <si>
+    <t>for passenger LDVs with the cited NAP study and for freight LDVs with CARB.</t>
+  </si>
+  <si>
+    <t>For other vehicle types, we use CARB data to calculate a battery share for heavy freight vehicles.</t>
+  </si>
+  <si>
+    <t>All other vehicle types</t>
+  </si>
+  <si>
+    <t>Table 38, Table 44, Table 49</t>
+  </si>
+  <si>
+    <t>Sales Share by Vehicle Class</t>
   </si>
 </sst>
 </file>
@@ -726,7 +668,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,17 +719,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,20 +799,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -905,85 +826,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -997,8 +841,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1041,9 +886,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1053,70 +895,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
     <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{FEE8019A-152E-4283-8314-55D41AB83B33}"/>
@@ -1124,6 +909,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C503966-CFFD-4326-9D3B-E3B164AC8CF2}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{645FBC49-E98E-4F54-99F5-8C4D00B6C436}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{BA852934-A7AE-493A-80C5-3659A52B75F9}"/>
   </cellStyles>
@@ -2247,16 +2033,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>551619</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113738</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599244</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,8 +2065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="323850"/>
-          <a:ext cx="6647619" cy="4495238"/>
+          <a:off x="6819900" y="177800"/>
+          <a:ext cx="6647619" cy="4498413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2291,16 +2077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313284</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>46846</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392659</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2323,8 +2109,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="4854575"/>
-          <a:ext cx="8323809" cy="6231746"/>
+          <a:off x="5540375" y="4702175"/>
+          <a:ext cx="8330159" cy="6231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,6 +2123,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159859</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F466F-A745-48FC-9BC4-1AFD8EBC4BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="311150"/>
+          <a:ext cx="5611334" cy="1135061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2458,244 +2293,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5056359" cy="1063625"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F769AE-BF9F-4E37-87F8-C727D60B49FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1657350"/>
-          <a:ext cx="5056359" cy="1063625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2858789" cy="1708946"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BA4FE6-91A3-40A6-A3D2-C455164B9096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11906" y="5237160"/>
-          <a:ext cx="2858789" cy="1708946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5608159" cy="1141411"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E9903-FA14-4D2E-AE15-CE9847D7771D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8110538"/>
-          <a:ext cx="5608159" cy="1141411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28070</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6259513" cy="856166"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0552C69B-315A-455F-9343-80E800709370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31751" y="9235570"/>
-          <a:ext cx="6259513" cy="856166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6052442" cy="2014537"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A26EA4-5529-432D-9808-0A9ECB2E1D10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3079750" y="534988"/>
-          <a:ext cx="6052442" cy="2014537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>198439</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6132513" cy="1539900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DE5A9A-25F5-47A3-AADE-919455275704}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="-5820" t="58889" r="8022" b="-2256"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="198439" y="14346237"/>
-          <a:ext cx="6132513" cy="1539900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2710,264 +2307,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PROVP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="INPUTS"/>
-      <sheetName val="kWhpMi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Contents"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Targets_byFleet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Table 44"/>
-      <sheetName val="Table 49"/>
-      <sheetName val="AEO 39"/>
-      <sheetName val="Table_38"/>
-      <sheetName val="AEO 42"/>
-      <sheetName val="AEO 52"/>
-      <sheetName val="NREL_ATB_2020"/>
-      <sheetName val="NREL Calcs"/>
-      <sheetName val="LDV Cost Calcs"/>
-      <sheetName val="PHEV Price Calcs"/>
-      <sheetName val="Start Year psgr LDV EV Price"/>
-      <sheetName val="LDV Shares"/>
-      <sheetName val="EV freight LDVs"/>
-      <sheetName val="EV freight truck batteries"/>
-      <sheetName val="CARB ACT ISOR"/>
-      <sheetName val="Freight HDVs"/>
-      <sheetName val="Hydrogen Vehicle Calcs"/>
-      <sheetName val="Passenger Aircraft"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Motorbikes"/>
-      <sheetName val="BNVP-LDVs-psgr"/>
-      <sheetName val="BNVP-LDVs-frgt"/>
-      <sheetName val="BNVP-HDVs-psgr"/>
-      <sheetName val="BNVP-HDVs-frgt"/>
-      <sheetName val="BNVP-aircraft-psgr"/>
-      <sheetName val="BNVP-aircraft-frgt"/>
-      <sheetName val="BNVP-rail-psgr"/>
-      <sheetName val="BNVP-rail-frgt"/>
-      <sheetName val="BNVP-ships-psgr"/>
-      <sheetName val="BNVP-ships-frgt"/>
-      <sheetName val="BNVP-motorbikes-psgr"/>
-      <sheetName val="BNVP-motorbikes-frgt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="121">
-          <cell r="A121">
-            <v>0.93665959530026111</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>0.89805481563188172</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>0.88711067149387013</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="26">
-          <cell r="K26">
-            <v>970.98468000000003</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>981.23956299999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>966.18756099999996</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>953.71936000000005</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>966.38690199999996</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>964.77038600000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>940.58337400000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="K26">
-            <v>296.49893200000002</v>
-          </cell>
-          <cell r="U26">
-            <v>217.47422800000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>295.82556199999999</v>
-          </cell>
-          <cell r="U27">
-            <v>216.90455600000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>291.37560999999999</v>
-          </cell>
-          <cell r="U28">
-            <v>217.18345600000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>286.20315599999998</v>
-          </cell>
-          <cell r="U29">
-            <v>221.50202899999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>287.59738199999998</v>
-          </cell>
-          <cell r="U30">
-            <v>230.97200000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>284.73254400000002</v>
-          </cell>
-          <cell r="U31">
-            <v>230.983047</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>273.59762599999999</v>
-          </cell>
-          <cell r="U32">
-            <v>222.50271599999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3032,7 +2371,108 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PROVP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="Table_38"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 52"/>
+      <sheetName val="NREL_ATB_2020"/>
+      <sheetName val="NREL Calcs"/>
+      <sheetName val="LDV Cost Calcs"/>
+      <sheetName val="PHEV Price Calcs"/>
+      <sheetName val="Start Year psgr LDV EV Price"/>
+      <sheetName val="CARB ACT ISOR"/>
+      <sheetName val="LDV Shares"/>
+      <sheetName val="Freight HDVs"/>
+      <sheetName val="Hydrogen Vehicle Calcs"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INPUTS"/>
+      <sheetName val="kWhpMi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3091,6 +2531,45 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Contents"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Targets_byFleet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3417,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3438,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3468,12 +2947,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,27 +2962,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3513,22 +2992,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="77" t="s">
-        <v>198</v>
+      <c r="B21" s="45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3538,17 +3017,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="46" t="s">
-        <v>207</v>
+      <c r="B27" s="43" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3566,19 +3045,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
@@ -3586,6 +3073,926 @@
     <hyperlink ref="B27" r:id="rId1" xr:uid="{18F0FF1B-47B9-4F49-ADF2-C7A2A53893E5}"/>
     <hyperlink ref="B21" r:id="rId2" xr:uid="{D9A18C3F-356D-4AC7-AF7C-AEFD19442E02}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:AG2" si="0">C2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Heavy freight'!E11</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:M3" si="1">C3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:AC3" si="2">M3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:AG7" si="4">B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16278,8 +16685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9DD83-4E8C-4A41-986C-F727F17C4502}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16590,11 +16997,3793 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
-  <dimension ref="A1:E50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA837DA2-0F73-4943-9F40-28FFCE3BE017}">
+  <dimension ref="A9:AF27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <v>2025</v>
+      </c>
+      <c r="H10">
+        <v>2026</v>
+      </c>
+      <c r="I10">
+        <v>2027</v>
+      </c>
+      <c r="J10">
+        <v>2028</v>
+      </c>
+      <c r="K10">
+        <v>2029</v>
+      </c>
+      <c r="L10">
+        <v>2030</v>
+      </c>
+      <c r="M10">
+        <v>2031</v>
+      </c>
+      <c r="N10">
+        <v>2032</v>
+      </c>
+      <c r="O10">
+        <v>2033</v>
+      </c>
+      <c r="P10">
+        <v>2034</v>
+      </c>
+      <c r="Q10">
+        <v>2035</v>
+      </c>
+      <c r="R10">
+        <v>2036</v>
+      </c>
+      <c r="S10">
+        <v>2037</v>
+      </c>
+      <c r="T10">
+        <v>2038</v>
+      </c>
+      <c r="U10">
+        <v>2039</v>
+      </c>
+      <c r="V10">
+        <v>2040</v>
+      </c>
+      <c r="W10">
+        <v>2041</v>
+      </c>
+      <c r="X10">
+        <v>2042</v>
+      </c>
+      <c r="Y10">
+        <v>2043</v>
+      </c>
+      <c r="Z10">
+        <v>2044</v>
+      </c>
+      <c r="AA10">
+        <v>2045</v>
+      </c>
+      <c r="AB10">
+        <v>2046</v>
+      </c>
+      <c r="AC10">
+        <v>2047</v>
+      </c>
+      <c r="AD10">
+        <v>2048</v>
+      </c>
+      <c r="AE10">
+        <v>2049</v>
+      </c>
+      <c r="AF10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>64896</v>
+      </c>
+      <c r="G11">
+        <v>63635</v>
+      </c>
+      <c r="H11">
+        <v>62599</v>
+      </c>
+      <c r="I11">
+        <v>61684</v>
+      </c>
+      <c r="J11">
+        <v>60829</v>
+      </c>
+      <c r="K11">
+        <v>60035</v>
+      </c>
+      <c r="L11">
+        <v>59241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12">
+        <v>80127</v>
+      </c>
+      <c r="G12">
+        <v>77616</v>
+      </c>
+      <c r="H12">
+        <v>75585</v>
+      </c>
+      <c r="I12">
+        <v>73852</v>
+      </c>
+      <c r="J12">
+        <v>72267</v>
+      </c>
+      <c r="K12">
+        <v>70830</v>
+      </c>
+      <c r="L12">
+        <v>69394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>116174</v>
+      </c>
+      <c r="G13">
+        <v>112591</v>
+      </c>
+      <c r="H13">
+        <v>109702</v>
+      </c>
+      <c r="I13">
+        <v>107253</v>
+      </c>
+      <c r="J13">
+        <v>105025</v>
+      </c>
+      <c r="K13">
+        <v>103016</v>
+      </c>
+      <c r="L13">
+        <v>101008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>2024</v>
+      </c>
+      <c r="G16">
+        <v>2025</v>
+      </c>
+      <c r="H16">
+        <v>2026</v>
+      </c>
+      <c r="I16">
+        <v>2027</v>
+      </c>
+      <c r="J16">
+        <v>2028</v>
+      </c>
+      <c r="K16">
+        <v>2029</v>
+      </c>
+      <c r="L16">
+        <v>2030</v>
+      </c>
+      <c r="M16">
+        <v>2031</v>
+      </c>
+      <c r="N16">
+        <v>2032</v>
+      </c>
+      <c r="O16">
+        <v>2033</v>
+      </c>
+      <c r="P16">
+        <v>2034</v>
+      </c>
+      <c r="Q16">
+        <v>2035</v>
+      </c>
+      <c r="R16">
+        <v>2036</v>
+      </c>
+      <c r="S16">
+        <v>2037</v>
+      </c>
+      <c r="T16">
+        <v>2038</v>
+      </c>
+      <c r="U16">
+        <v>2039</v>
+      </c>
+      <c r="V16">
+        <v>2040</v>
+      </c>
+      <c r="W16">
+        <v>2041</v>
+      </c>
+      <c r="X16">
+        <v>2042</v>
+      </c>
+      <c r="Y16">
+        <v>2043</v>
+      </c>
+      <c r="Z16">
+        <v>2044</v>
+      </c>
+      <c r="AA16">
+        <v>2045</v>
+      </c>
+      <c r="AB16">
+        <v>2046</v>
+      </c>
+      <c r="AC16">
+        <v>2047</v>
+      </c>
+      <c r="AD16">
+        <v>2048</v>
+      </c>
+      <c r="AE16">
+        <v>2049</v>
+      </c>
+      <c r="AF16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17">
+        <f>F11*About!$B$39</f>
+        <v>58280.165315246595</v>
+      </c>
+      <c r="G17">
+        <f>G11*About!$B$39</f>
+        <v>57147.718192734792</v>
+      </c>
+      <c r="H17">
+        <f>H11*About!$B$39</f>
+        <v>56217.333403740166</v>
+      </c>
+      <c r="I17">
+        <f>I11*About!$B$39</f>
+        <v>55395.613247436995</v>
+      </c>
+      <c r="J17">
+        <f>J11*About!$B$39</f>
+        <v>54627.776380071737</v>
+      </c>
+      <c r="K17">
+        <f>K11*About!$B$39</f>
+        <v>53914.720856460022</v>
+      </c>
+      <c r="L17">
+        <f>L11*About!$B$39</f>
+        <v>53201.665332848308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <f>F12*About!$B$39</f>
+        <v>71958.438212135792</v>
+      </c>
+      <c r="G18">
+        <f>G12*About!$B$39</f>
+        <v>69703.422570084134</v>
+      </c>
+      <c r="H18">
+        <f>H12*About!$B$39</f>
+        <v>67879.473239535786</v>
+      </c>
+      <c r="I18">
+        <f>I12*About!$B$39</f>
+        <v>66323.144244045732</v>
+      </c>
+      <c r="J18">
+        <f>J12*About!$B$39</f>
+        <v>64899.727361269193</v>
+      </c>
+      <c r="K18">
+        <f>K12*About!$B$39</f>
+        <v>63609.222591206184</v>
+      </c>
+      <c r="L18">
+        <f>L12*About!$B$39</f>
+        <v>62319.6158759588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <f>F13*About!$B$39</f>
+        <v>104330.62015121823</v>
+      </c>
+      <c r="G19">
+        <f>G13*About!$B$39</f>
+        <v>101112.88974680919</v>
+      </c>
+      <c r="H19">
+        <f>H13*About!$B$39</f>
+        <v>98518.409384448692</v>
+      </c>
+      <c r="I19">
+        <f>I13*About!$B$39</f>
+        <v>96319.073140966211</v>
+      </c>
+      <c r="J19">
+        <f>J13*About!$B$39</f>
+        <v>94318.207011738385</v>
+      </c>
+      <c r="K19">
+        <f>K13*About!$B$39</f>
+        <v>92514.014887133933</v>
+      </c>
+      <c r="L19">
+        <f>L13*About!$B$39</f>
+        <v>90710.720817345107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21">
+        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'Table 44'!$B$42:$B$44)</f>
+        <v>67015.820068708723</v>
+      </c>
+      <c r="G21">
+        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'Table 44'!$B$42:$B$44)</f>
+        <v>65390.891021686853</v>
+      </c>
+      <c r="H21">
+        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'Table 44'!$B$42:$B$44)</f>
+        <v>64067.932818421083</v>
+      </c>
+      <c r="I21">
+        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'Table 44'!$B$42:$B$44)</f>
+        <v>62922.20920506223</v>
+      </c>
+      <c r="J21">
+        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'Table 44'!$B$42:$B$44)</f>
+        <v>61864.745857600108</v>
+      </c>
+      <c r="K21">
+        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'Table 44'!$B$42:$B$44)</f>
+        <v>60895.910916680761</v>
+      </c>
+      <c r="L21">
+        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'Table 44'!$B$42:$B$44)</f>
+        <v>59927.367919640412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24">
+        <v>74481.20175540229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="4">
+        <f>1-L21/B24</f>
+        <v>0.19540277939602735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26">
+        <v>60169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="4">
+        <f>1-B26/B24</f>
+        <v>0.19215857717231577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC805C-21A4-4399-B500-D5DE9E467F46}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" style="46" customWidth="1"/>
+    <col min="2" max="16384" width="8.81640625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="46">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="46">
+        <v>41.234305999999997</v>
+      </c>
+      <c r="C6" s="46">
+        <v>303.525238</v>
+      </c>
+      <c r="D6" s="46">
+        <v>2.627345</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.502718</v>
+      </c>
+      <c r="F6" s="46">
+        <v>611.61779799999999</v>
+      </c>
+      <c r="G6" s="46">
+        <v>2.8294320000000002</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.0396559999999999</v>
+      </c>
+      <c r="I6" s="46">
+        <v>3.2382460000000002</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0</v>
+      </c>
+      <c r="K6" s="46">
+        <v>968.61480700000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="46">
+        <v>2049</v>
+      </c>
+      <c r="B7" s="46">
+        <v>52.488135999999997</v>
+      </c>
+      <c r="C7" s="46">
+        <v>312.71551499999998</v>
+      </c>
+      <c r="D7" s="46">
+        <v>2.5694270000000001</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.50015699999999996</v>
+      </c>
+      <c r="F7" s="46">
+        <v>598.50061000000005</v>
+      </c>
+      <c r="G7" s="46">
+        <v>2.7670599999999999</v>
+      </c>
+      <c r="H7" s="46">
+        <v>2.9726509999999999</v>
+      </c>
+      <c r="I7" s="46">
+        <v>3.1668630000000002</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0</v>
+      </c>
+      <c r="K7" s="46">
+        <v>975.68035899999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="46">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="46">
+        <v>65.500670999999997</v>
+      </c>
+      <c r="C8" s="46">
+        <v>319.407623</v>
+      </c>
+      <c r="D8" s="46">
+        <v>2.509144</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.49745099999999998</v>
+      </c>
+      <c r="F8" s="46">
+        <v>584.76025400000003</v>
+      </c>
+      <c r="G8" s="46">
+        <v>2.7021389999999998</v>
+      </c>
+      <c r="H8" s="46">
+        <v>2.9029069999999999</v>
+      </c>
+      <c r="I8" s="46">
+        <v>3.092562</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0</v>
+      </c>
+      <c r="K8" s="46">
+        <v>981.37280299999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="46">
+        <v>2047</v>
+      </c>
+      <c r="B9" s="46">
+        <v>78.435828999999998</v>
+      </c>
+      <c r="C9" s="46">
+        <v>321.22879</v>
+      </c>
+      <c r="D9" s="46">
+        <v>2.4222769999999998</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.49229899999999999</v>
+      </c>
+      <c r="F9" s="46">
+        <v>564.84399399999995</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2.6085910000000001</v>
+      </c>
+      <c r="H9" s="46">
+        <v>2.8024079999999998</v>
+      </c>
+      <c r="I9" s="46">
+        <v>2.9854980000000002</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46">
+        <v>975.81964100000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="46">
+        <v>2046</v>
+      </c>
+      <c r="B10" s="46">
+        <v>91.947372000000001</v>
+      </c>
+      <c r="C10" s="46">
+        <v>326.26950099999999</v>
+      </c>
+      <c r="D10" s="46">
+        <v>2.3632219999999999</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.49283300000000002</v>
+      </c>
+      <c r="F10" s="46">
+        <v>551.32525599999997</v>
+      </c>
+      <c r="G10" s="46">
+        <v>2.544994</v>
+      </c>
+      <c r="H10" s="46">
+        <v>2.734086</v>
+      </c>
+      <c r="I10" s="46">
+        <v>2.912712</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0</v>
+      </c>
+      <c r="K10" s="46">
+        <v>980.589966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="46">
+        <v>2045</v>
+      </c>
+      <c r="B11" s="46">
+        <v>105.51058999999999</v>
+      </c>
+      <c r="C11" s="46">
+        <v>330.60977200000002</v>
+      </c>
+      <c r="D11" s="46">
+        <v>2.302584</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.49298900000000001</v>
+      </c>
+      <c r="F11" s="46">
+        <v>537.19427499999995</v>
+      </c>
+      <c r="G11" s="46">
+        <v>2.479692</v>
+      </c>
+      <c r="H11" s="46">
+        <v>2.663932</v>
+      </c>
+      <c r="I11" s="46">
+        <v>2.8379750000000001</v>
+      </c>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="46">
+        <v>984.091858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="46">
+        <v>2044</v>
+      </c>
+      <c r="B12" s="46">
+        <v>117.87550400000001</v>
+      </c>
+      <c r="C12" s="46">
+        <v>330.536743</v>
+      </c>
+      <c r="D12" s="46">
+        <v>2.2174510000000001</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.48947099999999999</v>
+      </c>
+      <c r="F12" s="46">
+        <v>517.332581</v>
+      </c>
+      <c r="G12" s="46">
+        <v>2.38801</v>
+      </c>
+      <c r="H12" s="46">
+        <v>2.5654379999999999</v>
+      </c>
+      <c r="I12" s="46">
+        <v>2.7330459999999999</v>
+      </c>
+      <c r="J12" s="46">
+        <v>0</v>
+      </c>
+      <c r="K12" s="46">
+        <v>976.13824499999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="46">
+        <v>2043</v>
+      </c>
+      <c r="B13" s="46">
+        <v>131.30926500000001</v>
+      </c>
+      <c r="C13" s="46">
+        <v>332.91735799999998</v>
+      </c>
+      <c r="D13" s="46">
+        <v>2.1549939999999999</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.49047299999999999</v>
+      </c>
+      <c r="F13" s="46">
+        <v>502.76123000000001</v>
+      </c>
+      <c r="G13" s="46">
+        <v>2.3207490000000002</v>
+      </c>
+      <c r="H13" s="46">
+        <v>2.493179</v>
+      </c>
+      <c r="I13" s="46">
+        <v>2.656066</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0</v>
+      </c>
+      <c r="K13" s="46">
+        <v>977.10333300000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="46">
+        <v>2042</v>
+      </c>
+      <c r="B14" s="46">
+        <v>144.83325199999999</v>
+      </c>
+      <c r="C14" s="46">
+        <v>335.44134500000001</v>
+      </c>
+      <c r="D14" s="46">
+        <v>2.0971380000000002</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.49220199999999997</v>
+      </c>
+      <c r="F14" s="46">
+        <v>489.26348899999999</v>
+      </c>
+      <c r="G14" s="46">
+        <v>2.2584430000000002</v>
+      </c>
+      <c r="H14" s="46">
+        <v>2.4262440000000001</v>
+      </c>
+      <c r="I14" s="46">
+        <v>2.5847579999999999</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0</v>
+      </c>
+      <c r="K14" s="46">
+        <v>979.39685099999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="46">
+        <v>2041</v>
+      </c>
+      <c r="B15" s="46">
+        <v>158.02543600000001</v>
+      </c>
+      <c r="C15" s="46">
+        <v>336.600525</v>
+      </c>
+      <c r="D15" s="46">
+        <v>2.0353520000000001</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.49284299999999998</v>
+      </c>
+      <c r="F15" s="46">
+        <v>474.84887700000002</v>
+      </c>
+      <c r="G15" s="46">
+        <v>2.1919050000000002</v>
+      </c>
+      <c r="H15" s="46">
+        <v>2.3547630000000002</v>
+      </c>
+      <c r="I15" s="46">
+        <v>2.5086059999999999</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0</v>
+      </c>
+      <c r="K15" s="46">
+        <v>979.05828899999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="46">
+        <v>2040</v>
+      </c>
+      <c r="B16" s="46">
+        <v>171.80561800000001</v>
+      </c>
+      <c r="C16" s="46">
+        <v>337.33624300000002</v>
+      </c>
+      <c r="D16" s="46">
+        <v>1.977708</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.49430800000000003</v>
+      </c>
+      <c r="F16" s="46">
+        <v>461.40045199999997</v>
+      </c>
+      <c r="G16" s="46">
+        <v>2.1298270000000001</v>
+      </c>
+      <c r="H16" s="46">
+        <v>2.2880720000000001</v>
+      </c>
+      <c r="I16" s="46">
+        <v>2.4375589999999998</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0</v>
+      </c>
+      <c r="K16" s="46">
+        <v>979.86975099999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="46">
+        <v>2039</v>
+      </c>
+      <c r="B17" s="46">
+        <v>186.04432700000001</v>
+      </c>
+      <c r="C17" s="46">
+        <v>337.47348</v>
+      </c>
+      <c r="D17" s="46">
+        <v>1.9226080000000001</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.496506</v>
+      </c>
+      <c r="F17" s="46">
+        <v>448.545502</v>
+      </c>
+      <c r="G17" s="46">
+        <v>2.0704880000000001</v>
+      </c>
+      <c r="H17" s="46">
+        <v>2.2243240000000002</v>
+      </c>
+      <c r="I17" s="46">
+        <v>2.3696470000000001</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0</v>
+      </c>
+      <c r="K17" s="46">
+        <v>981.14685099999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="46">
+        <v>2038</v>
+      </c>
+      <c r="B18" s="46">
+        <v>199.508972</v>
+      </c>
+      <c r="C18" s="46">
+        <v>336.64590500000003</v>
+      </c>
+      <c r="D18" s="46">
+        <v>1.86426</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0.49760399999999999</v>
+      </c>
+      <c r="F18" s="46">
+        <v>434.93289199999998</v>
+      </c>
+      <c r="G18" s="46">
+        <v>2.0076529999999999</v>
+      </c>
+      <c r="H18" s="46">
+        <v>2.1568200000000002</v>
+      </c>
+      <c r="I18" s="46">
+        <v>2.2977319999999999</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0</v>
+      </c>
+      <c r="K18" s="46">
+        <v>979.91186500000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="46">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="46">
+        <v>210.32974200000001</v>
+      </c>
+      <c r="C19" s="46">
+        <v>337.62747200000001</v>
+      </c>
+      <c r="D19" s="46">
+        <v>1.8063149999999999</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.498529</v>
+      </c>
+      <c r="F19" s="46">
+        <v>421.41424599999999</v>
+      </c>
+      <c r="G19" s="46">
+        <v>1.9452510000000001</v>
+      </c>
+      <c r="H19" s="46">
+        <v>2.089782</v>
+      </c>
+      <c r="I19" s="46">
+        <v>2.2263130000000002</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="K19" s="46">
+        <v>977.93768299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="46">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="46">
+        <v>218.55239900000001</v>
+      </c>
+      <c r="C20" s="46">
+        <v>344.63082900000001</v>
+      </c>
+      <c r="D20" s="46">
+        <v>1.7622119999999999</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.50331899999999996</v>
+      </c>
+      <c r="F20" s="46">
+        <v>411.125092</v>
+      </c>
+      <c r="G20" s="46">
+        <v>1.897756</v>
+      </c>
+      <c r="H20" s="46">
+        <v>2.0387580000000001</v>
+      </c>
+      <c r="I20" s="46">
+        <v>2.1719560000000002</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <v>982.68225099999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="46">
+        <v>2035</v>
+      </c>
+      <c r="B21" s="46">
+        <v>228.78547699999999</v>
+      </c>
+      <c r="C21" s="46">
+        <v>348.27847300000002</v>
+      </c>
+      <c r="D21" s="46">
+        <v>1.7158800000000001</v>
+      </c>
+      <c r="E21" s="46">
+        <v>0.50743000000000005</v>
+      </c>
+      <c r="F21" s="46">
+        <v>400.31573500000002</v>
+      </c>
+      <c r="G21" s="46">
+        <v>1.8478600000000001</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1.985155</v>
+      </c>
+      <c r="I21" s="46">
+        <v>2.1148509999999998</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0</v>
+      </c>
+      <c r="K21" s="46">
+        <v>985.55090299999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="46">
+        <v>2034</v>
+      </c>
+      <c r="B22" s="46">
+        <v>236.77565000000001</v>
+      </c>
+      <c r="C22" s="46">
+        <v>349.21078499999999</v>
+      </c>
+      <c r="D22" s="46">
+        <v>1.657538</v>
+      </c>
+      <c r="E22" s="46">
+        <v>0.50814300000000001</v>
+      </c>
+      <c r="F22" s="46">
+        <v>386.70461999999998</v>
+      </c>
+      <c r="G22" s="46">
+        <v>1.785031</v>
+      </c>
+      <c r="H22" s="46">
+        <v>1.9176569999999999</v>
+      </c>
+      <c r="I22" s="46">
+        <v>2.0429439999999999</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0</v>
+      </c>
+      <c r="K22" s="46">
+        <v>980.60241699999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="46">
+        <v>2033</v>
+      </c>
+      <c r="B23" s="46">
+        <v>244.811722</v>
+      </c>
+      <c r="C23" s="46">
+        <v>351.04898100000003</v>
+      </c>
+      <c r="D23" s="46">
+        <v>1.604949</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.51067099999999999</v>
+      </c>
+      <c r="F23" s="46">
+        <v>374.43545499999999</v>
+      </c>
+      <c r="G23" s="46">
+        <v>1.728396</v>
+      </c>
+      <c r="H23" s="46">
+        <v>1.8568150000000001</v>
+      </c>
+      <c r="I23" s="46">
+        <v>1.9781260000000001</v>
+      </c>
+      <c r="J23" s="46">
+        <v>0</v>
+      </c>
+      <c r="K23" s="46">
+        <v>977.975098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="46">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="46">
+        <v>250.27235400000001</v>
+      </c>
+      <c r="C24" s="46">
+        <v>355.40701300000001</v>
+      </c>
+      <c r="D24" s="46">
+        <v>1.5548869999999999</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.51392700000000002</v>
+      </c>
+      <c r="F24" s="46">
+        <v>362.756012</v>
+      </c>
+      <c r="G24" s="46">
+        <v>1.6744840000000001</v>
+      </c>
+      <c r="H24" s="46">
+        <v>1.798897</v>
+      </c>
+      <c r="I24" s="46">
+        <v>1.9164239999999999</v>
+      </c>
+      <c r="J24" s="46">
+        <v>0</v>
+      </c>
+      <c r="K24" s="46">
+        <v>975.89404300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="46">
+        <v>2031</v>
+      </c>
+      <c r="B25" s="46">
+        <v>256.645355</v>
+      </c>
+      <c r="C25" s="46">
+        <v>357.63510100000002</v>
+      </c>
+      <c r="D25" s="46">
+        <v>1.5043040000000001</v>
+      </c>
+      <c r="E25" s="46">
+        <v>0.51693299999999998</v>
+      </c>
+      <c r="F25" s="46">
+        <v>350.95504799999998</v>
+      </c>
+      <c r="G25" s="46">
+        <v>1.6200110000000001</v>
+      </c>
+      <c r="H25" s="46">
+        <v>1.7403770000000001</v>
+      </c>
+      <c r="I25" s="46">
+        <v>1.8540810000000001</v>
+      </c>
+      <c r="J25" s="46">
+        <v>0</v>
+      </c>
+      <c r="K25" s="46">
+        <v>972.47125200000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="46">
+        <v>2030</v>
+      </c>
+      <c r="B26" s="46">
+        <v>262.66973899999999</v>
+      </c>
+      <c r="C26" s="46">
+        <v>360.65728799999999</v>
+      </c>
+      <c r="D26" s="46">
+        <v>1.4582569999999999</v>
+      </c>
+      <c r="E26" s="46">
+        <v>0.52147699999999997</v>
+      </c>
+      <c r="F26" s="46">
+        <v>340.62298600000003</v>
+      </c>
+      <c r="G26" s="46">
+        <v>1.570422</v>
+      </c>
+      <c r="H26" s="46">
+        <v>1.687103</v>
+      </c>
+      <c r="I26" s="46">
+        <v>1.797326</v>
+      </c>
+      <c r="J26" s="46">
+        <v>0</v>
+      </c>
+      <c r="K26" s="46">
+        <v>970.98468000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="46">
+        <v>2029</v>
+      </c>
+      <c r="B27" s="46">
+        <v>270.68841600000002</v>
+      </c>
+      <c r="C27" s="46">
+        <v>369.00195300000001</v>
+      </c>
+      <c r="D27" s="46">
+        <v>1.430736</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.53297399999999995</v>
+      </c>
+      <c r="F27" s="46">
+        <v>334.625854</v>
+      </c>
+      <c r="G27" s="46">
+        <v>1.5407839999999999</v>
+      </c>
+      <c r="H27" s="46">
+        <v>1.6552629999999999</v>
+      </c>
+      <c r="I27" s="46">
+        <v>1.763406</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0</v>
+      </c>
+      <c r="K27" s="46">
+        <v>981.23956299999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="46">
+        <v>2028</v>
+      </c>
+      <c r="B28" s="46">
+        <v>271.92001299999998</v>
+      </c>
+      <c r="C28" s="46">
+        <v>367.16564899999997</v>
+      </c>
+      <c r="D28" s="46">
+        <v>1.367756</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.53148200000000001</v>
+      </c>
+      <c r="F28" s="46">
+        <v>320.46148699999998</v>
+      </c>
+      <c r="G28" s="46">
+        <v>1.47296</v>
+      </c>
+      <c r="H28" s="46">
+        <v>1.5824</v>
+      </c>
+      <c r="I28" s="46">
+        <v>1.685783</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0</v>
+      </c>
+      <c r="K28" s="46">
+        <v>966.18756099999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="46">
+        <v>2027</v>
+      </c>
+      <c r="B29" s="46">
+        <v>269.96063199999998</v>
+      </c>
+      <c r="C29" s="46">
+        <v>368.80770899999999</v>
+      </c>
+      <c r="D29" s="46">
+        <v>1.310783</v>
+      </c>
+      <c r="E29" s="46">
+        <v>0.53358700000000003</v>
+      </c>
+      <c r="F29" s="46">
+        <v>308.562927</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1.4116040000000001</v>
+      </c>
+      <c r="H29" s="46">
+        <v>1.5164850000000001</v>
+      </c>
+      <c r="I29" s="46">
+        <v>1.6155619999999999</v>
+      </c>
+      <c r="J29" s="46">
+        <v>0</v>
+      </c>
+      <c r="K29" s="46">
+        <v>953.71936000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="46">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="46">
+        <v>273.16470299999997</v>
+      </c>
+      <c r="C30" s="46">
+        <v>377.43167099999999</v>
+      </c>
+      <c r="D30" s="46">
+        <v>1.2895080000000001</v>
+      </c>
+      <c r="E30" s="46">
+        <v>0.55846799999999996</v>
+      </c>
+      <c r="F30" s="46">
+        <v>309.47274800000002</v>
+      </c>
+      <c r="G30" s="46">
+        <v>1.388693</v>
+      </c>
+      <c r="H30" s="46">
+        <v>1.4918720000000001</v>
+      </c>
+      <c r="I30" s="46">
+        <v>1.58934</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0</v>
+      </c>
+      <c r="K30" s="46">
+        <v>966.38690199999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="46">
+        <v>268.64215100000001</v>
+      </c>
+      <c r="C31" s="46">
+        <v>378.94164999999998</v>
+      </c>
+      <c r="D31" s="46">
+        <v>1.2498549999999999</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.58546100000000001</v>
+      </c>
+      <c r="F31" s="46">
+        <v>311.01882899999998</v>
+      </c>
+      <c r="G31" s="46">
+        <v>1.34599</v>
+      </c>
+      <c r="H31" s="46">
+        <v>1.4459960000000001</v>
+      </c>
+      <c r="I31" s="46">
+        <v>1.5404679999999999</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0</v>
+      </c>
+      <c r="K31" s="46">
+        <v>964.77038600000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="46">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="46">
+        <v>256.30319200000002</v>
+      </c>
+      <c r="C32" s="46">
+        <v>370.47814899999997</v>
+      </c>
+      <c r="D32" s="46">
+        <v>1.18303</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.60292599999999996</v>
+      </c>
+      <c r="F32" s="46">
+        <v>307.91522200000003</v>
+      </c>
+      <c r="G32" s="46">
+        <v>1.274025</v>
+      </c>
+      <c r="H32" s="46">
+        <v>1.368684</v>
+      </c>
+      <c r="I32" s="46">
+        <v>1.458105</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <v>940.58337400000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="46">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="46">
+        <v>241.69340500000001</v>
+      </c>
+      <c r="C33" s="46">
+        <v>356.18954500000001</v>
+      </c>
+      <c r="D33" s="46">
+        <v>1.107456</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0.61705100000000002</v>
+      </c>
+      <c r="F33" s="46">
+        <v>303.46545400000002</v>
+      </c>
+      <c r="G33" s="46">
+        <v>1.1926380000000001</v>
+      </c>
+      <c r="H33" s="46">
+        <v>1.28125</v>
+      </c>
+      <c r="I33" s="46">
+        <v>1.3649579999999999</v>
+      </c>
+      <c r="J33" s="46">
+        <v>0</v>
+      </c>
+      <c r="K33" s="46">
+        <v>906.911743</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="46">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="46">
+        <v>229.101303</v>
+      </c>
+      <c r="C34" s="46">
+        <v>341.420502</v>
+      </c>
+      <c r="D34" s="46">
+        <v>1.0420659999999999</v>
+      </c>
+      <c r="E34" s="46">
+        <v>0.63706600000000002</v>
+      </c>
+      <c r="F34" s="46">
+        <v>303.149292</v>
+      </c>
+      <c r="G34" s="46">
+        <v>1.124236</v>
+      </c>
+      <c r="H34" s="46">
+        <v>1.2055990000000001</v>
+      </c>
+      <c r="I34" s="46">
+        <v>1.2843640000000001</v>
+      </c>
+      <c r="J34" s="46">
+        <v>0</v>
+      </c>
+      <c r="K34" s="46">
+        <v>878.96453899999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="46">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="46">
+        <v>209.25556900000001</v>
+      </c>
+      <c r="C35" s="46">
+        <v>316.24591099999998</v>
+      </c>
+      <c r="D35" s="46">
+        <v>0.94705799999999996</v>
+      </c>
+      <c r="E35" s="46">
+        <v>0.63694700000000004</v>
+      </c>
+      <c r="F35" s="46">
+        <v>292.40875199999999</v>
+      </c>
+      <c r="G35" s="46">
+        <v>1.0340469999999999</v>
+      </c>
+      <c r="H35" s="46">
+        <v>1.0956809999999999</v>
+      </c>
+      <c r="I35" s="46">
+        <v>1.167265</v>
+      </c>
+      <c r="J35" s="46">
+        <v>0</v>
+      </c>
+      <c r="K35" s="46">
+        <v>822.79125999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="46">
+        <v>180.749008</v>
+      </c>
+      <c r="C36" s="46">
+        <v>276.82663000000002</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0.81437199999999998</v>
+      </c>
+      <c r="E36" s="46">
+        <v>0.60410600000000003</v>
+      </c>
+      <c r="F36" s="46">
+        <v>266.90481599999998</v>
+      </c>
+      <c r="G36" s="46">
+        <v>0.89579500000000001</v>
+      </c>
+      <c r="H36" s="46">
+        <v>0.94217200000000001</v>
+      </c>
+      <c r="I36" s="46">
+        <v>1.003727</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0</v>
+      </c>
+      <c r="K36" s="46">
+        <v>728.74066200000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="46">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="46">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="46">
+        <f>K36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
+        <v>0.67491530146662049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="46">
+        <f>'Table 49'!K36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
+        <v>0.19259262430771532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="46">
+        <f>'Table 49'!U36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
+        <v>0.13249207422566411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86745EA9-C7F5-4EBF-872B-B20E5E7C8376}">
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.81640625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="47" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="46">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="46">
+        <v>180.58569299999999</v>
+      </c>
+      <c r="C6" s="46">
+        <v>81.700012000000001</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.913358</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.21962999999999999</v>
+      </c>
+      <c r="F6" s="46">
+        <v>94.388938999999993</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1.0498909999999999</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1.132452</v>
+      </c>
+      <c r="I6" s="46">
+        <v>1.1494420000000001</v>
+      </c>
+      <c r="J6" s="46">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="K6" s="46">
+        <v>361.13952599999999</v>
+      </c>
+      <c r="L6" s="46">
+        <v>213.534637</v>
+      </c>
+      <c r="M6" s="46">
+        <v>101.15113100000001</v>
+      </c>
+      <c r="N6" s="46">
+        <v>0.78089799999999998</v>
+      </c>
+      <c r="O6" s="46">
+        <v>1.0167109999999999</v>
+      </c>
+      <c r="P6" s="46">
+        <v>19.675329000000001</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>0.99669399999999997</v>
+      </c>
+      <c r="R6" s="46">
+        <v>1.0772170000000001</v>
+      </c>
+      <c r="S6" s="46">
+        <v>1.011649</v>
+      </c>
+      <c r="T6" s="46">
+        <v>1.6549020000000001</v>
+      </c>
+      <c r="U6" s="46">
+        <v>340.89920000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="46">
+        <v>2049</v>
+      </c>
+      <c r="B7" s="46">
+        <v>182.92906199999999</v>
+      </c>
+      <c r="C7" s="46">
+        <v>81.383301000000003</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.88599499999999998</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.21348200000000001</v>
+      </c>
+      <c r="F7" s="46">
+        <v>92.185958999999997</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1.018437</v>
+      </c>
+      <c r="H7" s="46">
+        <v>1.098525</v>
+      </c>
+      <c r="I7" s="46">
+        <v>1.1150070000000001</v>
+      </c>
+      <c r="J7" s="46">
+        <v>1.22E-4</v>
+      </c>
+      <c r="K7" s="46">
+        <v>360.82986499999998</v>
+      </c>
+      <c r="L7" s="46">
+        <v>210.11914100000001</v>
+      </c>
+      <c r="M7" s="46">
+        <v>100.072861</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0.745556</v>
+      </c>
+      <c r="O7" s="46">
+        <v>0.98614900000000005</v>
+      </c>
+      <c r="P7" s="46">
+        <v>18.784842000000001</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0.95158500000000001</v>
+      </c>
+      <c r="R7" s="46">
+        <v>1.0284629999999999</v>
+      </c>
+      <c r="S7" s="46">
+        <v>0.96586300000000003</v>
+      </c>
+      <c r="T7" s="46">
+        <v>1.580003</v>
+      </c>
+      <c r="U7" s="46">
+        <v>335.23449699999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="46">
+        <v>2048</v>
+      </c>
+      <c r="B8" s="46">
+        <v>185.01487700000001</v>
+      </c>
+      <c r="C8" s="46">
+        <v>81.240600999999998</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.85739699999999996</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.20738999999999999</v>
+      </c>
+      <c r="F8" s="46">
+        <v>89.210350000000005</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.985564</v>
+      </c>
+      <c r="H8" s="46">
+        <v>1.0630660000000001</v>
+      </c>
+      <c r="I8" s="46">
+        <v>1.079016</v>
+      </c>
+      <c r="J8" s="46">
+        <v>1.26E-4</v>
+      </c>
+      <c r="K8" s="46">
+        <v>359.65835600000003</v>
+      </c>
+      <c r="L8" s="46">
+        <v>205.17477400000001</v>
+      </c>
+      <c r="M8" s="46">
+        <v>98.234961999999996</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0.70638999999999996</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0.95025000000000004</v>
+      </c>
+      <c r="P8" s="46">
+        <v>17.798033</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>0.90159599999999995</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0.97443500000000005</v>
+      </c>
+      <c r="S8" s="46">
+        <v>0.91512400000000005</v>
+      </c>
+      <c r="T8" s="46">
+        <v>1.4970019999999999</v>
+      </c>
+      <c r="U8" s="46">
+        <v>327.15252700000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="46">
+        <v>2047</v>
+      </c>
+      <c r="B9" s="46">
+        <v>184.698151</v>
+      </c>
+      <c r="C9" s="46">
+        <v>79.682343000000003</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.81970200000000004</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.19945099999999999</v>
+      </c>
+      <c r="F9" s="46">
+        <v>85.771857999999995</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.94223500000000004</v>
+      </c>
+      <c r="H9" s="46">
+        <v>1.01633</v>
+      </c>
+      <c r="I9" s="46">
+        <v>1.0315780000000001</v>
+      </c>
+      <c r="J9" s="46">
+        <v>1.2799999999999999E-4</v>
+      </c>
+      <c r="K9" s="46">
+        <v>354.16177399999998</v>
+      </c>
+      <c r="L9" s="46">
+        <v>202.73142999999999</v>
+      </c>
+      <c r="M9" s="46">
+        <v>97.567085000000006</v>
+      </c>
+      <c r="N9" s="46">
+        <v>0.67727599999999999</v>
+      </c>
+      <c r="O9" s="46">
+        <v>0.92753300000000005</v>
+      </c>
+      <c r="P9" s="46">
+        <v>17.064501</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>0.86443700000000001</v>
+      </c>
+      <c r="R9" s="46">
+        <v>0.93427499999999997</v>
+      </c>
+      <c r="S9" s="46">
+        <v>0.87740799999999997</v>
+      </c>
+      <c r="T9" s="46">
+        <v>1.4353039999999999</v>
+      </c>
+      <c r="U9" s="46">
+        <v>323.07925399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="46">
+        <v>2046</v>
+      </c>
+      <c r="B10" s="46">
+        <v>186.52847299999999</v>
+      </c>
+      <c r="C10" s="46">
+        <v>79.472167999999996</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.79286599999999996</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.19438900000000001</v>
+      </c>
+      <c r="F10" s="46">
+        <v>82.963829000000004</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.91138799999999998</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.98305699999999996</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0.99780599999999997</v>
+      </c>
+      <c r="J10" s="46">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="K10" s="46">
+        <v>352.84414700000002</v>
+      </c>
+      <c r="L10" s="46">
+        <v>202.54257200000001</v>
+      </c>
+      <c r="M10" s="46">
+        <v>97.969802999999999</v>
+      </c>
+      <c r="N10" s="46">
+        <v>0.65660499999999999</v>
+      </c>
+      <c r="O10" s="46">
+        <v>0.91631799999999997</v>
+      </c>
+      <c r="P10" s="46">
+        <v>16.543661</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>0.83805300000000005</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0.90575899999999998</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0.85062800000000005</v>
+      </c>
+      <c r="T10" s="46">
+        <v>1.3914960000000001</v>
+      </c>
+      <c r="U10" s="46">
+        <v>322.614868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="46">
+        <v>2045</v>
+      </c>
+      <c r="B11" s="46">
+        <v>187.95594800000001</v>
+      </c>
+      <c r="C11" s="46">
+        <v>78.944419999999994</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0.76510900000000004</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.19009400000000001</v>
+      </c>
+      <c r="F11" s="46">
+        <v>80.059334000000007</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.87948000000000004</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0.94864099999999996</v>
+      </c>
+      <c r="I11" s="46">
+        <v>0.96287400000000001</v>
+      </c>
+      <c r="J11" s="46">
+        <v>1.34E-4</v>
+      </c>
+      <c r="K11" s="46">
+        <v>350.70605499999999</v>
+      </c>
+      <c r="L11" s="46">
+        <v>199.18071</v>
+      </c>
+      <c r="M11" s="46">
+        <v>96.820175000000006</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0.62661</v>
+      </c>
+      <c r="O11" s="46">
+        <v>0.89408600000000005</v>
+      </c>
+      <c r="P11" s="46">
+        <v>15.787907000000001</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>0.79976899999999995</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0.86438199999999998</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0.81176899999999996</v>
+      </c>
+      <c r="T11" s="46">
+        <v>1.3279289999999999</v>
+      </c>
+      <c r="U11" s="46">
+        <v>317.11334199999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="46">
+        <v>2044</v>
+      </c>
+      <c r="B12" s="46">
+        <v>187.20150799999999</v>
+      </c>
+      <c r="C12" s="46">
+        <v>77.526398</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.72930200000000001</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.18385199999999999</v>
+      </c>
+      <c r="F12" s="46">
+        <v>76.020347999999998</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0.83832099999999998</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0.90424499999999997</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0.91781199999999996</v>
+      </c>
+      <c r="J12" s="46">
+        <v>1.36E-4</v>
+      </c>
+      <c r="K12" s="46">
+        <v>344.32199100000003</v>
+      </c>
+      <c r="L12" s="46">
+        <v>195.31875600000001</v>
+      </c>
+      <c r="M12" s="46">
+        <v>95.405356999999995</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0.59631400000000001</v>
+      </c>
+      <c r="O12" s="46">
+        <v>0.86995900000000004</v>
+      </c>
+      <c r="P12" s="46">
+        <v>15.02459</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>0.76110100000000003</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0.82259000000000004</v>
+      </c>
+      <c r="S12" s="46">
+        <v>0.77252200000000004</v>
+      </c>
+      <c r="T12" s="46">
+        <v>1.2637259999999999</v>
+      </c>
+      <c r="U12" s="46">
+        <v>310.8349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="46">
+        <v>2043</v>
+      </c>
+      <c r="B13" s="46">
+        <v>188.110794</v>
+      </c>
+      <c r="C13" s="46">
+        <v>76.724884000000003</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.702206</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.17982400000000001</v>
+      </c>
+      <c r="F13" s="46">
+        <v>73.195992000000004</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0.807176</v>
+      </c>
+      <c r="H13" s="46">
+        <v>0.87065000000000003</v>
+      </c>
+      <c r="I13" s="46">
+        <v>0.88371299999999997</v>
+      </c>
+      <c r="J13" s="46">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="K13" s="46">
+        <v>341.47540300000003</v>
+      </c>
+      <c r="L13" s="46">
+        <v>192.53448499999999</v>
+      </c>
+      <c r="M13" s="46">
+        <v>94.461594000000005</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0.57040999999999997</v>
+      </c>
+      <c r="O13" s="46">
+        <v>0.85108600000000001</v>
+      </c>
+      <c r="P13" s="46">
+        <v>14.371921</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>0.72803899999999999</v>
+      </c>
+      <c r="R13" s="46">
+        <v>0.78685700000000003</v>
+      </c>
+      <c r="S13" s="46">
+        <v>0.73896300000000004</v>
+      </c>
+      <c r="T13" s="46">
+        <v>1.2088300000000001</v>
+      </c>
+      <c r="U13" s="46">
+        <v>306.25216699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="46">
+        <v>2042</v>
+      </c>
+      <c r="B14" s="46">
+        <v>189.15933200000001</v>
+      </c>
+      <c r="C14" s="46">
+        <v>75.941940000000002</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.67674199999999995</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.17641499999999999</v>
+      </c>
+      <c r="F14" s="46">
+        <v>70.541595000000001</v>
+      </c>
+      <c r="G14" s="46">
+        <v>0.77790400000000004</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.83907699999999996</v>
+      </c>
+      <c r="I14" s="46">
+        <v>0.85166600000000003</v>
+      </c>
+      <c r="J14" s="46">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="K14" s="46">
+        <v>338.96481299999999</v>
+      </c>
+      <c r="L14" s="46">
+        <v>188.929565</v>
+      </c>
+      <c r="M14" s="46">
+        <v>93.060012999999998</v>
+      </c>
+      <c r="N14" s="46">
+        <v>0.54311200000000004</v>
+      </c>
+      <c r="O14" s="46">
+        <v>0.83000200000000002</v>
+      </c>
+      <c r="P14" s="46">
+        <v>13.684125999999999</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>0.69319699999999995</v>
+      </c>
+      <c r="R14" s="46">
+        <v>0.74920100000000001</v>
+      </c>
+      <c r="S14" s="46">
+        <v>0.70359899999999997</v>
+      </c>
+      <c r="T14" s="46">
+        <v>1.150979</v>
+      </c>
+      <c r="U14" s="46">
+        <v>300.34381100000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="46">
+        <v>2041</v>
+      </c>
+      <c r="B15" s="46">
+        <v>190.30789200000001</v>
+      </c>
+      <c r="C15" s="46">
+        <v>75.407905999999997</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.65046199999999998</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.17296700000000001</v>
+      </c>
+      <c r="F15" s="46">
+        <v>66.663818000000006</v>
+      </c>
+      <c r="G15" s="46">
+        <v>0.74769600000000003</v>
+      </c>
+      <c r="H15" s="46">
+        <v>0.80649300000000002</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0.81859300000000002</v>
+      </c>
+      <c r="J15" s="46">
+        <v>1.45E-4</v>
+      </c>
+      <c r="K15" s="46">
+        <v>335.57598899999999</v>
+      </c>
+      <c r="L15" s="46">
+        <v>185.272369</v>
+      </c>
+      <c r="M15" s="46">
+        <v>91.616553999999994</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0.51681500000000002</v>
+      </c>
+      <c r="O15" s="46">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="P15" s="46">
+        <v>13.021554999999999</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>0.65963400000000005</v>
+      </c>
+      <c r="R15" s="46">
+        <v>0.71292500000000003</v>
+      </c>
+      <c r="S15" s="46">
+        <v>0.66953099999999999</v>
+      </c>
+      <c r="T15" s="46">
+        <v>1.0952500000000001</v>
+      </c>
+      <c r="U15" s="46">
+        <v>294.37548800000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="46">
+        <v>2040</v>
+      </c>
+      <c r="B16" s="46">
+        <v>191.45024100000001</v>
+      </c>
+      <c r="C16" s="46">
+        <v>74.481773000000004</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.62575700000000001</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.169873</v>
+      </c>
+      <c r="F16" s="46">
+        <v>63.504947999999999</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0.71929799999999999</v>
+      </c>
+      <c r="H16" s="46">
+        <v>0.77586200000000005</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0.78750200000000004</v>
+      </c>
+      <c r="J16" s="46">
+        <v>1.4799999999999999E-4</v>
+      </c>
+      <c r="K16" s="46">
+        <v>332.51541099999997</v>
+      </c>
+      <c r="L16" s="46">
+        <v>179.956909</v>
+      </c>
+      <c r="M16" s="46">
+        <v>89.336394999999996</v>
+      </c>
+      <c r="N16" s="46">
+        <v>0.48713899999999999</v>
+      </c>
+      <c r="O16" s="46">
+        <v>0.78487300000000004</v>
+      </c>
+      <c r="P16" s="46">
+        <v>12.273846000000001</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>0.621757</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0.67198800000000003</v>
+      </c>
+      <c r="S16" s="46">
+        <v>0.63108600000000004</v>
+      </c>
+      <c r="T16" s="46">
+        <v>1.032359</v>
+      </c>
+      <c r="U16" s="46">
+        <v>285.79632600000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="46">
+        <v>2039</v>
+      </c>
+      <c r="B17" s="46">
+        <v>192.19929500000001</v>
+      </c>
+      <c r="C17" s="46">
+        <v>73.386893999999998</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0.60235700000000003</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.16753999999999999</v>
+      </c>
+      <c r="F17" s="46">
+        <v>61.130257</v>
+      </c>
+      <c r="G17" s="46">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="H17" s="46">
+        <v>0.74684899999999999</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.75805400000000001</v>
+      </c>
+      <c r="J17" s="46">
+        <v>1.5100000000000001E-4</v>
+      </c>
+      <c r="K17" s="46">
+        <v>329.68374599999999</v>
+      </c>
+      <c r="L17" s="46">
+        <v>172.862381</v>
+      </c>
+      <c r="M17" s="46">
+        <v>86.150604000000001</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0.45412000000000002</v>
+      </c>
+      <c r="O17" s="46">
+        <v>0.75157499999999999</v>
+      </c>
+      <c r="P17" s="46">
+        <v>11.441903</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>0.57961300000000004</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0.62644</v>
+      </c>
+      <c r="S17" s="46">
+        <v>0.58831</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0.96238400000000002</v>
+      </c>
+      <c r="U17" s="46">
+        <v>274.41735799999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="46">
+        <v>2038</v>
+      </c>
+      <c r="B18" s="46">
+        <v>192.27671799999999</v>
+      </c>
+      <c r="C18" s="46">
+        <v>72.067085000000006</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0.57802399999999998</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0.16528499999999999</v>
+      </c>
+      <c r="F18" s="46">
+        <v>58.660789000000001</v>
+      </c>
+      <c r="G18" s="46">
+        <v>0.66442999999999997</v>
+      </c>
+      <c r="H18" s="46">
+        <v>0.71667899999999995</v>
+      </c>
+      <c r="I18" s="46">
+        <v>0.72743199999999997</v>
+      </c>
+      <c r="J18" s="46">
+        <v>1.54E-4</v>
+      </c>
+      <c r="K18" s="46">
+        <v>325.856628</v>
+      </c>
+      <c r="L18" s="46">
+        <v>166.95872499999999</v>
+      </c>
+      <c r="M18" s="46">
+        <v>83.535544999999999</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0.42568800000000001</v>
+      </c>
+      <c r="O18" s="46">
+        <v>0.723858</v>
+      </c>
+      <c r="P18" s="46">
+        <v>10.725541</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>0.54332400000000003</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0.58721900000000005</v>
+      </c>
+      <c r="S18" s="46">
+        <v>0.55147699999999999</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0.90213100000000002</v>
+      </c>
+      <c r="U18" s="46">
+        <v>264.95352200000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="46">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="46">
+        <v>192.37344400000001</v>
+      </c>
+      <c r="C19" s="46">
+        <v>70.507216999999997</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0.55433500000000002</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0.16298799999999999</v>
+      </c>
+      <c r="F19" s="46">
+        <v>56.256672000000002</v>
+      </c>
+      <c r="G19" s="46">
+        <v>0.63719899999999996</v>
+      </c>
+      <c r="H19" s="46">
+        <v>0.687307</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.69761899999999999</v>
+      </c>
+      <c r="J19" s="46">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="K19" s="46">
+        <v>321.876892</v>
+      </c>
+      <c r="L19" s="46">
+        <v>164.008972</v>
+      </c>
+      <c r="M19" s="46">
+        <v>82.382980000000003</v>
+      </c>
+      <c r="N19" s="46">
+        <v>0.40587000000000001</v>
+      </c>
+      <c r="O19" s="46">
+        <v>0.70925899999999997</v>
+      </c>
+      <c r="P19" s="46">
+        <v>10.226213</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>0.51802999999999999</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0.55988099999999996</v>
+      </c>
+      <c r="S19" s="46">
+        <v>0.52580300000000002</v>
+      </c>
+      <c r="T19" s="46">
+        <v>0.86013200000000001</v>
+      </c>
+      <c r="U19" s="46">
+        <v>260.19714399999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="46">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="46">
+        <v>193.81104999999999</v>
+      </c>
+      <c r="C20" s="46">
+        <v>69.528632999999999</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0.53563700000000003</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0.161963</v>
+      </c>
+      <c r="F20" s="46">
+        <v>54.359116</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0.61570599999999998</v>
+      </c>
+      <c r="H20" s="46">
+        <v>0.66412400000000005</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0.67408800000000002</v>
+      </c>
+      <c r="J20" s="46">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="K20" s="46">
+        <v>320.35043300000001</v>
+      </c>
+      <c r="L20" s="46">
+        <v>161.44515999999999</v>
+      </c>
+      <c r="M20" s="46">
+        <v>81.265197999999998</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0.38755899999999999</v>
+      </c>
+      <c r="O20" s="46">
+        <v>0.69614200000000004</v>
+      </c>
+      <c r="P20" s="46">
+        <v>9.7648379999999992</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0.49465799999999999</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0.53462100000000001</v>
+      </c>
+      <c r="S20" s="46">
+        <v>0.50207999999999997</v>
+      </c>
+      <c r="T20" s="46">
+        <v>0.821326</v>
+      </c>
+      <c r="U20" s="46">
+        <v>255.91156000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="46">
+        <v>2035</v>
+      </c>
+      <c r="B21" s="46">
+        <v>194.59094200000001</v>
+      </c>
+      <c r="C21" s="46">
+        <v>68.357330000000005</v>
+      </c>
+      <c r="D21" s="46">
+        <v>0.51601799999999998</v>
+      </c>
+      <c r="E21" s="46">
+        <v>0.16048499999999999</v>
+      </c>
+      <c r="F21" s="46">
+        <v>52.368079999999999</v>
+      </c>
+      <c r="G21" s="46">
+        <v>0.59315399999999996</v>
+      </c>
+      <c r="H21" s="46">
+        <v>0.63979900000000001</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0.64939800000000003</v>
+      </c>
+      <c r="J21" s="46">
+        <v>1.65E-4</v>
+      </c>
+      <c r="K21" s="46">
+        <v>317.875427</v>
+      </c>
+      <c r="L21" s="46">
+        <v>156.659775</v>
+      </c>
+      <c r="M21" s="46">
+        <v>78.970878999999996</v>
+      </c>
+      <c r="N21" s="46">
+        <v>0.36474600000000001</v>
+      </c>
+      <c r="O21" s="46">
+        <v>0.67355500000000001</v>
+      </c>
+      <c r="P21" s="46">
+        <v>9.1900469999999999</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>0.46554099999999998</v>
+      </c>
+      <c r="R21" s="46">
+        <v>0.50315200000000004</v>
+      </c>
+      <c r="S21" s="46">
+        <v>0.472526</v>
+      </c>
+      <c r="T21" s="46">
+        <v>0.77298</v>
+      </c>
+      <c r="U21" s="46">
+        <v>248.073227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="46">
+        <v>2034</v>
+      </c>
+      <c r="B22" s="46">
+        <v>193.70794699999999</v>
+      </c>
+      <c r="C22" s="46">
+        <v>66.619422999999998</v>
+      </c>
+      <c r="D22" s="46">
+        <v>0.49300300000000002</v>
+      </c>
+      <c r="E22" s="46">
+        <v>0.157724</v>
+      </c>
+      <c r="F22" s="46">
+        <v>50.032466999999997</v>
+      </c>
+      <c r="G22" s="46">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="H22" s="46">
+        <v>0.61126400000000003</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0.62043499999999996</v>
+      </c>
+      <c r="J22" s="46">
+        <v>1.6699999999999999E-4</v>
+      </c>
+      <c r="K22" s="46">
+        <v>312.80914300000001</v>
+      </c>
+      <c r="L22" s="46">
+        <v>151.96386699999999</v>
+      </c>
+      <c r="M22" s="46">
+        <v>76.598495</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0.65218399999999999</v>
+      </c>
+      <c r="P22" s="46">
+        <v>8.6421480000000006</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0.43778600000000001</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0.47315400000000002</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0.444355</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0.72689499999999996</v>
+      </c>
+      <c r="U22" s="46">
+        <v>240.281891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="46">
+        <v>2033</v>
+      </c>
+      <c r="B23" s="46">
+        <v>193.40211500000001</v>
+      </c>
+      <c r="C23" s="46">
+        <v>65.216812000000004</v>
+      </c>
+      <c r="D23" s="46">
+        <v>0.47218100000000002</v>
+      </c>
+      <c r="E23" s="46">
+        <v>0.15541199999999999</v>
+      </c>
+      <c r="F23" s="46">
+        <v>47.615958999999997</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.54276400000000002</v>
+      </c>
+      <c r="H23" s="46">
+        <v>0.58544600000000002</v>
+      </c>
+      <c r="I23" s="46">
+        <v>0.59423000000000004</v>
+      </c>
+      <c r="J23" s="46">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="K23" s="46">
+        <v>308.58505200000002</v>
+      </c>
+      <c r="L23" s="46">
+        <v>148.244675</v>
+      </c>
+      <c r="M23" s="46">
+        <v>74.734939999999995</v>
+      </c>
+      <c r="N23" s="46">
+        <v>0.32441700000000001</v>
+      </c>
+      <c r="O23" s="46">
+        <v>0.63479699999999994</v>
+      </c>
+      <c r="P23" s="46">
+        <v>8.1739460000000008</v>
+      </c>
+      <c r="Q23" s="46">
+        <v>0.41406799999999999</v>
+      </c>
+      <c r="R23" s="46">
+        <v>0.44751999999999997</v>
+      </c>
+      <c r="S23" s="46">
+        <v>0.42028100000000002</v>
+      </c>
+      <c r="T23" s="46">
+        <v>0.68751499999999999</v>
+      </c>
+      <c r="U23" s="46">
+        <v>234.08216899999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="46">
+        <v>2032</v>
+      </c>
+      <c r="B24" s="46">
+        <v>193.21283</v>
+      </c>
+      <c r="C24" s="46">
+        <v>63.795490000000001</v>
+      </c>
+      <c r="D24" s="46">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="E24" s="46">
+        <v>0.15320500000000001</v>
+      </c>
+      <c r="F24" s="46">
+        <v>45.263236999999997</v>
+      </c>
+      <c r="G24" s="46">
+        <v>0.52002700000000002</v>
+      </c>
+      <c r="H24" s="46">
+        <v>0.560921</v>
+      </c>
+      <c r="I24" s="46">
+        <v>0.56933699999999998</v>
+      </c>
+      <c r="J24" s="46">
+        <v>1.73E-4</v>
+      </c>
+      <c r="K24" s="46">
+        <v>304.52761800000002</v>
+      </c>
+      <c r="L24" s="46">
+        <v>144.37342799999999</v>
+      </c>
+      <c r="M24" s="46">
+        <v>72.775604000000001</v>
+      </c>
+      <c r="N24" s="46">
+        <v>0.30631199999999997</v>
+      </c>
+      <c r="O24" s="46">
+        <v>0.61636500000000005</v>
+      </c>
+      <c r="P24" s="46">
+        <v>7.7177720000000001</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>0.39095999999999997</v>
+      </c>
+      <c r="R24" s="46">
+        <v>0.422545</v>
+      </c>
+      <c r="S24" s="46">
+        <v>0.39682600000000001</v>
+      </c>
+      <c r="T24" s="46">
+        <v>0.649146</v>
+      </c>
+      <c r="U24" s="46">
+        <v>227.648956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="46">
+        <v>2031</v>
+      </c>
+      <c r="B25" s="46">
+        <v>192.50157200000001</v>
+      </c>
+      <c r="C25" s="46">
+        <v>62.242939</v>
+      </c>
+      <c r="D25" s="46">
+        <v>0.43269800000000003</v>
+      </c>
+      <c r="E25" s="46">
+        <v>0.150783</v>
+      </c>
+      <c r="F25" s="46">
+        <v>43.097050000000003</v>
+      </c>
+      <c r="G25" s="46">
+        <v>0.49737999999999999</v>
+      </c>
+      <c r="H25" s="46">
+        <v>0.536493</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0.54454199999999997</v>
+      </c>
+      <c r="J25" s="46">
+        <v>1.74E-4</v>
+      </c>
+      <c r="K25" s="46">
+        <v>300.003601</v>
+      </c>
+      <c r="L25" s="46">
+        <v>140.22210699999999</v>
+      </c>
+      <c r="M25" s="46">
+        <v>70.691063</v>
+      </c>
+      <c r="N25" s="46">
+        <v>0.28846699999999997</v>
+      </c>
+      <c r="O25" s="46">
+        <v>0.59699899999999995</v>
+      </c>
+      <c r="P25" s="46">
+        <v>7.268141</v>
+      </c>
+      <c r="Q25" s="46">
+        <v>0.36818299999999998</v>
+      </c>
+      <c r="R25" s="46">
+        <v>0.397928</v>
+      </c>
+      <c r="S25" s="46">
+        <v>0.37370700000000001</v>
+      </c>
+      <c r="T25" s="46">
+        <v>0.61132699999999995</v>
+      </c>
+      <c r="U25" s="46">
+        <v>220.81791699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="46">
+        <v>2030</v>
+      </c>
+      <c r="B26" s="46">
+        <v>192.29011499999999</v>
+      </c>
+      <c r="C26" s="46">
+        <v>60.703434000000001</v>
+      </c>
+      <c r="D26" s="46">
+        <v>0.415188</v>
+      </c>
+      <c r="E26" s="46">
+        <v>0.14888999999999999</v>
+      </c>
+      <c r="F26" s="46">
+        <v>41.426582000000003</v>
+      </c>
+      <c r="G26" s="46">
+        <v>0.47725200000000001</v>
+      </c>
+      <c r="H26" s="46">
+        <v>0.51478199999999996</v>
+      </c>
+      <c r="I26" s="46">
+        <v>0.52250600000000003</v>
+      </c>
+      <c r="J26" s="46">
+        <v>1.75E-4</v>
+      </c>
+      <c r="K26" s="46">
+        <v>296.49893200000002</v>
+      </c>
+      <c r="L26" s="46">
+        <v>138.25938400000001</v>
+      </c>
+      <c r="M26" s="46">
+        <v>69.727844000000005</v>
+      </c>
+      <c r="N26" s="46">
+        <v>0.27582400000000001</v>
+      </c>
+      <c r="O26" s="46">
+        <v>0.58718000000000004</v>
+      </c>
+      <c r="P26" s="46">
+        <v>6.9495969999999998</v>
+      </c>
+      <c r="Q26" s="46">
+        <v>0.35204600000000003</v>
+      </c>
+      <c r="R26" s="46">
+        <v>0.38048799999999999</v>
+      </c>
+      <c r="S26" s="46">
+        <v>0.35732799999999998</v>
+      </c>
+      <c r="T26" s="46">
+        <v>0.584534</v>
+      </c>
+      <c r="U26" s="46">
+        <v>217.47422800000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="46">
+        <v>2029</v>
+      </c>
+      <c r="B27" s="46">
+        <v>193.46637000000001</v>
+      </c>
+      <c r="C27" s="46">
+        <v>59.902965999999999</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0.40217999999999998</v>
+      </c>
+      <c r="E27" s="46">
+        <v>0.14843200000000001</v>
+      </c>
+      <c r="F27" s="46">
+        <v>40.438293000000002</v>
+      </c>
+      <c r="G27" s="46">
+        <v>0.46229900000000002</v>
+      </c>
+      <c r="H27" s="46">
+        <v>0.49865300000000001</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0.506135</v>
+      </c>
+      <c r="J27" s="46">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K27" s="46">
+        <v>295.82556199999999</v>
+      </c>
+      <c r="L27" s="46">
+        <v>138.073395</v>
+      </c>
+      <c r="M27" s="46">
+        <v>69.592879999999994</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0.26708900000000002</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0.585642</v>
+      </c>
+      <c r="P27" s="46">
+        <v>6.7641489999999997</v>
+      </c>
+      <c r="Q27" s="46">
+        <v>0.34089700000000001</v>
+      </c>
+      <c r="R27" s="46">
+        <v>0.36843799999999999</v>
+      </c>
+      <c r="S27" s="46">
+        <v>0.34601199999999999</v>
+      </c>
+      <c r="T27" s="46">
+        <v>0.56602200000000003</v>
+      </c>
+      <c r="U27" s="46">
+        <v>216.90455600000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="46">
+        <v>2028</v>
+      </c>
+      <c r="B28" s="46">
+        <v>192.70813000000001</v>
+      </c>
+      <c r="C28" s="46">
+        <v>58.327072000000001</v>
+      </c>
+      <c r="D28" s="46">
+        <v>0.38459199999999999</v>
+      </c>
+      <c r="E28" s="46">
+        <v>0.146093</v>
+      </c>
+      <c r="F28" s="46">
+        <v>38.406609000000003</v>
+      </c>
+      <c r="G28" s="46">
+        <v>0.442083</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0.47684700000000002</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0.48400199999999999</v>
+      </c>
+      <c r="J28" s="46">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K28" s="46">
+        <v>291.37560999999999</v>
+      </c>
+      <c r="L28" s="46">
+        <v>138.36944600000001</v>
+      </c>
+      <c r="M28" s="46">
+        <v>69.762978000000004</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0.25964300000000001</v>
+      </c>
+      <c r="O28" s="46">
+        <v>0.586395</v>
+      </c>
+      <c r="P28" s="46">
+        <v>6.6288530000000003</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>0.33139400000000002</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0.35816700000000001</v>
+      </c>
+      <c r="S28" s="46">
+        <v>0.336366</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0.55024300000000004</v>
+      </c>
+      <c r="U28" s="46">
+        <v>217.18345600000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="46">
+        <v>2027</v>
+      </c>
+      <c r="B29" s="46">
+        <v>191.041031</v>
+      </c>
+      <c r="C29" s="46">
+        <v>56.316150999999998</v>
+      </c>
+      <c r="D29" s="46">
+        <v>0.36676199999999998</v>
+      </c>
+      <c r="E29" s="46">
+        <v>0.14341400000000001</v>
+      </c>
+      <c r="F29" s="46">
+        <v>36.997703999999999</v>
+      </c>
+      <c r="G29" s="46">
+        <v>0.42158699999999999</v>
+      </c>
+      <c r="H29" s="46">
+        <v>0.45473999999999998</v>
+      </c>
+      <c r="I29" s="46">
+        <v>0.461563</v>
+      </c>
+      <c r="J29" s="46">
+        <v>1.76E-4</v>
+      </c>
+      <c r="K29" s="46">
+        <v>286.20315599999998</v>
+      </c>
+      <c r="L29" s="46">
+        <v>141.33781400000001</v>
+      </c>
+      <c r="M29" s="46">
+        <v>71.102187999999998</v>
+      </c>
+      <c r="N29" s="46">
+        <v>0.25709300000000002</v>
+      </c>
+      <c r="O29" s="46">
+        <v>0.598055</v>
+      </c>
+      <c r="P29" s="46">
+        <v>6.6461800000000002</v>
+      </c>
+      <c r="Q29" s="46">
+        <v>0.32813900000000001</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0.35464899999999999</v>
+      </c>
+      <c r="S29" s="46">
+        <v>0.333063</v>
+      </c>
+      <c r="T29" s="46">
+        <v>0.54483899999999996</v>
+      </c>
+      <c r="U29" s="46">
+        <v>221.50202899999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="46">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="46">
+        <v>193.94555700000001</v>
+      </c>
+      <c r="C30" s="46">
+        <v>55.909843000000002</v>
+      </c>
+      <c r="D30" s="46">
+        <v>0.35781400000000002</v>
+      </c>
+      <c r="E30" s="46">
+        <v>0.14452699999999999</v>
+      </c>
+      <c r="F30" s="46">
+        <v>35.934238000000001</v>
+      </c>
+      <c r="G30" s="46">
+        <v>0.411302</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.44364599999999998</v>
+      </c>
+      <c r="I30" s="46">
+        <v>0.45030199999999998</v>
+      </c>
+      <c r="J30" s="46">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="K30" s="46">
+        <v>287.59738199999998</v>
+      </c>
+      <c r="L30" s="46">
+        <v>147.682907</v>
+      </c>
+      <c r="M30" s="46">
+        <v>74.008094999999997</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0.26027600000000001</v>
+      </c>
+      <c r="O30" s="46">
+        <v>0.62362399999999996</v>
+      </c>
+      <c r="P30" s="46">
+        <v>6.8170840000000004</v>
+      </c>
+      <c r="Q30" s="46">
+        <v>0.332202</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0.35904000000000003</v>
+      </c>
+      <c r="S30" s="46">
+        <v>0.33718700000000001</v>
+      </c>
+      <c r="T30" s="46">
+        <v>0.55158499999999999</v>
+      </c>
+      <c r="U30" s="46">
+        <v>230.97200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="46">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="46">
+        <v>193.86938499999999</v>
+      </c>
+      <c r="C31" s="46">
+        <v>54.672806000000001</v>
+      </c>
+      <c r="D31" s="46">
+        <v>0.34393200000000002</v>
+      </c>
+      <c r="E31" s="46">
+        <v>0.14356099999999999</v>
+      </c>
+      <c r="F31" s="46">
+        <v>34.448101000000001</v>
+      </c>
+      <c r="G31" s="46">
+        <v>0.395345</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0.42643399999999998</v>
+      </c>
+      <c r="I31" s="46">
+        <v>0.43283199999999999</v>
+      </c>
+      <c r="J31" s="46">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K31" s="46">
+        <v>284.73254400000002</v>
+      </c>
+      <c r="L31" s="46">
+        <v>148.109756</v>
+      </c>
+      <c r="M31" s="46">
+        <v>73.745536999999999</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0.25270799999999999</v>
+      </c>
+      <c r="O31" s="46">
+        <v>0.62365400000000004</v>
+      </c>
+      <c r="P31" s="46">
+        <v>6.7173470000000002</v>
+      </c>
+      <c r="Q31" s="46">
+        <v>0.322542</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="S31" s="46">
+        <v>0.32738099999999998</v>
+      </c>
+      <c r="T31" s="46">
+        <v>0.53554500000000005</v>
+      </c>
+      <c r="U31" s="46">
+        <v>230.983047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="46">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="46">
+        <v>187.83528100000001</v>
+      </c>
+      <c r="C32" s="46">
+        <v>51.582748000000002</v>
+      </c>
+      <c r="D32" s="46">
+        <v>0.32085599999999997</v>
+      </c>
+      <c r="E32" s="46">
+        <v>0.138493</v>
+      </c>
+      <c r="F32" s="46">
+        <v>32.549633</v>
+      </c>
+      <c r="G32" s="46">
+        <v>0.36881900000000001</v>
+      </c>
+      <c r="H32" s="46">
+        <v>0.39782299999999998</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0.40379100000000001</v>
+      </c>
+      <c r="J32" s="46">
+        <v>1.7100000000000001E-4</v>
+      </c>
+      <c r="K32" s="46">
+        <v>273.59762599999999</v>
+      </c>
+      <c r="L32" s="46">
+        <v>142.74681100000001</v>
+      </c>
+      <c r="M32" s="46">
+        <v>71.053955000000002</v>
+      </c>
+      <c r="N32" s="46">
+        <v>0.23633899999999999</v>
+      </c>
+      <c r="O32" s="46">
+        <v>0.60075699999999999</v>
+      </c>
+      <c r="P32" s="46">
+        <v>6.4301469999999998</v>
+      </c>
+      <c r="Q32" s="46">
+        <v>0.30164999999999997</v>
+      </c>
+      <c r="R32" s="46">
+        <v>0.32602100000000001</v>
+      </c>
+      <c r="S32" s="46">
+        <v>0.306176</v>
+      </c>
+      <c r="T32" s="46">
+        <v>0.500857</v>
+      </c>
+      <c r="U32" s="46">
+        <v>222.50271599999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="46">
+        <v>2023</v>
+      </c>
+      <c r="B33" s="46">
+        <v>180.52432300000001</v>
+      </c>
+      <c r="C33" s="46">
+        <v>48.275089000000001</v>
+      </c>
+      <c r="D33" s="46">
+        <v>0.296933</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0.132655</v>
+      </c>
+      <c r="F33" s="46">
+        <v>30.481784999999999</v>
+      </c>
+      <c r="G33" s="46">
+        <v>0.34132000000000001</v>
+      </c>
+      <c r="H33" s="46">
+        <v>0.36816100000000002</v>
+      </c>
+      <c r="I33" s="46">
+        <v>0.37368499999999999</v>
+      </c>
+      <c r="J33" s="46">
+        <v>1.64E-4</v>
+      </c>
+      <c r="K33" s="46">
+        <v>260.79406699999998</v>
+      </c>
+      <c r="L33" s="46">
+        <v>134.36882</v>
+      </c>
+      <c r="M33" s="46">
+        <v>67.480025999999995</v>
+      </c>
+      <c r="N33" s="46">
+        <v>0.216553</v>
+      </c>
+      <c r="O33" s="46">
+        <v>0.56697600000000004</v>
+      </c>
+      <c r="P33" s="46">
+        <v>6.0439889999999998</v>
+      </c>
+      <c r="Q33" s="46">
+        <v>0.27639599999999998</v>
+      </c>
+      <c r="R33" s="46">
+        <v>0.29872599999999999</v>
+      </c>
+      <c r="S33" s="46">
+        <v>0.28054299999999999</v>
+      </c>
+      <c r="T33" s="46">
+        <v>0.458926</v>
+      </c>
+      <c r="U33" s="46">
+        <v>209.99099699999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="46">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="46">
+        <v>174.73065199999999</v>
+      </c>
+      <c r="C34" s="46">
+        <v>45.466510999999997</v>
+      </c>
+      <c r="D34" s="46">
+        <v>0.276916</v>
+      </c>
+      <c r="E34" s="46">
+        <v>0.12817400000000001</v>
+      </c>
+      <c r="F34" s="46">
+        <v>28.895914000000001</v>
+      </c>
+      <c r="G34" s="46">
+        <v>0.318909</v>
+      </c>
+      <c r="H34" s="46">
+        <v>0.34334100000000001</v>
+      </c>
+      <c r="I34" s="46">
+        <v>0.348493</v>
+      </c>
+      <c r="J34" s="46">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="K34" s="46">
+        <v>250.50907900000001</v>
+      </c>
+      <c r="L34" s="46">
+        <v>122.007324</v>
+      </c>
+      <c r="M34" s="46">
+        <v>61.584063999999998</v>
+      </c>
+      <c r="N34" s="46">
+        <v>0.19117899999999999</v>
+      </c>
+      <c r="O34" s="46">
+        <v>0.51820900000000003</v>
+      </c>
+      <c r="P34" s="46">
+        <v>5.4856290000000003</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>0.24444199999999999</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0.26372400000000001</v>
+      </c>
+      <c r="S34" s="46">
+        <v>0.247671</v>
+      </c>
+      <c r="T34" s="46">
+        <v>0.40515200000000001</v>
+      </c>
+      <c r="U34" s="46">
+        <v>190.94740300000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="46">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="46">
+        <v>162.874405</v>
+      </c>
+      <c r="C35" s="46">
+        <v>41.152985000000001</v>
+      </c>
+      <c r="D35" s="46">
+        <v>0.24865499999999999</v>
+      </c>
+      <c r="E35" s="46">
+        <v>0.11931600000000001</v>
+      </c>
+      <c r="F35" s="46">
+        <v>26.385145000000001</v>
+      </c>
+      <c r="G35" s="46">
+        <v>0.28985699999999998</v>
+      </c>
+      <c r="H35" s="46">
+        <v>0.30830200000000002</v>
+      </c>
+      <c r="I35" s="46">
+        <v>0.31292700000000001</v>
+      </c>
+      <c r="J35" s="46">
+        <v>1.47E-4</v>
+      </c>
+      <c r="K35" s="46">
+        <v>231.69172699999999</v>
+      </c>
+      <c r="L35" s="46">
+        <v>101.57009100000001</v>
+      </c>
+      <c r="M35" s="46">
+        <v>51.533301999999999</v>
+      </c>
+      <c r="N35" s="46">
+        <v>0.154755</v>
+      </c>
+      <c r="O35" s="46">
+        <v>0.43498399999999998</v>
+      </c>
+      <c r="P35" s="46">
+        <v>4.569261</v>
+      </c>
+      <c r="Q35" s="46">
+        <v>0.19970599999999999</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0.213477</v>
+      </c>
+      <c r="S35" s="46">
+        <v>0.200484</v>
+      </c>
+      <c r="T35" s="46">
+        <v>0.32795999999999997</v>
+      </c>
+      <c r="U35" s="46">
+        <v>159.204025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="46">
+        <v>147.36698899999999</v>
+      </c>
+      <c r="C36" s="46">
+        <v>36.340527000000002</v>
+      </c>
+      <c r="D36" s="46">
+        <v>0.21667700000000001</v>
+      </c>
+      <c r="E36" s="46">
+        <v>0.10786</v>
+      </c>
+      <c r="F36" s="46">
+        <v>23.123978000000001</v>
+      </c>
+      <c r="G36" s="46">
+        <v>0.25462099999999999</v>
+      </c>
+      <c r="H36" s="46">
+        <v>0.26865299999999998</v>
+      </c>
+      <c r="I36" s="46">
+        <v>0.27268399999999998</v>
+      </c>
+      <c r="J36" s="46">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="K36" s="46">
+        <v>207.952133</v>
+      </c>
+      <c r="L36" s="46">
+        <v>91.140923000000001</v>
+      </c>
+      <c r="M36" s="46">
+        <v>46.458106999999998</v>
+      </c>
+      <c r="N36" s="46">
+        <v>0.13500999999999999</v>
+      </c>
+      <c r="O36" s="46">
+        <v>0.39564199999999999</v>
+      </c>
+      <c r="P36" s="46">
+        <v>4.1055859999999997</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>0.175927</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0.18624099999999999</v>
+      </c>
+      <c r="S36" s="46">
+        <v>0.174905</v>
+      </c>
+      <c r="T36" s="46">
+        <v>0.28611700000000001</v>
+      </c>
+      <c r="U36" s="46">
+        <v>143.05848700000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="46">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16608,38 +20797,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
-        <v>113</v>
+      <c r="B1" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="44">
-        <f>B5*cpi_2018to2012</f>
-        <v>65177.846652390654</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="43">
-        <f>B19*B11+C19*B12+D19*B13</f>
-        <v>71310.554324278608</v>
+        <v>100</v>
+      </c>
+      <c r="B5" s="40" t="e">
+        <f>#REF!*#REF!+#REF!*#REF!+#REF!*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -16648,402 +20836,119 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f>B23</f>
-        <v>Vehicle cost not including battery</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f>'EV freight truck batteries'!$D$19</f>
-        <v>Battery cost (based on 2019 battery pack price)</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>A24</f>
-        <v>2-3</v>
-      </c>
-      <c r="B11" s="43">
-        <f>D11+C11</f>
-        <v>65732</v>
-      </c>
-      <c r="C11" s="42">
-        <f>B24</f>
-        <v>55337</v>
-      </c>
-      <c r="D11" s="41">
-        <f>'EV freight truck batteries'!D20</f>
-        <v>10395</v>
-      </c>
-      <c r="E11" s="4">
-        <f>D11/(D11+C11)</f>
-        <v>0.15814215298484757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f>A25</f>
-        <v>4-5</v>
-      </c>
-      <c r="B12" s="43">
-        <f>D12+C12</f>
-        <v>82459</v>
-      </c>
-      <c r="C12" s="42">
-        <f>B25</f>
-        <v>56664</v>
-      </c>
-      <c r="D12" s="41">
-        <f>'EV freight truck batteries'!D21</f>
-        <v>25795</v>
-      </c>
-      <c r="E12" s="4">
-        <f>D12/(D12+C12)</f>
-        <v>0.31282212978571167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f>A26</f>
+        <f>'Heavy freight'!A15</f>
         <v>6-7</v>
       </c>
-      <c r="B13" s="43">
-        <f>D13+C13</f>
-        <v>119914</v>
-      </c>
-      <c r="C13" s="42">
-        <f>B26</f>
+      <c r="B11" s="34">
+        <f>C11-D11</f>
         <v>81414</v>
       </c>
-      <c r="D13" s="41">
-        <f>'EV freight truck batteries'!D22</f>
-        <v>38500</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D13/(D13+C13)</f>
-        <v>0.32106342879063327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
-        <f>'CARB ACT ISOR'!G27</f>
-        <v>LDV Freight</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="str">
-        <f>'CARB ACT ISOR'!G28</f>
-        <v>Class 2b-3</v>
-      </c>
-      <c r="C18" t="str">
-        <f>'CARB ACT ISOR'!H28</f>
-        <v>Class 4-5</v>
-      </c>
-      <c r="D18" t="str">
-        <f>'CARB ACT ISOR'!I28</f>
-        <v>Class 6-7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="str">
-        <f>'CARB ACT ISOR'!F29</f>
-        <v>Sales Share (2024-2030)</v>
-      </c>
-      <c r="B19" s="40">
-        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32)*1000/E19</f>
-        <v>0.84903672433063349</v>
-      </c>
-      <c r="C19" s="40">
-        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!H46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
-        <v>6.9441673422480865E-2</v>
-      </c>
-      <c r="D19" s="40">
-        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!I46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
-        <v>8.1521602246885733E-2</v>
-      </c>
-      <c r="E19" s="39">
-        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32,'[7]Table 49'!U26:U32)*1000</f>
-        <v>10317224.670000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="str">
-        <f>'EV freight LDVs'!A33</f>
-        <v>2-3</v>
-      </c>
-      <c r="B24" s="34">
-        <f>C24-D24</f>
-        <v>55337</v>
-      </c>
-      <c r="C24" s="34">
-        <f>'EV freight LDVs'!B33</f>
-        <v>67068.5</v>
-      </c>
-      <c r="D24" s="34">
-        <f>'EV freight truck batteries'!C20</f>
-        <v>11731.5</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/C24</f>
-        <v>0.17491818066603548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f>'EV freight LDVs'!A34</f>
-        <v>4-5</v>
-      </c>
-      <c r="B25" s="34">
-        <f>C25-D25</f>
-        <v>56664</v>
-      </c>
-      <c r="C25" s="34">
-        <f>'EV freight LDVs'!B34</f>
-        <v>85775.5</v>
-      </c>
-      <c r="D25" s="34">
-        <f>'EV freight truck batteries'!C21</f>
-        <v>29111.500000000004</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/C25</f>
-        <v>0.33939178436733103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="str">
-        <f>'EV freight LDVs'!A35</f>
-        <v>6-7</v>
-      </c>
-      <c r="B26" s="34">
-        <f>C26-D26</f>
-        <v>81414</v>
-      </c>
-      <c r="C26" s="34">
-        <f>'EV freight LDVs'!B35</f>
+      <c r="C11" s="34">
+        <f>'Heavy freight'!B15</f>
         <v>124864</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D11" s="34">
         <f>'EV freight truck batteries'!C22</f>
         <v>43450</v>
       </c>
-      <c r="E26" s="4">
-        <f>D26/C26</f>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="34">
-        <f>D48</f>
-        <v>67068.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="E11" s="4">
+        <f>D11/C11</f>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="34">
-        <f>D49</f>
-        <v>85775.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="34">
-        <f>D50</f>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="34">
+        <f>D25</f>
         <v>124864</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39">
-        <f>'EV freight truck batteries'!B28</f>
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <f>'EV freight truck batteries'!C28</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40">
-        <f>'EV freight truck batteries'!B29</f>
-        <v>135</v>
-      </c>
-      <c r="C40">
-        <f>'EV freight truck batteries'!C29</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
         <f>'EV freight truck batteries'!B30</f>
         <v>200</v>
       </c>
-      <c r="C41">
+      <c r="C18">
         <f>'EV freight truck batteries'!C30</f>
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
         <f>'EV freight truck batteries'!$E$38</f>
         <v>173.8</v>
       </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="34">
-        <f>'EV freight truck batteries'!B38</f>
-        <v>64896</v>
-      </c>
-      <c r="C48" s="34">
-        <f>'EV freight truck batteries'!C38</f>
-        <v>69241</v>
-      </c>
-      <c r="D48">
-        <f>(C48+B48)/2</f>
-        <v>67068.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="35" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="34">
-        <f>'EV freight truck batteries'!B39</f>
-        <v>80127</v>
-      </c>
-      <c r="C49" s="34">
-        <f>'EV freight truck batteries'!C39</f>
-        <v>91424</v>
-      </c>
-      <c r="D49">
-        <f>(C49+B49)/2</f>
-        <v>85775.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="35" t="s">
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="34">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="34">
         <f>'EV freight truck batteries'!B40</f>
         <v>116174</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C25" s="34">
         <f>'EV freight truck batteries'!C40</f>
         <v>133554</v>
       </c>
-      <c r="D50">
-        <f>(C50+B50)/2</f>
+      <c r="D25" s="40">
+        <f>(C25+B25)/2</f>
         <v>124864</v>
       </c>
     </row>
@@ -17053,12 +20958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17070,37 +20975,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -17114,10 +21019,10 @@
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -17125,27 +21030,27 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
-        <v>125</v>
+      <c r="A15" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -17156,68 +21061,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
-        <f>E27</f>
+        <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <f>E28</f>
+        <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
       <c r="C20" s="34">
         <f>B20*$E$38</f>
         <v>11731.5</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <f>B20*$A$10</f>
         <v>10395</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <f>E29</f>
+        <f t="shared" si="0"/>
         <v>167.5</v>
       </c>
       <c r="C21" s="34">
         <f>B21*$E$38</f>
         <v>29111.500000000004</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="38">
         <f>B21*$A$10</f>
         <v>25795</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <f>E30</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C22" s="34">
         <f>B22*$E$38</f>
         <v>43450</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="38">
         <f>B22*$A$10</f>
         <v>38500</v>
       </c>
@@ -17227,31 +21132,31 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="C23" s="34">
         <f>B23*$E$38</f>
         <v>52140</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="38">
         <f>B23*$A$10</f>
         <v>46200</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <f>E32</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="C24" s="34">
         <f>B24*$E$38</f>
         <v>69520</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="38">
         <f>B24*$A$10</f>
         <v>61600</v>
       </c>
@@ -17261,26 +21166,26 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>55</v>
@@ -17299,7 +21204,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>135</v>
@@ -17318,7 +21223,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -17356,7 +21261,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>400</v>
@@ -17368,7 +21273,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -17379,17 +21284,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <f>64896</f>
@@ -17409,7 +21314,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>80127</v>
@@ -17428,7 +21333,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>116174</v>
@@ -17466,7 +21371,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>201351</v>
@@ -17474,12 +21379,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -17491,1144 +21396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AB7CB3-320B-4564-A868-DC7FC0585BBF}">
-  <dimension ref="A1:K91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F15" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="73"/>
-      <c r="B17" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="52">
-        <v>524</v>
-      </c>
-      <c r="C18" s="52">
-        <v>963</v>
-      </c>
-      <c r="D18" s="52">
-        <v>1364</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="52">
-        <v>1110</v>
-      </c>
-      <c r="C19" s="52">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="52">
-        <v>2662</v>
-      </c>
-      <c r="F19" s="53">
-        <v>2024</v>
-      </c>
-      <c r="G19" s="60">
-        <v>53761</v>
-      </c>
-      <c r="H19" s="60">
-        <v>6436</v>
-      </c>
-      <c r="I19" s="60">
-        <v>7556</v>
-      </c>
-      <c r="J19" s="60">
-        <v>1119</v>
-      </c>
-      <c r="K19" s="71">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="52">
-        <f>6484*cpi_2018to2012</f>
-        <v>5926.3760000000002</v>
-      </c>
-      <c r="C20" s="52">
-        <f>10101*cpi_2018to2012</f>
-        <v>9232.3140000000003</v>
-      </c>
-      <c r="D20" s="52">
-        <f>12442*cpi_2018to2012</f>
-        <v>11371.988000000001</v>
-      </c>
-      <c r="F20" s="53">
-        <v>2025</v>
-      </c>
-      <c r="G20" s="60">
-        <v>54217</v>
-      </c>
-      <c r="H20" s="60">
-        <v>6531</v>
-      </c>
-      <c r="I20" s="60">
-        <v>7667</v>
-      </c>
-      <c r="J20" s="60">
-        <v>1137</v>
-      </c>
-      <c r="K20" s="71">
-        <v>4769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="61">
-        <f>(B18*$G$46+B19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>658.83351490019675</v>
-      </c>
-      <c r="C21" s="61">
-        <f>(C18*$G$46+C19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>1205.2868946745875</v>
-      </c>
-      <c r="D21" s="61">
-        <f>(D18*$G$46+D19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>1645.1720654273984</v>
-      </c>
-      <c r="F21" s="53">
-        <v>2026</v>
-      </c>
-      <c r="G21" s="60">
-        <v>54753</v>
-      </c>
-      <c r="H21" s="60">
-        <v>6649</v>
-      </c>
-      <c r="I21" s="60">
-        <v>7806</v>
-      </c>
-      <c r="J21" s="60">
-        <v>1177</v>
-      </c>
-      <c r="K21" s="71">
-        <v>4918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="F22" s="53">
-        <v>2027</v>
-      </c>
-      <c r="G22" s="60">
-        <v>55152</v>
-      </c>
-      <c r="H22" s="60">
-        <v>6786</v>
-      </c>
-      <c r="I22" s="60">
-        <v>7966</v>
-      </c>
-      <c r="J22" s="60">
-        <v>1194</v>
-      </c>
-      <c r="K22" s="71">
-        <v>4993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="F23" s="53">
-        <v>2028</v>
-      </c>
-      <c r="G23" s="60">
-        <v>55765</v>
-      </c>
-      <c r="H23" s="60">
-        <v>6904</v>
-      </c>
-      <c r="I23" s="60">
-        <v>8105</v>
-      </c>
-      <c r="J23" s="60">
-        <v>1216</v>
-      </c>
-      <c r="K23" s="71">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="F24" s="53">
-        <v>2029</v>
-      </c>
-      <c r="G24" s="60">
-        <v>56371</v>
-      </c>
-      <c r="H24" s="60">
-        <v>7024</v>
-      </c>
-      <c r="I24" s="60">
-        <v>8246</v>
-      </c>
-      <c r="J24" s="60">
-        <v>1239</v>
-      </c>
-      <c r="K24" s="71">
-        <v>5161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F25" s="53">
-        <v>2030</v>
-      </c>
-      <c r="G25" s="60">
-        <v>56968</v>
-      </c>
-      <c r="H25" s="60">
-        <v>7147</v>
-      </c>
-      <c r="I25" s="60">
-        <v>8390</v>
-      </c>
-      <c r="J25" s="60">
-        <v>1264</v>
-      </c>
-      <c r="K25" s="71">
-        <v>5263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F26" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="60">
-        <f>SUM(G19:G25)</f>
-        <v>386987</v>
-      </c>
-      <c r="H26" s="60">
-        <f>SUM(H19:H25)</f>
-        <v>47477</v>
-      </c>
-      <c r="I26" s="60">
-        <f>SUM(I19:I25)</f>
-        <v>55736</v>
-      </c>
-      <c r="J26" s="60">
-        <f>SUM(J19:J25)</f>
-        <v>8346</v>
-      </c>
-      <c r="K26" s="60">
-        <f>SUM(K19:K25)</f>
-        <v>34865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F27" s="59"/>
-      <c r="G27" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F29" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="54">
-        <f>G26/SUM($G26:$J26)</f>
-        <v>0.7762312805638798</v>
-      </c>
-      <c r="H29" s="54">
-        <f>H26/SUM($G26:$J26)</f>
-        <v>9.5230931548944325E-2</v>
-      </c>
-      <c r="I29" s="54">
-        <f>I26/SUM($G26:$J26)</f>
-        <v>0.11179710598420206</v>
-      </c>
-      <c r="J29" s="54">
-        <f>J26/SUM($G26:$J26)</f>
-        <v>1.6740681902973849E-2</v>
-      </c>
-      <c r="K29" s="68">
-        <f>K19/K19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="68"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C31" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C32" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="52">
-        <v>45000</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="52">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C34" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="52">
-        <v>55000</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="52">
-        <v>85000</v>
-      </c>
-      <c r="F35" t="str">
-        <f>F18</f>
-        <v>Model Year</v>
-      </c>
-      <c r="G35" t="str">
-        <f>G18</f>
-        <v>Class 2b-3</v>
-      </c>
-      <c r="H35" t="str">
-        <f>H18</f>
-        <v>Class 4-5</v>
-      </c>
-      <c r="I35" t="str">
-        <f>I18</f>
-        <v>Class 6-7</v>
-      </c>
-      <c r="J35" t="str">
-        <f>J18</f>
-        <v>Class 8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="52">
-        <v>120000</v>
-      </c>
-      <c r="F36">
-        <f>F19</f>
-        <v>2024</v>
-      </c>
-      <c r="G36" s="48">
-        <f>G19*$B$76</f>
-        <v>30643.769999999997</v>
-      </c>
-      <c r="H36" s="48">
-        <f>H19</f>
-        <v>6436</v>
-      </c>
-      <c r="I36" s="48">
-        <f>I19</f>
-        <v>7556</v>
-      </c>
-      <c r="J36" s="48">
-        <f>J19</f>
-        <v>1119</v>
-      </c>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="52">
-        <v>130000</v>
-      </c>
-      <c r="E37" s="41">
-        <f>D37*cpi_2018to2012</f>
-        <v>118820</v>
-      </c>
-      <c r="F37">
-        <f>F20</f>
-        <v>2025</v>
-      </c>
-      <c r="G37" s="48">
-        <f>G20*$B$76</f>
-        <v>30903.69</v>
-      </c>
-      <c r="H37" s="48">
-        <f>H20</f>
-        <v>6531</v>
-      </c>
-      <c r="I37" s="48">
-        <f>I20</f>
-        <v>7667</v>
-      </c>
-      <c r="J37" s="48">
-        <f>J20</f>
-        <v>1137</v>
-      </c>
-      <c r="K37" s="48"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F38">
-        <f>F21</f>
-        <v>2026</v>
-      </c>
-      <c r="G38" s="48">
-        <f>G21*$B$76</f>
-        <v>31209.21</v>
-      </c>
-      <c r="H38" s="48">
-        <f>H21</f>
-        <v>6649</v>
-      </c>
-      <c r="I38" s="48">
-        <f>I21</f>
-        <v>7806</v>
-      </c>
-      <c r="J38" s="48">
-        <f>J21</f>
-        <v>1177</v>
-      </c>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39">
-        <f>F22</f>
-        <v>2027</v>
-      </c>
-      <c r="G39" s="48">
-        <f>G22*$B$76</f>
-        <v>31436.639999999996</v>
-      </c>
-      <c r="H39" s="48">
-        <f>H22</f>
-        <v>6786</v>
-      </c>
-      <c r="I39" s="48">
-        <f>I22</f>
-        <v>7966</v>
-      </c>
-      <c r="J39" s="48">
-        <f>J22</f>
-        <v>1194</v>
-      </c>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="C40" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="61">
-        <f>D33*G46+D34*H46+D35*I46</f>
-        <v>55331.59668441402</v>
-      </c>
-      <c r="E40" s="41">
-        <f>D40*cpi_2018to2012</f>
-        <v>50573.07936955442</v>
-      </c>
-      <c r="F40">
-        <f>F23</f>
-        <v>2028</v>
-      </c>
-      <c r="G40" s="48">
-        <f>G23*$B$76</f>
-        <v>31786.049999999996</v>
-      </c>
-      <c r="H40" s="48">
-        <f>H23</f>
-        <v>6904</v>
-      </c>
-      <c r="I40" s="48">
-        <f>I23</f>
-        <v>8105</v>
-      </c>
-      <c r="J40" s="48">
-        <f>J23</f>
-        <v>1216</v>
-      </c>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="61">
-        <f>(D32/D33)*D40</f>
-        <v>49798.437015972617</v>
-      </c>
-      <c r="E41" s="41">
-        <f>D41*cpi_2018to2012</f>
-        <v>45515.771432598973</v>
-      </c>
-      <c r="F41">
-        <f>F24</f>
-        <v>2029</v>
-      </c>
-      <c r="G41" s="48">
-        <f>G24*$B$76</f>
-        <v>32131.469999999998</v>
-      </c>
-      <c r="H41" s="48">
-        <f>H24</f>
-        <v>7024</v>
-      </c>
-      <c r="I41" s="48">
-        <f>I24</f>
-        <v>8246</v>
-      </c>
-      <c r="J41" s="48">
-        <f>J24</f>
-        <v>1239</v>
-      </c>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F42">
-        <f>F25</f>
-        <v>2030</v>
-      </c>
-      <c r="G42" s="48">
-        <f>G25*$B$76</f>
-        <v>32471.759999999998</v>
-      </c>
-      <c r="H42" s="48">
-        <f>H25</f>
-        <v>7147</v>
-      </c>
-      <c r="I42" s="48">
-        <f>I25</f>
-        <v>8390</v>
-      </c>
-      <c r="J42" s="48">
-        <f>J25</f>
-        <v>1264</v>
-      </c>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F43" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="60">
-        <f>SUM(G36:G42)</f>
-        <v>220582.59</v>
-      </c>
-      <c r="H43" s="60">
-        <f>SUM(H36:H42)</f>
-        <v>47477</v>
-      </c>
-      <c r="I43" s="60">
-        <f>SUM(I36:I42)</f>
-        <v>55736</v>
-      </c>
-      <c r="J43" s="60">
-        <f>SUM(J36:J42)</f>
-        <v>8346</v>
-      </c>
-      <c r="K43" s="48">
-        <f>G43+H43+I43+J43</f>
-        <v>332141.58999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F45" s="56"/>
-      <c r="G45" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="F46" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="54">
-        <f>G43/SUM($G43:$J43)</f>
-        <v>0.66412215946819553</v>
-      </c>
-      <c r="H46" s="54">
-        <f>H43/SUM($G43:$J43)</f>
-        <v>0.1429420507079526</v>
-      </c>
-      <c r="I46" s="54">
-        <f>I43/SUM($G43:$J43)</f>
-        <v>0.16780795202431592</v>
-      </c>
-      <c r="J46" s="54">
-        <f>J43/SUM($G43:$J43)</f>
-        <v>2.5127837799536038E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="52">
-        <v>64896</v>
-      </c>
-      <c r="C63" s="52">
-        <v>63635</v>
-      </c>
-      <c r="D63" s="52">
-        <v>62599</v>
-      </c>
-      <c r="E63" s="52">
-        <v>61684</v>
-      </c>
-      <c r="F63" s="52">
-        <v>60829</v>
-      </c>
-      <c r="G63" s="52">
-        <v>60035</v>
-      </c>
-      <c r="H63" s="52">
-        <v>59241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="52">
-        <v>69241</v>
-      </c>
-      <c r="C64" s="52">
-        <v>67568</v>
-      </c>
-      <c r="D64" s="52">
-        <v>66201</v>
-      </c>
-      <c r="E64" s="52">
-        <v>65011</v>
-      </c>
-      <c r="F64" s="52">
-        <v>63909</v>
-      </c>
-      <c r="G64" s="52">
-        <v>62895</v>
-      </c>
-      <c r="H64" s="52">
-        <v>61881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="52">
-        <v>80127</v>
-      </c>
-      <c r="C65" s="52">
-        <v>77616</v>
-      </c>
-      <c r="D65" s="52">
-        <v>75585</v>
-      </c>
-      <c r="E65" s="52">
-        <v>73852</v>
-      </c>
-      <c r="F65" s="52">
-        <v>72267</v>
-      </c>
-      <c r="G65" s="52">
-        <v>70830</v>
-      </c>
-      <c r="H65" s="52">
-        <v>69394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="52">
-        <v>91424</v>
-      </c>
-      <c r="C66" s="52">
-        <v>87841</v>
-      </c>
-      <c r="D66" s="52">
-        <v>84952</v>
-      </c>
-      <c r="E66" s="52">
-        <v>82503</v>
-      </c>
-      <c r="F66" s="52">
-        <v>80275</v>
-      </c>
-      <c r="G66" s="52">
-        <v>78266</v>
-      </c>
-      <c r="H66" s="52">
-        <v>76258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="52">
-        <v>116174</v>
-      </c>
-      <c r="C67" s="52">
-        <v>112591</v>
-      </c>
-      <c r="D67" s="52">
-        <v>109702</v>
-      </c>
-      <c r="E67" s="52">
-        <v>107253</v>
-      </c>
-      <c r="F67" s="52">
-        <v>105025</v>
-      </c>
-      <c r="G67" s="52">
-        <v>103016</v>
-      </c>
-      <c r="H67" s="52">
-        <v>101008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="52">
-        <v>133554</v>
-      </c>
-      <c r="C68" s="52">
-        <v>128321</v>
-      </c>
-      <c r="D68" s="52">
-        <v>124112</v>
-      </c>
-      <c r="E68" s="52">
-        <v>120563</v>
-      </c>
-      <c r="F68" s="52">
-        <v>117345</v>
-      </c>
-      <c r="G68" s="52">
-        <v>114456</v>
-      </c>
-      <c r="H68" s="52">
-        <v>111568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="52">
-        <v>154799</v>
-      </c>
-      <c r="C69" s="52">
-        <v>150486</v>
-      </c>
-      <c r="D69" s="52">
-        <v>147007</v>
-      </c>
-      <c r="E69" s="52">
-        <v>144057</v>
-      </c>
-      <c r="F69" s="52">
-        <v>141371</v>
-      </c>
-      <c r="G69" s="52">
-        <v>138949</v>
-      </c>
-      <c r="H69" s="52">
-        <v>136527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="52">
-        <v>175655</v>
-      </c>
-      <c r="C70" s="52">
-        <v>169362</v>
-      </c>
-      <c r="D70" s="52">
-        <v>164299</v>
-      </c>
-      <c r="E70" s="52">
-        <v>160029</v>
-      </c>
-      <c r="F70" s="52">
-        <v>156155</v>
-      </c>
-      <c r="G70" s="52">
-        <v>152677</v>
-      </c>
-      <c r="H70" s="52">
-        <v>149199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="52">
-        <v>201351</v>
-      </c>
-      <c r="C71" s="52">
-        <v>194134</v>
-      </c>
-      <c r="D71" s="52">
-        <v>188312</v>
-      </c>
-      <c r="E71" s="52">
-        <v>183371</v>
-      </c>
-      <c r="F71" s="52">
-        <v>178870</v>
-      </c>
-      <c r="G71" s="52">
-        <v>174809</v>
-      </c>
-      <c r="H71" s="52">
-        <v>170748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="52">
-        <v>216931</v>
-      </c>
-      <c r="C72" s="52">
-        <v>212353</v>
-      </c>
-      <c r="D72" s="52">
-        <v>207885</v>
-      </c>
-      <c r="E72" s="52">
-        <v>203439</v>
-      </c>
-      <c r="F72" s="52">
-        <v>199004</v>
-      </c>
-      <c r="G72" s="52">
-        <v>194579</v>
-      </c>
-      <c r="H72" s="52">
-        <v>190155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74">
-        <f>B72/B71</f>
-        <v>1.077377316228874</v>
-      </c>
-      <c r="C74">
-        <f>C72/C71</f>
-        <v>1.0938475486004513</v>
-      </c>
-      <c r="D74">
-        <f>D72/D71</f>
-        <v>1.1039392072730363</v>
-      </c>
-      <c r="E74">
-        <f>E72/E71</f>
-        <v>1.109439333373325</v>
-      </c>
-      <c r="F74">
-        <f>F72/F71</f>
-        <v>1.1125621960082741</v>
-      </c>
-      <c r="G74">
-        <f>G72/G71</f>
-        <v>1.1130948635367743</v>
-      </c>
-      <c r="H74">
-        <f>H72/H71</f>
-        <v>1.113658725138801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="50">
-        <f>0.57</f>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B88">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="49">
-        <v>59513.619728112782</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="48">
-        <f>$D$40</f>
-        <v>55331.59668441402</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="41">
-        <f>B89/B90</f>
-        <v>1.0755811018350165</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:J44"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{6CA68799-D590-4E9C-A58B-FCBBA33FC526}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -18876,7 +21644,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'EV freight LDVs'!E26</f>
+        <f>'Heavy freight'!E11</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">
@@ -19533,927 +22301,6 @@
       </c>
       <c r="AG7" s="5">
         <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AG7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <f>'EV freight LDVs'!E24</f>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="C2" s="5">
-        <f>B2</f>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:AG2" si="0">C2</f>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="P2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="Q2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="T2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="U2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="V2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="W2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="X2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="Y2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="Z2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AA2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AB2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AC2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AD2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AE2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AF2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-      <c r="AG2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <f>'EV freight LDVs'!E26</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C3" s="5">
-        <f>B3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="1">C3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:AC3" si="2">M3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:AG7" si="4">B3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="4"/>
         <v>0.34797860071758074</v>
       </c>
     </row>

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE09212-5A88-489F-A023-A6FAF937A56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
     <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="Freight LDVs" sheetId="13" r:id="rId4"/>
-    <sheet name="Table 44" sheetId="14" r:id="rId5"/>
-    <sheet name="Table 49" sheetId="15" r:id="rId6"/>
-    <sheet name="Heavy freight" sheetId="7" r:id="rId7"/>
-    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId8"/>
-    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId9"/>
-    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId10"/>
+    <sheet name="Heavy freight" sheetId="7" r:id="rId5"/>
+    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId6"/>
+    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
+    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -33,7 +33,6 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
@@ -87,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>Sources:</t>
   </si>
@@ -494,120 +493,6 @@
     <t>"MDV &amp; HDV Decarbonization" sheet</t>
   </si>
   <si>
-    <t>Fleet Vehicle Sales Commercial Light Trucks (Case High oil and gas supply)</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=54-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;linechart=highogs-d120120a.57-54-AEO2021~highogs-d120120a.58-54-AEO2021~highogs-d120120a.59-54-AEO2021~highogs-d120120a.60-54-AEO2021~highogs-d120120a.61-54-AEO2021~highogs-d120120a.62-54-AEO2021~highogs-d120120a.63-54-AEO2021~highogs-d120120a.64-54-AEO2021~highogs-d120120a.65-54-AEO2021~highogs-d120120a.66-54-AEO2021&amp;ctype=linechart&amp;sourcekey=0</t>
-  </si>
-  <si>
-    <t>10:53:55 GMT-0700 (Pacific Daylight Time)</t>
-  </si>
-  <si>
-    <t>Source: U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Gasoline thousands</t>
-  </si>
-  <si>
-    <t>TDI Diesel thousands</t>
-  </si>
-  <si>
-    <t>Propane thousands</t>
-  </si>
-  <si>
-    <t>CNG/LNG thousands</t>
-  </si>
-  <si>
-    <t>Ethanol Flex thousands</t>
-  </si>
-  <si>
-    <t>Electric thousands</t>
-  </si>
-  <si>
-    <t>Plug-in Gas thousands</t>
-  </si>
-  <si>
-    <t>Plug-in Diesel thousands</t>
-  </si>
-  <si>
-    <t>Fuel Cell thousands</t>
-  </si>
-  <si>
-    <t>Total thousands</t>
-  </si>
-  <si>
-    <t>Freight New Trucks Sales (Case High oil and gas supply)</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=58-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2019&amp;end=2050&amp;f=A&amp;linechart=highogs-d120120a.198-58-AEO2021~highogs-d120120a.199-58-AEO2021~highogs-d120120a.200-58-AEO2021~highogs-d120120a.201-58-AEO2021~highogs-d120120a.202-58-AEO2021~highogs-d120120a.203-58-AEO2021~highogs-d120120a.204-58-AEO2021~highogs-d120120a.205-58-AEO2021~highogs-d120120a.206-58-AEO2021~highogs-d120120a.207-58-AEO2021~highogs-d120120a.209-58-AEO2021~highogs-d120120a.210-58-AEO2021~highogs-d120120a.211-58-AEO2021~highogs-d120120a.212-58-AEO2021~highogs-d120120a.213-58-AEO2021~highogs-d120120a.214-58-AEO2021~highogs-d120120a.215-58-AEO2021~highogs-d120120a.216-58-AEO2021~highogs-d120120a.217-58-AEO2021~highogs-d120120a.218-58-AEO2021~~~~~~~~~~&amp;ctype=linechart&amp;sourcekey=0</t>
-  </si>
-  <si>
-    <t>10:52:58 GMT-0700 (Pacific Daylight Time)</t>
-  </si>
-  <si>
-    <t>Light Medium: Diesel thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Motor Gasoline thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Propane thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Natural Gas thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Ethanol-Flex Fuel thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Electric thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Plug-in Diesel Hybrid thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Plug-in Gasoline Hybrid thousands</t>
-  </si>
-  <si>
-    <t>Light Medium: Fuel Cell thousands</t>
-  </si>
-  <si>
-    <t>Light Medium thousands</t>
-  </si>
-  <si>
-    <t>Medium: Diesel thousands</t>
-  </si>
-  <si>
-    <t>Medium: Motor Gasoline thousands</t>
-  </si>
-  <si>
-    <t>Medium: Propane thousands</t>
-  </si>
-  <si>
-    <t>Medium: Natural Gas thousands</t>
-  </si>
-  <si>
-    <t>Medium: Ethanol-Flex Fuel thousands</t>
-  </si>
-  <si>
-    <t>Medium: Electric thousands</t>
-  </si>
-  <si>
-    <t>Medium: Plug-in Diesel Hybrid thousands</t>
-  </si>
-  <si>
-    <t>Medium: Plug-in Gasoline Hybrid thousands</t>
-  </si>
-  <si>
-    <t>Medium: Fuel Cell thousands</t>
-  </si>
-  <si>
-    <t>Medium thousands</t>
-  </si>
-  <si>
     <t>Percent of vehicle that is battery</t>
   </si>
   <si>
@@ -618,15 +503,6 @@
   </si>
   <si>
     <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>% medium</t>
-  </si>
-  <si>
-    <t>% light medium</t>
-  </si>
-  <si>
-    <t>% light</t>
   </si>
   <si>
     <t>2019 to 2012 USD (see cpi.xlsx)</t>
@@ -843,7 +719,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -896,10 +772,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
@@ -2306,6 +2178,49 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Comparisons"/>
+      <sheetName val="EPS Results"/>
+      <sheetName val="Table 38"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="NAP"/>
+      <sheetName val="CARB"/>
+      <sheetName val="Currency Conversion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="42">
+          <cell r="B42">
+            <v>0.67491530146662049</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0.19259262430771532</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0.13249207422566411</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2947,7 +2862,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2972,12 +2887,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3052,17 +2967,17 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>0.89805481563188172</v>
@@ -3073,926 +2988,6 @@
     <hyperlink ref="B27" r:id="rId1" xr:uid="{18F0FF1B-47B9-4F49-ADF2-C7A2A53893E5}"/>
     <hyperlink ref="B21" r:id="rId2" xr:uid="{D9A18C3F-356D-4AC7-AF7C-AEFD19442E02}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AG7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="C2" s="5">
-        <f>B2</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:AG2" si="0">C2</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="O2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="P2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Q2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="T2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="U2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="V2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="W2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="X2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Y2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Z2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AA2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AB2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AC2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AD2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AE2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AF2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="AG2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <f>'Heavy freight'!E11</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C3" s="5">
-        <f>B3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="1">C3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ref="N3:AC3" si="2">M3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:AG7" si="4">B3</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="R7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="S7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AE7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AF7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17011,7 +16006,7 @@
   <sheetData>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
@@ -17189,7 +16184,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
@@ -17388,40 +16383,40 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F21">
-        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>67015.820068708723</v>
       </c>
       <c r="G21">
-        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>65390.891021686853</v>
       </c>
       <c r="H21">
-        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>64067.932818421083</v>
       </c>
       <c r="I21">
-        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>62922.20920506223</v>
       </c>
       <c r="J21">
-        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>61864.745857600108</v>
       </c>
       <c r="K21">
-        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>60895.910916680761</v>
       </c>
       <c r="L21">
-        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'Table 44'!$B$42:$B$44)</f>
+        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'[10]Table 44'!$B$42:$B$44)</f>
         <v>59927.367919640412</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>74481.20175540229</v>
@@ -17429,7 +16424,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B25" s="4">
         <f>1-L21/B24</f>
@@ -17438,7 +16433,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>60169</v>
@@ -17446,7 +16441,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B27" s="4">
         <f>1-B26/B24</f>
@@ -17460,3325 +16455,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FC805C-21A4-4399-B500-D5DE9E467F46}">
-  <dimension ref="A1:K44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.81640625" style="46" customWidth="1"/>
-    <col min="2" max="16384" width="8.81640625" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
-        <v>2050</v>
-      </c>
-      <c r="B6" s="46">
-        <v>41.234305999999997</v>
-      </c>
-      <c r="C6" s="46">
-        <v>303.525238</v>
-      </c>
-      <c r="D6" s="46">
-        <v>2.627345</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0.502718</v>
-      </c>
-      <c r="F6" s="46">
-        <v>611.61779799999999</v>
-      </c>
-      <c r="G6" s="46">
-        <v>2.8294320000000002</v>
-      </c>
-      <c r="H6" s="46">
-        <v>3.0396559999999999</v>
-      </c>
-      <c r="I6" s="46">
-        <v>3.2382460000000002</v>
-      </c>
-      <c r="J6" s="46">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46">
-        <v>968.61480700000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
-        <v>2049</v>
-      </c>
-      <c r="B7" s="46">
-        <v>52.488135999999997</v>
-      </c>
-      <c r="C7" s="46">
-        <v>312.71551499999998</v>
-      </c>
-      <c r="D7" s="46">
-        <v>2.5694270000000001</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0.50015699999999996</v>
-      </c>
-      <c r="F7" s="46">
-        <v>598.50061000000005</v>
-      </c>
-      <c r="G7" s="46">
-        <v>2.7670599999999999</v>
-      </c>
-      <c r="H7" s="46">
-        <v>2.9726509999999999</v>
-      </c>
-      <c r="I7" s="46">
-        <v>3.1668630000000002</v>
-      </c>
-      <c r="J7" s="46">
-        <v>0</v>
-      </c>
-      <c r="K7" s="46">
-        <v>975.68035899999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
-        <v>2048</v>
-      </c>
-      <c r="B8" s="46">
-        <v>65.500670999999997</v>
-      </c>
-      <c r="C8" s="46">
-        <v>319.407623</v>
-      </c>
-      <c r="D8" s="46">
-        <v>2.509144</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0.49745099999999998</v>
-      </c>
-      <c r="F8" s="46">
-        <v>584.76025400000003</v>
-      </c>
-      <c r="G8" s="46">
-        <v>2.7021389999999998</v>
-      </c>
-      <c r="H8" s="46">
-        <v>2.9029069999999999</v>
-      </c>
-      <c r="I8" s="46">
-        <v>3.092562</v>
-      </c>
-      <c r="J8" s="46">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46">
-        <v>981.37280299999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="46">
-        <v>2047</v>
-      </c>
-      <c r="B9" s="46">
-        <v>78.435828999999998</v>
-      </c>
-      <c r="C9" s="46">
-        <v>321.22879</v>
-      </c>
-      <c r="D9" s="46">
-        <v>2.4222769999999998</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0.49229899999999999</v>
-      </c>
-      <c r="F9" s="46">
-        <v>564.84399399999995</v>
-      </c>
-      <c r="G9" s="46">
-        <v>2.6085910000000001</v>
-      </c>
-      <c r="H9" s="46">
-        <v>2.8024079999999998</v>
-      </c>
-      <c r="I9" s="46">
-        <v>2.9854980000000002</v>
-      </c>
-      <c r="J9" s="46">
-        <v>0</v>
-      </c>
-      <c r="K9" s="46">
-        <v>975.81964100000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="46">
-        <v>2046</v>
-      </c>
-      <c r="B10" s="46">
-        <v>91.947372000000001</v>
-      </c>
-      <c r="C10" s="46">
-        <v>326.26950099999999</v>
-      </c>
-      <c r="D10" s="46">
-        <v>2.3632219999999999</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0.49283300000000002</v>
-      </c>
-      <c r="F10" s="46">
-        <v>551.32525599999997</v>
-      </c>
-      <c r="G10" s="46">
-        <v>2.544994</v>
-      </c>
-      <c r="H10" s="46">
-        <v>2.734086</v>
-      </c>
-      <c r="I10" s="46">
-        <v>2.912712</v>
-      </c>
-      <c r="J10" s="46">
-        <v>0</v>
-      </c>
-      <c r="K10" s="46">
-        <v>980.589966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="46">
-        <v>2045</v>
-      </c>
-      <c r="B11" s="46">
-        <v>105.51058999999999</v>
-      </c>
-      <c r="C11" s="46">
-        <v>330.60977200000002</v>
-      </c>
-      <c r="D11" s="46">
-        <v>2.302584</v>
-      </c>
-      <c r="E11" s="46">
-        <v>0.49298900000000001</v>
-      </c>
-      <c r="F11" s="46">
-        <v>537.19427499999995</v>
-      </c>
-      <c r="G11" s="46">
-        <v>2.479692</v>
-      </c>
-      <c r="H11" s="46">
-        <v>2.663932</v>
-      </c>
-      <c r="I11" s="46">
-        <v>2.8379750000000001</v>
-      </c>
-      <c r="J11" s="46">
-        <v>0</v>
-      </c>
-      <c r="K11" s="46">
-        <v>984.091858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
-        <v>2044</v>
-      </c>
-      <c r="B12" s="46">
-        <v>117.87550400000001</v>
-      </c>
-      <c r="C12" s="46">
-        <v>330.536743</v>
-      </c>
-      <c r="D12" s="46">
-        <v>2.2174510000000001</v>
-      </c>
-      <c r="E12" s="46">
-        <v>0.48947099999999999</v>
-      </c>
-      <c r="F12" s="46">
-        <v>517.332581</v>
-      </c>
-      <c r="G12" s="46">
-        <v>2.38801</v>
-      </c>
-      <c r="H12" s="46">
-        <v>2.5654379999999999</v>
-      </c>
-      <c r="I12" s="46">
-        <v>2.7330459999999999</v>
-      </c>
-      <c r="J12" s="46">
-        <v>0</v>
-      </c>
-      <c r="K12" s="46">
-        <v>976.13824499999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
-        <v>2043</v>
-      </c>
-      <c r="B13" s="46">
-        <v>131.30926500000001</v>
-      </c>
-      <c r="C13" s="46">
-        <v>332.91735799999998</v>
-      </c>
-      <c r="D13" s="46">
-        <v>2.1549939999999999</v>
-      </c>
-      <c r="E13" s="46">
-        <v>0.49047299999999999</v>
-      </c>
-      <c r="F13" s="46">
-        <v>502.76123000000001</v>
-      </c>
-      <c r="G13" s="46">
-        <v>2.3207490000000002</v>
-      </c>
-      <c r="H13" s="46">
-        <v>2.493179</v>
-      </c>
-      <c r="I13" s="46">
-        <v>2.656066</v>
-      </c>
-      <c r="J13" s="46">
-        <v>0</v>
-      </c>
-      <c r="K13" s="46">
-        <v>977.10333300000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
-        <v>2042</v>
-      </c>
-      <c r="B14" s="46">
-        <v>144.83325199999999</v>
-      </c>
-      <c r="C14" s="46">
-        <v>335.44134500000001</v>
-      </c>
-      <c r="D14" s="46">
-        <v>2.0971380000000002</v>
-      </c>
-      <c r="E14" s="46">
-        <v>0.49220199999999997</v>
-      </c>
-      <c r="F14" s="46">
-        <v>489.26348899999999</v>
-      </c>
-      <c r="G14" s="46">
-        <v>2.2584430000000002</v>
-      </c>
-      <c r="H14" s="46">
-        <v>2.4262440000000001</v>
-      </c>
-      <c r="I14" s="46">
-        <v>2.5847579999999999</v>
-      </c>
-      <c r="J14" s="46">
-        <v>0</v>
-      </c>
-      <c r="K14" s="46">
-        <v>979.39685099999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
-        <v>2041</v>
-      </c>
-      <c r="B15" s="46">
-        <v>158.02543600000001</v>
-      </c>
-      <c r="C15" s="46">
-        <v>336.600525</v>
-      </c>
-      <c r="D15" s="46">
-        <v>2.0353520000000001</v>
-      </c>
-      <c r="E15" s="46">
-        <v>0.49284299999999998</v>
-      </c>
-      <c r="F15" s="46">
-        <v>474.84887700000002</v>
-      </c>
-      <c r="G15" s="46">
-        <v>2.1919050000000002</v>
-      </c>
-      <c r="H15" s="46">
-        <v>2.3547630000000002</v>
-      </c>
-      <c r="I15" s="46">
-        <v>2.5086059999999999</v>
-      </c>
-      <c r="J15" s="46">
-        <v>0</v>
-      </c>
-      <c r="K15" s="46">
-        <v>979.05828899999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
-        <v>2040</v>
-      </c>
-      <c r="B16" s="46">
-        <v>171.80561800000001</v>
-      </c>
-      <c r="C16" s="46">
-        <v>337.33624300000002</v>
-      </c>
-      <c r="D16" s="46">
-        <v>1.977708</v>
-      </c>
-      <c r="E16" s="46">
-        <v>0.49430800000000003</v>
-      </c>
-      <c r="F16" s="46">
-        <v>461.40045199999997</v>
-      </c>
-      <c r="G16" s="46">
-        <v>2.1298270000000001</v>
-      </c>
-      <c r="H16" s="46">
-        <v>2.2880720000000001</v>
-      </c>
-      <c r="I16" s="46">
-        <v>2.4375589999999998</v>
-      </c>
-      <c r="J16" s="46">
-        <v>0</v>
-      </c>
-      <c r="K16" s="46">
-        <v>979.86975099999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
-        <v>2039</v>
-      </c>
-      <c r="B17" s="46">
-        <v>186.04432700000001</v>
-      </c>
-      <c r="C17" s="46">
-        <v>337.47348</v>
-      </c>
-      <c r="D17" s="46">
-        <v>1.9226080000000001</v>
-      </c>
-      <c r="E17" s="46">
-        <v>0.496506</v>
-      </c>
-      <c r="F17" s="46">
-        <v>448.545502</v>
-      </c>
-      <c r="G17" s="46">
-        <v>2.0704880000000001</v>
-      </c>
-      <c r="H17" s="46">
-        <v>2.2243240000000002</v>
-      </c>
-      <c r="I17" s="46">
-        <v>2.3696470000000001</v>
-      </c>
-      <c r="J17" s="46">
-        <v>0</v>
-      </c>
-      <c r="K17" s="46">
-        <v>981.14685099999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
-        <v>2038</v>
-      </c>
-      <c r="B18" s="46">
-        <v>199.508972</v>
-      </c>
-      <c r="C18" s="46">
-        <v>336.64590500000003</v>
-      </c>
-      <c r="D18" s="46">
-        <v>1.86426</v>
-      </c>
-      <c r="E18" s="46">
-        <v>0.49760399999999999</v>
-      </c>
-      <c r="F18" s="46">
-        <v>434.93289199999998</v>
-      </c>
-      <c r="G18" s="46">
-        <v>2.0076529999999999</v>
-      </c>
-      <c r="H18" s="46">
-        <v>2.1568200000000002</v>
-      </c>
-      <c r="I18" s="46">
-        <v>2.2977319999999999</v>
-      </c>
-      <c r="J18" s="46">
-        <v>0</v>
-      </c>
-      <c r="K18" s="46">
-        <v>979.91186500000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
-        <v>2037</v>
-      </c>
-      <c r="B19" s="46">
-        <v>210.32974200000001</v>
-      </c>
-      <c r="C19" s="46">
-        <v>337.62747200000001</v>
-      </c>
-      <c r="D19" s="46">
-        <v>1.8063149999999999</v>
-      </c>
-      <c r="E19" s="46">
-        <v>0.498529</v>
-      </c>
-      <c r="F19" s="46">
-        <v>421.41424599999999</v>
-      </c>
-      <c r="G19" s="46">
-        <v>1.9452510000000001</v>
-      </c>
-      <c r="H19" s="46">
-        <v>2.089782</v>
-      </c>
-      <c r="I19" s="46">
-        <v>2.2263130000000002</v>
-      </c>
-      <c r="J19" s="46">
-        <v>0</v>
-      </c>
-      <c r="K19" s="46">
-        <v>977.93768299999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
-        <v>2036</v>
-      </c>
-      <c r="B20" s="46">
-        <v>218.55239900000001</v>
-      </c>
-      <c r="C20" s="46">
-        <v>344.63082900000001</v>
-      </c>
-      <c r="D20" s="46">
-        <v>1.7622119999999999</v>
-      </c>
-      <c r="E20" s="46">
-        <v>0.50331899999999996</v>
-      </c>
-      <c r="F20" s="46">
-        <v>411.125092</v>
-      </c>
-      <c r="G20" s="46">
-        <v>1.897756</v>
-      </c>
-      <c r="H20" s="46">
-        <v>2.0387580000000001</v>
-      </c>
-      <c r="I20" s="46">
-        <v>2.1719560000000002</v>
-      </c>
-      <c r="J20" s="46">
-        <v>0</v>
-      </c>
-      <c r="K20" s="46">
-        <v>982.68225099999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="46">
-        <v>2035</v>
-      </c>
-      <c r="B21" s="46">
-        <v>228.78547699999999</v>
-      </c>
-      <c r="C21" s="46">
-        <v>348.27847300000002</v>
-      </c>
-      <c r="D21" s="46">
-        <v>1.7158800000000001</v>
-      </c>
-      <c r="E21" s="46">
-        <v>0.50743000000000005</v>
-      </c>
-      <c r="F21" s="46">
-        <v>400.31573500000002</v>
-      </c>
-      <c r="G21" s="46">
-        <v>1.8478600000000001</v>
-      </c>
-      <c r="H21" s="46">
-        <v>1.985155</v>
-      </c>
-      <c r="I21" s="46">
-        <v>2.1148509999999998</v>
-      </c>
-      <c r="J21" s="46">
-        <v>0</v>
-      </c>
-      <c r="K21" s="46">
-        <v>985.55090299999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="46">
-        <v>2034</v>
-      </c>
-      <c r="B22" s="46">
-        <v>236.77565000000001</v>
-      </c>
-      <c r="C22" s="46">
-        <v>349.21078499999999</v>
-      </c>
-      <c r="D22" s="46">
-        <v>1.657538</v>
-      </c>
-      <c r="E22" s="46">
-        <v>0.50814300000000001</v>
-      </c>
-      <c r="F22" s="46">
-        <v>386.70461999999998</v>
-      </c>
-      <c r="G22" s="46">
-        <v>1.785031</v>
-      </c>
-      <c r="H22" s="46">
-        <v>1.9176569999999999</v>
-      </c>
-      <c r="I22" s="46">
-        <v>2.0429439999999999</v>
-      </c>
-      <c r="J22" s="46">
-        <v>0</v>
-      </c>
-      <c r="K22" s="46">
-        <v>980.60241699999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
-        <v>2033</v>
-      </c>
-      <c r="B23" s="46">
-        <v>244.811722</v>
-      </c>
-      <c r="C23" s="46">
-        <v>351.04898100000003</v>
-      </c>
-      <c r="D23" s="46">
-        <v>1.604949</v>
-      </c>
-      <c r="E23" s="46">
-        <v>0.51067099999999999</v>
-      </c>
-      <c r="F23" s="46">
-        <v>374.43545499999999</v>
-      </c>
-      <c r="G23" s="46">
-        <v>1.728396</v>
-      </c>
-      <c r="H23" s="46">
-        <v>1.8568150000000001</v>
-      </c>
-      <c r="I23" s="46">
-        <v>1.9781260000000001</v>
-      </c>
-      <c r="J23" s="46">
-        <v>0</v>
-      </c>
-      <c r="K23" s="46">
-        <v>977.975098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="46">
-        <v>2032</v>
-      </c>
-      <c r="B24" s="46">
-        <v>250.27235400000001</v>
-      </c>
-      <c r="C24" s="46">
-        <v>355.40701300000001</v>
-      </c>
-      <c r="D24" s="46">
-        <v>1.5548869999999999</v>
-      </c>
-      <c r="E24" s="46">
-        <v>0.51392700000000002</v>
-      </c>
-      <c r="F24" s="46">
-        <v>362.756012</v>
-      </c>
-      <c r="G24" s="46">
-        <v>1.6744840000000001</v>
-      </c>
-      <c r="H24" s="46">
-        <v>1.798897</v>
-      </c>
-      <c r="I24" s="46">
-        <v>1.9164239999999999</v>
-      </c>
-      <c r="J24" s="46">
-        <v>0</v>
-      </c>
-      <c r="K24" s="46">
-        <v>975.89404300000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="46">
-        <v>2031</v>
-      </c>
-      <c r="B25" s="46">
-        <v>256.645355</v>
-      </c>
-      <c r="C25" s="46">
-        <v>357.63510100000002</v>
-      </c>
-      <c r="D25" s="46">
-        <v>1.5043040000000001</v>
-      </c>
-      <c r="E25" s="46">
-        <v>0.51693299999999998</v>
-      </c>
-      <c r="F25" s="46">
-        <v>350.95504799999998</v>
-      </c>
-      <c r="G25" s="46">
-        <v>1.6200110000000001</v>
-      </c>
-      <c r="H25" s="46">
-        <v>1.7403770000000001</v>
-      </c>
-      <c r="I25" s="46">
-        <v>1.8540810000000001</v>
-      </c>
-      <c r="J25" s="46">
-        <v>0</v>
-      </c>
-      <c r="K25" s="46">
-        <v>972.47125200000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="46">
-        <v>2030</v>
-      </c>
-      <c r="B26" s="46">
-        <v>262.66973899999999</v>
-      </c>
-      <c r="C26" s="46">
-        <v>360.65728799999999</v>
-      </c>
-      <c r="D26" s="46">
-        <v>1.4582569999999999</v>
-      </c>
-      <c r="E26" s="46">
-        <v>0.52147699999999997</v>
-      </c>
-      <c r="F26" s="46">
-        <v>340.62298600000003</v>
-      </c>
-      <c r="G26" s="46">
-        <v>1.570422</v>
-      </c>
-      <c r="H26" s="46">
-        <v>1.687103</v>
-      </c>
-      <c r="I26" s="46">
-        <v>1.797326</v>
-      </c>
-      <c r="J26" s="46">
-        <v>0</v>
-      </c>
-      <c r="K26" s="46">
-        <v>970.98468000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="46">
-        <v>2029</v>
-      </c>
-      <c r="B27" s="46">
-        <v>270.68841600000002</v>
-      </c>
-      <c r="C27" s="46">
-        <v>369.00195300000001</v>
-      </c>
-      <c r="D27" s="46">
-        <v>1.430736</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0.53297399999999995</v>
-      </c>
-      <c r="F27" s="46">
-        <v>334.625854</v>
-      </c>
-      <c r="G27" s="46">
-        <v>1.5407839999999999</v>
-      </c>
-      <c r="H27" s="46">
-        <v>1.6552629999999999</v>
-      </c>
-      <c r="I27" s="46">
-        <v>1.763406</v>
-      </c>
-      <c r="J27" s="46">
-        <v>0</v>
-      </c>
-      <c r="K27" s="46">
-        <v>981.23956299999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="46">
-        <v>2028</v>
-      </c>
-      <c r="B28" s="46">
-        <v>271.92001299999998</v>
-      </c>
-      <c r="C28" s="46">
-        <v>367.16564899999997</v>
-      </c>
-      <c r="D28" s="46">
-        <v>1.367756</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.53148200000000001</v>
-      </c>
-      <c r="F28" s="46">
-        <v>320.46148699999998</v>
-      </c>
-      <c r="G28" s="46">
-        <v>1.47296</v>
-      </c>
-      <c r="H28" s="46">
-        <v>1.5824</v>
-      </c>
-      <c r="I28" s="46">
-        <v>1.685783</v>
-      </c>
-      <c r="J28" s="46">
-        <v>0</v>
-      </c>
-      <c r="K28" s="46">
-        <v>966.18756099999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="46">
-        <v>2027</v>
-      </c>
-      <c r="B29" s="46">
-        <v>269.96063199999998</v>
-      </c>
-      <c r="C29" s="46">
-        <v>368.80770899999999</v>
-      </c>
-      <c r="D29" s="46">
-        <v>1.310783</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0.53358700000000003</v>
-      </c>
-      <c r="F29" s="46">
-        <v>308.562927</v>
-      </c>
-      <c r="G29" s="46">
-        <v>1.4116040000000001</v>
-      </c>
-      <c r="H29" s="46">
-        <v>1.5164850000000001</v>
-      </c>
-      <c r="I29" s="46">
-        <v>1.6155619999999999</v>
-      </c>
-      <c r="J29" s="46">
-        <v>0</v>
-      </c>
-      <c r="K29" s="46">
-        <v>953.71936000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="46">
-        <v>2026</v>
-      </c>
-      <c r="B30" s="46">
-        <v>273.16470299999997</v>
-      </c>
-      <c r="C30" s="46">
-        <v>377.43167099999999</v>
-      </c>
-      <c r="D30" s="46">
-        <v>1.2895080000000001</v>
-      </c>
-      <c r="E30" s="46">
-        <v>0.55846799999999996</v>
-      </c>
-      <c r="F30" s="46">
-        <v>309.47274800000002</v>
-      </c>
-      <c r="G30" s="46">
-        <v>1.388693</v>
-      </c>
-      <c r="H30" s="46">
-        <v>1.4918720000000001</v>
-      </c>
-      <c r="I30" s="46">
-        <v>1.58934</v>
-      </c>
-      <c r="J30" s="46">
-        <v>0</v>
-      </c>
-      <c r="K30" s="46">
-        <v>966.38690199999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="46">
-        <v>2025</v>
-      </c>
-      <c r="B31" s="46">
-        <v>268.64215100000001</v>
-      </c>
-      <c r="C31" s="46">
-        <v>378.94164999999998</v>
-      </c>
-      <c r="D31" s="46">
-        <v>1.2498549999999999</v>
-      </c>
-      <c r="E31" s="46">
-        <v>0.58546100000000001</v>
-      </c>
-      <c r="F31" s="46">
-        <v>311.01882899999998</v>
-      </c>
-      <c r="G31" s="46">
-        <v>1.34599</v>
-      </c>
-      <c r="H31" s="46">
-        <v>1.4459960000000001</v>
-      </c>
-      <c r="I31" s="46">
-        <v>1.5404679999999999</v>
-      </c>
-      <c r="J31" s="46">
-        <v>0</v>
-      </c>
-      <c r="K31" s="46">
-        <v>964.77038600000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="46">
-        <v>2024</v>
-      </c>
-      <c r="B32" s="46">
-        <v>256.30319200000002</v>
-      </c>
-      <c r="C32" s="46">
-        <v>370.47814899999997</v>
-      </c>
-      <c r="D32" s="46">
-        <v>1.18303</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0.60292599999999996</v>
-      </c>
-      <c r="F32" s="46">
-        <v>307.91522200000003</v>
-      </c>
-      <c r="G32" s="46">
-        <v>1.274025</v>
-      </c>
-      <c r="H32" s="46">
-        <v>1.368684</v>
-      </c>
-      <c r="I32" s="46">
-        <v>1.458105</v>
-      </c>
-      <c r="J32" s="46">
-        <v>0</v>
-      </c>
-      <c r="K32" s="46">
-        <v>940.58337400000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="46">
-        <v>2023</v>
-      </c>
-      <c r="B33" s="46">
-        <v>241.69340500000001</v>
-      </c>
-      <c r="C33" s="46">
-        <v>356.18954500000001</v>
-      </c>
-      <c r="D33" s="46">
-        <v>1.107456</v>
-      </c>
-      <c r="E33" s="46">
-        <v>0.61705100000000002</v>
-      </c>
-      <c r="F33" s="46">
-        <v>303.46545400000002</v>
-      </c>
-      <c r="G33" s="46">
-        <v>1.1926380000000001</v>
-      </c>
-      <c r="H33" s="46">
-        <v>1.28125</v>
-      </c>
-      <c r="I33" s="46">
-        <v>1.3649579999999999</v>
-      </c>
-      <c r="J33" s="46">
-        <v>0</v>
-      </c>
-      <c r="K33" s="46">
-        <v>906.911743</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="46">
-        <v>2022</v>
-      </c>
-      <c r="B34" s="46">
-        <v>229.101303</v>
-      </c>
-      <c r="C34" s="46">
-        <v>341.420502</v>
-      </c>
-      <c r="D34" s="46">
-        <v>1.0420659999999999</v>
-      </c>
-      <c r="E34" s="46">
-        <v>0.63706600000000002</v>
-      </c>
-      <c r="F34" s="46">
-        <v>303.149292</v>
-      </c>
-      <c r="G34" s="46">
-        <v>1.124236</v>
-      </c>
-      <c r="H34" s="46">
-        <v>1.2055990000000001</v>
-      </c>
-      <c r="I34" s="46">
-        <v>1.2843640000000001</v>
-      </c>
-      <c r="J34" s="46">
-        <v>0</v>
-      </c>
-      <c r="K34" s="46">
-        <v>878.96453899999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="46">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="46">
-        <v>209.25556900000001</v>
-      </c>
-      <c r="C35" s="46">
-        <v>316.24591099999998</v>
-      </c>
-      <c r="D35" s="46">
-        <v>0.94705799999999996</v>
-      </c>
-      <c r="E35" s="46">
-        <v>0.63694700000000004</v>
-      </c>
-      <c r="F35" s="46">
-        <v>292.40875199999999</v>
-      </c>
-      <c r="G35" s="46">
-        <v>1.0340469999999999</v>
-      </c>
-      <c r="H35" s="46">
-        <v>1.0956809999999999</v>
-      </c>
-      <c r="I35" s="46">
-        <v>1.167265</v>
-      </c>
-      <c r="J35" s="46">
-        <v>0</v>
-      </c>
-      <c r="K35" s="46">
-        <v>822.79125999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="46">
-        <v>2020</v>
-      </c>
-      <c r="B36" s="46">
-        <v>180.749008</v>
-      </c>
-      <c r="C36" s="46">
-        <v>276.82663000000002</v>
-      </c>
-      <c r="D36" s="46">
-        <v>0.81437199999999998</v>
-      </c>
-      <c r="E36" s="46">
-        <v>0.60410600000000003</v>
-      </c>
-      <c r="F36" s="46">
-        <v>266.90481599999998</v>
-      </c>
-      <c r="G36" s="46">
-        <v>0.89579500000000001</v>
-      </c>
-      <c r="H36" s="46">
-        <v>0.94217200000000001</v>
-      </c>
-      <c r="I36" s="46">
-        <v>1.003727</v>
-      </c>
-      <c r="J36" s="46">
-        <v>0</v>
-      </c>
-      <c r="K36" s="46">
-        <v>728.74066200000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="46">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="46">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="46">
-        <f>K36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
-        <v>0.67491530146662049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="46">
-        <f>'Table 49'!K36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
-        <v>0.19259262430771532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="46">
-        <f>'Table 49'!U36/SUM(K36,'Table 49'!K36,'Table 49'!U36)</f>
-        <v>0.13249207422566411</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86745EA9-C7F5-4EBF-872B-B20E5E7C8376}">
-  <dimension ref="A1:U37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="8.81640625" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="47" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
-        <v>2050</v>
-      </c>
-      <c r="B6" s="46">
-        <v>180.58569299999999</v>
-      </c>
-      <c r="C6" s="46">
-        <v>81.700012000000001</v>
-      </c>
-      <c r="D6" s="46">
-        <v>0.913358</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0.21962999999999999</v>
-      </c>
-      <c r="F6" s="46">
-        <v>94.388938999999993</v>
-      </c>
-      <c r="G6" s="46">
-        <v>1.0498909999999999</v>
-      </c>
-      <c r="H6" s="46">
-        <v>1.132452</v>
-      </c>
-      <c r="I6" s="46">
-        <v>1.1494420000000001</v>
-      </c>
-      <c r="J6" s="46">
-        <v>1.1900000000000001E-4</v>
-      </c>
-      <c r="K6" s="46">
-        <v>361.13952599999999</v>
-      </c>
-      <c r="L6" s="46">
-        <v>213.534637</v>
-      </c>
-      <c r="M6" s="46">
-        <v>101.15113100000001</v>
-      </c>
-      <c r="N6" s="46">
-        <v>0.78089799999999998</v>
-      </c>
-      <c r="O6" s="46">
-        <v>1.0167109999999999</v>
-      </c>
-      <c r="P6" s="46">
-        <v>19.675329000000001</v>
-      </c>
-      <c r="Q6" s="46">
-        <v>0.99669399999999997</v>
-      </c>
-      <c r="R6" s="46">
-        <v>1.0772170000000001</v>
-      </c>
-      <c r="S6" s="46">
-        <v>1.011649</v>
-      </c>
-      <c r="T6" s="46">
-        <v>1.6549020000000001</v>
-      </c>
-      <c r="U6" s="46">
-        <v>340.89920000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
-        <v>2049</v>
-      </c>
-      <c r="B7" s="46">
-        <v>182.92906199999999</v>
-      </c>
-      <c r="C7" s="46">
-        <v>81.383301000000003</v>
-      </c>
-      <c r="D7" s="46">
-        <v>0.88599499999999998</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0.21348200000000001</v>
-      </c>
-      <c r="F7" s="46">
-        <v>92.185958999999997</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1.018437</v>
-      </c>
-      <c r="H7" s="46">
-        <v>1.098525</v>
-      </c>
-      <c r="I7" s="46">
-        <v>1.1150070000000001</v>
-      </c>
-      <c r="J7" s="46">
-        <v>1.22E-4</v>
-      </c>
-      <c r="K7" s="46">
-        <v>360.82986499999998</v>
-      </c>
-      <c r="L7" s="46">
-        <v>210.11914100000001</v>
-      </c>
-      <c r="M7" s="46">
-        <v>100.072861</v>
-      </c>
-      <c r="N7" s="46">
-        <v>0.745556</v>
-      </c>
-      <c r="O7" s="46">
-        <v>0.98614900000000005</v>
-      </c>
-      <c r="P7" s="46">
-        <v>18.784842000000001</v>
-      </c>
-      <c r="Q7" s="46">
-        <v>0.95158500000000001</v>
-      </c>
-      <c r="R7" s="46">
-        <v>1.0284629999999999</v>
-      </c>
-      <c r="S7" s="46">
-        <v>0.96586300000000003</v>
-      </c>
-      <c r="T7" s="46">
-        <v>1.580003</v>
-      </c>
-      <c r="U7" s="46">
-        <v>335.23449699999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
-        <v>2048</v>
-      </c>
-      <c r="B8" s="46">
-        <v>185.01487700000001</v>
-      </c>
-      <c r="C8" s="46">
-        <v>81.240600999999998</v>
-      </c>
-      <c r="D8" s="46">
-        <v>0.85739699999999996</v>
-      </c>
-      <c r="E8" s="46">
-        <v>0.20738999999999999</v>
-      </c>
-      <c r="F8" s="46">
-        <v>89.210350000000005</v>
-      </c>
-      <c r="G8" s="46">
-        <v>0.985564</v>
-      </c>
-      <c r="H8" s="46">
-        <v>1.0630660000000001</v>
-      </c>
-      <c r="I8" s="46">
-        <v>1.079016</v>
-      </c>
-      <c r="J8" s="46">
-        <v>1.26E-4</v>
-      </c>
-      <c r="K8" s="46">
-        <v>359.65835600000003</v>
-      </c>
-      <c r="L8" s="46">
-        <v>205.17477400000001</v>
-      </c>
-      <c r="M8" s="46">
-        <v>98.234961999999996</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0.70638999999999996</v>
-      </c>
-      <c r="O8" s="46">
-        <v>0.95025000000000004</v>
-      </c>
-      <c r="P8" s="46">
-        <v>17.798033</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>0.90159599999999995</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0.97443500000000005</v>
-      </c>
-      <c r="S8" s="46">
-        <v>0.91512400000000005</v>
-      </c>
-      <c r="T8" s="46">
-        <v>1.4970019999999999</v>
-      </c>
-      <c r="U8" s="46">
-        <v>327.15252700000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="46">
-        <v>2047</v>
-      </c>
-      <c r="B9" s="46">
-        <v>184.698151</v>
-      </c>
-      <c r="C9" s="46">
-        <v>79.682343000000003</v>
-      </c>
-      <c r="D9" s="46">
-        <v>0.81970200000000004</v>
-      </c>
-      <c r="E9" s="46">
-        <v>0.19945099999999999</v>
-      </c>
-      <c r="F9" s="46">
-        <v>85.771857999999995</v>
-      </c>
-      <c r="G9" s="46">
-        <v>0.94223500000000004</v>
-      </c>
-      <c r="H9" s="46">
-        <v>1.01633</v>
-      </c>
-      <c r="I9" s="46">
-        <v>1.0315780000000001</v>
-      </c>
-      <c r="J9" s="46">
-        <v>1.2799999999999999E-4</v>
-      </c>
-      <c r="K9" s="46">
-        <v>354.16177399999998</v>
-      </c>
-      <c r="L9" s="46">
-        <v>202.73142999999999</v>
-      </c>
-      <c r="M9" s="46">
-        <v>97.567085000000006</v>
-      </c>
-      <c r="N9" s="46">
-        <v>0.67727599999999999</v>
-      </c>
-      <c r="O9" s="46">
-        <v>0.92753300000000005</v>
-      </c>
-      <c r="P9" s="46">
-        <v>17.064501</v>
-      </c>
-      <c r="Q9" s="46">
-        <v>0.86443700000000001</v>
-      </c>
-      <c r="R9" s="46">
-        <v>0.93427499999999997</v>
-      </c>
-      <c r="S9" s="46">
-        <v>0.87740799999999997</v>
-      </c>
-      <c r="T9" s="46">
-        <v>1.4353039999999999</v>
-      </c>
-      <c r="U9" s="46">
-        <v>323.07925399999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="46">
-        <v>2046</v>
-      </c>
-      <c r="B10" s="46">
-        <v>186.52847299999999</v>
-      </c>
-      <c r="C10" s="46">
-        <v>79.472167999999996</v>
-      </c>
-      <c r="D10" s="46">
-        <v>0.79286599999999996</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0.19438900000000001</v>
-      </c>
-      <c r="F10" s="46">
-        <v>82.963829000000004</v>
-      </c>
-      <c r="G10" s="46">
-        <v>0.91138799999999998</v>
-      </c>
-      <c r="H10" s="46">
-        <v>0.98305699999999996</v>
-      </c>
-      <c r="I10" s="46">
-        <v>0.99780599999999997</v>
-      </c>
-      <c r="J10" s="46">
-        <v>1.3100000000000001E-4</v>
-      </c>
-      <c r="K10" s="46">
-        <v>352.84414700000002</v>
-      </c>
-      <c r="L10" s="46">
-        <v>202.54257200000001</v>
-      </c>
-      <c r="M10" s="46">
-        <v>97.969802999999999</v>
-      </c>
-      <c r="N10" s="46">
-        <v>0.65660499999999999</v>
-      </c>
-      <c r="O10" s="46">
-        <v>0.91631799999999997</v>
-      </c>
-      <c r="P10" s="46">
-        <v>16.543661</v>
-      </c>
-      <c r="Q10" s="46">
-        <v>0.83805300000000005</v>
-      </c>
-      <c r="R10" s="46">
-        <v>0.90575899999999998</v>
-      </c>
-      <c r="S10" s="46">
-        <v>0.85062800000000005</v>
-      </c>
-      <c r="T10" s="46">
-        <v>1.3914960000000001</v>
-      </c>
-      <c r="U10" s="46">
-        <v>322.614868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="46">
-        <v>2045</v>
-      </c>
-      <c r="B11" s="46">
-        <v>187.95594800000001</v>
-      </c>
-      <c r="C11" s="46">
-        <v>78.944419999999994</v>
-      </c>
-      <c r="D11" s="46">
-        <v>0.76510900000000004</v>
-      </c>
-      <c r="E11" s="46">
-        <v>0.19009400000000001</v>
-      </c>
-      <c r="F11" s="46">
-        <v>80.059334000000007</v>
-      </c>
-      <c r="G11" s="46">
-        <v>0.87948000000000004</v>
-      </c>
-      <c r="H11" s="46">
-        <v>0.94864099999999996</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0.96287400000000001</v>
-      </c>
-      <c r="J11" s="46">
-        <v>1.34E-4</v>
-      </c>
-      <c r="K11" s="46">
-        <v>350.70605499999999</v>
-      </c>
-      <c r="L11" s="46">
-        <v>199.18071</v>
-      </c>
-      <c r="M11" s="46">
-        <v>96.820175000000006</v>
-      </c>
-      <c r="N11" s="46">
-        <v>0.62661</v>
-      </c>
-      <c r="O11" s="46">
-        <v>0.89408600000000005</v>
-      </c>
-      <c r="P11" s="46">
-        <v>15.787907000000001</v>
-      </c>
-      <c r="Q11" s="46">
-        <v>0.79976899999999995</v>
-      </c>
-      <c r="R11" s="46">
-        <v>0.86438199999999998</v>
-      </c>
-      <c r="S11" s="46">
-        <v>0.81176899999999996</v>
-      </c>
-      <c r="T11" s="46">
-        <v>1.3279289999999999</v>
-      </c>
-      <c r="U11" s="46">
-        <v>317.11334199999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="46">
-        <v>2044</v>
-      </c>
-      <c r="B12" s="46">
-        <v>187.20150799999999</v>
-      </c>
-      <c r="C12" s="46">
-        <v>77.526398</v>
-      </c>
-      <c r="D12" s="46">
-        <v>0.72930200000000001</v>
-      </c>
-      <c r="E12" s="46">
-        <v>0.18385199999999999</v>
-      </c>
-      <c r="F12" s="46">
-        <v>76.020347999999998</v>
-      </c>
-      <c r="G12" s="46">
-        <v>0.83832099999999998</v>
-      </c>
-      <c r="H12" s="46">
-        <v>0.90424499999999997</v>
-      </c>
-      <c r="I12" s="46">
-        <v>0.91781199999999996</v>
-      </c>
-      <c r="J12" s="46">
-        <v>1.36E-4</v>
-      </c>
-      <c r="K12" s="46">
-        <v>344.32199100000003</v>
-      </c>
-      <c r="L12" s="46">
-        <v>195.31875600000001</v>
-      </c>
-      <c r="M12" s="46">
-        <v>95.405356999999995</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0.59631400000000001</v>
-      </c>
-      <c r="O12" s="46">
-        <v>0.86995900000000004</v>
-      </c>
-      <c r="P12" s="46">
-        <v>15.02459</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>0.76110100000000003</v>
-      </c>
-      <c r="R12" s="46">
-        <v>0.82259000000000004</v>
-      </c>
-      <c r="S12" s="46">
-        <v>0.77252200000000004</v>
-      </c>
-      <c r="T12" s="46">
-        <v>1.2637259999999999</v>
-      </c>
-      <c r="U12" s="46">
-        <v>310.8349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
-        <v>2043</v>
-      </c>
-      <c r="B13" s="46">
-        <v>188.110794</v>
-      </c>
-      <c r="C13" s="46">
-        <v>76.724884000000003</v>
-      </c>
-      <c r="D13" s="46">
-        <v>0.702206</v>
-      </c>
-      <c r="E13" s="46">
-        <v>0.17982400000000001</v>
-      </c>
-      <c r="F13" s="46">
-        <v>73.195992000000004</v>
-      </c>
-      <c r="G13" s="46">
-        <v>0.807176</v>
-      </c>
-      <c r="H13" s="46">
-        <v>0.87065000000000003</v>
-      </c>
-      <c r="I13" s="46">
-        <v>0.88371299999999997</v>
-      </c>
-      <c r="J13" s="46">
-        <v>1.3899999999999999E-4</v>
-      </c>
-      <c r="K13" s="46">
-        <v>341.47540300000003</v>
-      </c>
-      <c r="L13" s="46">
-        <v>192.53448499999999</v>
-      </c>
-      <c r="M13" s="46">
-        <v>94.461594000000005</v>
-      </c>
-      <c r="N13" s="46">
-        <v>0.57040999999999997</v>
-      </c>
-      <c r="O13" s="46">
-        <v>0.85108600000000001</v>
-      </c>
-      <c r="P13" s="46">
-        <v>14.371921</v>
-      </c>
-      <c r="Q13" s="46">
-        <v>0.72803899999999999</v>
-      </c>
-      <c r="R13" s="46">
-        <v>0.78685700000000003</v>
-      </c>
-      <c r="S13" s="46">
-        <v>0.73896300000000004</v>
-      </c>
-      <c r="T13" s="46">
-        <v>1.2088300000000001</v>
-      </c>
-      <c r="U13" s="46">
-        <v>306.25216699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="46">
-        <v>2042</v>
-      </c>
-      <c r="B14" s="46">
-        <v>189.15933200000001</v>
-      </c>
-      <c r="C14" s="46">
-        <v>75.941940000000002</v>
-      </c>
-      <c r="D14" s="46">
-        <v>0.67674199999999995</v>
-      </c>
-      <c r="E14" s="46">
-        <v>0.17641499999999999</v>
-      </c>
-      <c r="F14" s="46">
-        <v>70.541595000000001</v>
-      </c>
-      <c r="G14" s="46">
-        <v>0.77790400000000004</v>
-      </c>
-      <c r="H14" s="46">
-        <v>0.83907699999999996</v>
-      </c>
-      <c r="I14" s="46">
-        <v>0.85166600000000003</v>
-      </c>
-      <c r="J14" s="46">
-        <v>1.4200000000000001E-4</v>
-      </c>
-      <c r="K14" s="46">
-        <v>338.96481299999999</v>
-      </c>
-      <c r="L14" s="46">
-        <v>188.929565</v>
-      </c>
-      <c r="M14" s="46">
-        <v>93.060012999999998</v>
-      </c>
-      <c r="N14" s="46">
-        <v>0.54311200000000004</v>
-      </c>
-      <c r="O14" s="46">
-        <v>0.83000200000000002</v>
-      </c>
-      <c r="P14" s="46">
-        <v>13.684125999999999</v>
-      </c>
-      <c r="Q14" s="46">
-        <v>0.69319699999999995</v>
-      </c>
-      <c r="R14" s="46">
-        <v>0.74920100000000001</v>
-      </c>
-      <c r="S14" s="46">
-        <v>0.70359899999999997</v>
-      </c>
-      <c r="T14" s="46">
-        <v>1.150979</v>
-      </c>
-      <c r="U14" s="46">
-        <v>300.34381100000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
-        <v>2041</v>
-      </c>
-      <c r="B15" s="46">
-        <v>190.30789200000001</v>
-      </c>
-      <c r="C15" s="46">
-        <v>75.407905999999997</v>
-      </c>
-      <c r="D15" s="46">
-        <v>0.65046199999999998</v>
-      </c>
-      <c r="E15" s="46">
-        <v>0.17296700000000001</v>
-      </c>
-      <c r="F15" s="46">
-        <v>66.663818000000006</v>
-      </c>
-      <c r="G15" s="46">
-        <v>0.74769600000000003</v>
-      </c>
-      <c r="H15" s="46">
-        <v>0.80649300000000002</v>
-      </c>
-      <c r="I15" s="46">
-        <v>0.81859300000000002</v>
-      </c>
-      <c r="J15" s="46">
-        <v>1.45E-4</v>
-      </c>
-      <c r="K15" s="46">
-        <v>335.57598899999999</v>
-      </c>
-      <c r="L15" s="46">
-        <v>185.272369</v>
-      </c>
-      <c r="M15" s="46">
-        <v>91.616553999999994</v>
-      </c>
-      <c r="N15" s="46">
-        <v>0.51681500000000002</v>
-      </c>
-      <c r="O15" s="46">
-        <v>0.81084999999999996</v>
-      </c>
-      <c r="P15" s="46">
-        <v>13.021554999999999</v>
-      </c>
-      <c r="Q15" s="46">
-        <v>0.65963400000000005</v>
-      </c>
-      <c r="R15" s="46">
-        <v>0.71292500000000003</v>
-      </c>
-      <c r="S15" s="46">
-        <v>0.66953099999999999</v>
-      </c>
-      <c r="T15" s="46">
-        <v>1.0952500000000001</v>
-      </c>
-      <c r="U15" s="46">
-        <v>294.37548800000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="46">
-        <v>2040</v>
-      </c>
-      <c r="B16" s="46">
-        <v>191.45024100000001</v>
-      </c>
-      <c r="C16" s="46">
-        <v>74.481773000000004</v>
-      </c>
-      <c r="D16" s="46">
-        <v>0.62575700000000001</v>
-      </c>
-      <c r="E16" s="46">
-        <v>0.169873</v>
-      </c>
-      <c r="F16" s="46">
-        <v>63.504947999999999</v>
-      </c>
-      <c r="G16" s="46">
-        <v>0.71929799999999999</v>
-      </c>
-      <c r="H16" s="46">
-        <v>0.77586200000000005</v>
-      </c>
-      <c r="I16" s="46">
-        <v>0.78750200000000004</v>
-      </c>
-      <c r="J16" s="46">
-        <v>1.4799999999999999E-4</v>
-      </c>
-      <c r="K16" s="46">
-        <v>332.51541099999997</v>
-      </c>
-      <c r="L16" s="46">
-        <v>179.956909</v>
-      </c>
-      <c r="M16" s="46">
-        <v>89.336394999999996</v>
-      </c>
-      <c r="N16" s="46">
-        <v>0.48713899999999999</v>
-      </c>
-      <c r="O16" s="46">
-        <v>0.78487300000000004</v>
-      </c>
-      <c r="P16" s="46">
-        <v>12.273846000000001</v>
-      </c>
-      <c r="Q16" s="46">
-        <v>0.621757</v>
-      </c>
-      <c r="R16" s="46">
-        <v>0.67198800000000003</v>
-      </c>
-      <c r="S16" s="46">
-        <v>0.63108600000000004</v>
-      </c>
-      <c r="T16" s="46">
-        <v>1.032359</v>
-      </c>
-      <c r="U16" s="46">
-        <v>285.79632600000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="46">
-        <v>2039</v>
-      </c>
-      <c r="B17" s="46">
-        <v>192.19929500000001</v>
-      </c>
-      <c r="C17" s="46">
-        <v>73.386893999999998</v>
-      </c>
-      <c r="D17" s="46">
-        <v>0.60235700000000003</v>
-      </c>
-      <c r="E17" s="46">
-        <v>0.16753999999999999</v>
-      </c>
-      <c r="F17" s="46">
-        <v>61.130257</v>
-      </c>
-      <c r="G17" s="46">
-        <v>0.69240000000000002</v>
-      </c>
-      <c r="H17" s="46">
-        <v>0.74684899999999999</v>
-      </c>
-      <c r="I17" s="46">
-        <v>0.75805400000000001</v>
-      </c>
-      <c r="J17" s="46">
-        <v>1.5100000000000001E-4</v>
-      </c>
-      <c r="K17" s="46">
-        <v>329.68374599999999</v>
-      </c>
-      <c r="L17" s="46">
-        <v>172.862381</v>
-      </c>
-      <c r="M17" s="46">
-        <v>86.150604000000001</v>
-      </c>
-      <c r="N17" s="46">
-        <v>0.45412000000000002</v>
-      </c>
-      <c r="O17" s="46">
-        <v>0.75157499999999999</v>
-      </c>
-      <c r="P17" s="46">
-        <v>11.441903</v>
-      </c>
-      <c r="Q17" s="46">
-        <v>0.57961300000000004</v>
-      </c>
-      <c r="R17" s="46">
-        <v>0.62644</v>
-      </c>
-      <c r="S17" s="46">
-        <v>0.58831</v>
-      </c>
-      <c r="T17" s="46">
-        <v>0.96238400000000002</v>
-      </c>
-      <c r="U17" s="46">
-        <v>274.41735799999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="46">
-        <v>2038</v>
-      </c>
-      <c r="B18" s="46">
-        <v>192.27671799999999</v>
-      </c>
-      <c r="C18" s="46">
-        <v>72.067085000000006</v>
-      </c>
-      <c r="D18" s="46">
-        <v>0.57802399999999998</v>
-      </c>
-      <c r="E18" s="46">
-        <v>0.16528499999999999</v>
-      </c>
-      <c r="F18" s="46">
-        <v>58.660789000000001</v>
-      </c>
-      <c r="G18" s="46">
-        <v>0.66442999999999997</v>
-      </c>
-      <c r="H18" s="46">
-        <v>0.71667899999999995</v>
-      </c>
-      <c r="I18" s="46">
-        <v>0.72743199999999997</v>
-      </c>
-      <c r="J18" s="46">
-        <v>1.54E-4</v>
-      </c>
-      <c r="K18" s="46">
-        <v>325.856628</v>
-      </c>
-      <c r="L18" s="46">
-        <v>166.95872499999999</v>
-      </c>
-      <c r="M18" s="46">
-        <v>83.535544999999999</v>
-      </c>
-      <c r="N18" s="46">
-        <v>0.42568800000000001</v>
-      </c>
-      <c r="O18" s="46">
-        <v>0.723858</v>
-      </c>
-      <c r="P18" s="46">
-        <v>10.725541</v>
-      </c>
-      <c r="Q18" s="46">
-        <v>0.54332400000000003</v>
-      </c>
-      <c r="R18" s="46">
-        <v>0.58721900000000005</v>
-      </c>
-      <c r="S18" s="46">
-        <v>0.55147699999999999</v>
-      </c>
-      <c r="T18" s="46">
-        <v>0.90213100000000002</v>
-      </c>
-      <c r="U18" s="46">
-        <v>264.95352200000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
-        <v>2037</v>
-      </c>
-      <c r="B19" s="46">
-        <v>192.37344400000001</v>
-      </c>
-      <c r="C19" s="46">
-        <v>70.507216999999997</v>
-      </c>
-      <c r="D19" s="46">
-        <v>0.55433500000000002</v>
-      </c>
-      <c r="E19" s="46">
-        <v>0.16298799999999999</v>
-      </c>
-      <c r="F19" s="46">
-        <v>56.256672000000002</v>
-      </c>
-      <c r="G19" s="46">
-        <v>0.63719899999999996</v>
-      </c>
-      <c r="H19" s="46">
-        <v>0.687307</v>
-      </c>
-      <c r="I19" s="46">
-        <v>0.69761899999999999</v>
-      </c>
-      <c r="J19" s="46">
-        <v>1.5699999999999999E-4</v>
-      </c>
-      <c r="K19" s="46">
-        <v>321.876892</v>
-      </c>
-      <c r="L19" s="46">
-        <v>164.008972</v>
-      </c>
-      <c r="M19" s="46">
-        <v>82.382980000000003</v>
-      </c>
-      <c r="N19" s="46">
-        <v>0.40587000000000001</v>
-      </c>
-      <c r="O19" s="46">
-        <v>0.70925899999999997</v>
-      </c>
-      <c r="P19" s="46">
-        <v>10.226213</v>
-      </c>
-      <c r="Q19" s="46">
-        <v>0.51802999999999999</v>
-      </c>
-      <c r="R19" s="46">
-        <v>0.55988099999999996</v>
-      </c>
-      <c r="S19" s="46">
-        <v>0.52580300000000002</v>
-      </c>
-      <c r="T19" s="46">
-        <v>0.86013200000000001</v>
-      </c>
-      <c r="U19" s="46">
-        <v>260.19714399999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
-        <v>2036</v>
-      </c>
-      <c r="B20" s="46">
-        <v>193.81104999999999</v>
-      </c>
-      <c r="C20" s="46">
-        <v>69.528632999999999</v>
-      </c>
-      <c r="D20" s="46">
-        <v>0.53563700000000003</v>
-      </c>
-      <c r="E20" s="46">
-        <v>0.161963</v>
-      </c>
-      <c r="F20" s="46">
-        <v>54.359116</v>
-      </c>
-      <c r="G20" s="46">
-        <v>0.61570599999999998</v>
-      </c>
-      <c r="H20" s="46">
-        <v>0.66412400000000005</v>
-      </c>
-      <c r="I20" s="46">
-        <v>0.67408800000000002</v>
-      </c>
-      <c r="J20" s="46">
-        <v>1.6100000000000001E-4</v>
-      </c>
-      <c r="K20" s="46">
-        <v>320.35043300000001</v>
-      </c>
-      <c r="L20" s="46">
-        <v>161.44515999999999</v>
-      </c>
-      <c r="M20" s="46">
-        <v>81.265197999999998</v>
-      </c>
-      <c r="N20" s="46">
-        <v>0.38755899999999999</v>
-      </c>
-      <c r="O20" s="46">
-        <v>0.69614200000000004</v>
-      </c>
-      <c r="P20" s="46">
-        <v>9.7648379999999992</v>
-      </c>
-      <c r="Q20" s="46">
-        <v>0.49465799999999999</v>
-      </c>
-      <c r="R20" s="46">
-        <v>0.53462100000000001</v>
-      </c>
-      <c r="S20" s="46">
-        <v>0.50207999999999997</v>
-      </c>
-      <c r="T20" s="46">
-        <v>0.821326</v>
-      </c>
-      <c r="U20" s="46">
-        <v>255.91156000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="46">
-        <v>2035</v>
-      </c>
-      <c r="B21" s="46">
-        <v>194.59094200000001</v>
-      </c>
-      <c r="C21" s="46">
-        <v>68.357330000000005</v>
-      </c>
-      <c r="D21" s="46">
-        <v>0.51601799999999998</v>
-      </c>
-      <c r="E21" s="46">
-        <v>0.16048499999999999</v>
-      </c>
-      <c r="F21" s="46">
-        <v>52.368079999999999</v>
-      </c>
-      <c r="G21" s="46">
-        <v>0.59315399999999996</v>
-      </c>
-      <c r="H21" s="46">
-        <v>0.63979900000000001</v>
-      </c>
-      <c r="I21" s="46">
-        <v>0.64939800000000003</v>
-      </c>
-      <c r="J21" s="46">
-        <v>1.65E-4</v>
-      </c>
-      <c r="K21" s="46">
-        <v>317.875427</v>
-      </c>
-      <c r="L21" s="46">
-        <v>156.659775</v>
-      </c>
-      <c r="M21" s="46">
-        <v>78.970878999999996</v>
-      </c>
-      <c r="N21" s="46">
-        <v>0.36474600000000001</v>
-      </c>
-      <c r="O21" s="46">
-        <v>0.67355500000000001</v>
-      </c>
-      <c r="P21" s="46">
-        <v>9.1900469999999999</v>
-      </c>
-      <c r="Q21" s="46">
-        <v>0.46554099999999998</v>
-      </c>
-      <c r="R21" s="46">
-        <v>0.50315200000000004</v>
-      </c>
-      <c r="S21" s="46">
-        <v>0.472526</v>
-      </c>
-      <c r="T21" s="46">
-        <v>0.77298</v>
-      </c>
-      <c r="U21" s="46">
-        <v>248.073227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="46">
-        <v>2034</v>
-      </c>
-      <c r="B22" s="46">
-        <v>193.70794699999999</v>
-      </c>
-      <c r="C22" s="46">
-        <v>66.619422999999998</v>
-      </c>
-      <c r="D22" s="46">
-        <v>0.49300300000000002</v>
-      </c>
-      <c r="E22" s="46">
-        <v>0.157724</v>
-      </c>
-      <c r="F22" s="46">
-        <v>50.032466999999997</v>
-      </c>
-      <c r="G22" s="46">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="H22" s="46">
-        <v>0.61126400000000003</v>
-      </c>
-      <c r="I22" s="46">
-        <v>0.62043499999999996</v>
-      </c>
-      <c r="J22" s="46">
-        <v>1.6699999999999999E-4</v>
-      </c>
-      <c r="K22" s="46">
-        <v>312.80914300000001</v>
-      </c>
-      <c r="L22" s="46">
-        <v>151.96386699999999</v>
-      </c>
-      <c r="M22" s="46">
-        <v>76.598495</v>
-      </c>
-      <c r="N22" s="46">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="O22" s="46">
-        <v>0.65218399999999999</v>
-      </c>
-      <c r="P22" s="46">
-        <v>8.6421480000000006</v>
-      </c>
-      <c r="Q22" s="46">
-        <v>0.43778600000000001</v>
-      </c>
-      <c r="R22" s="46">
-        <v>0.47315400000000002</v>
-      </c>
-      <c r="S22" s="46">
-        <v>0.444355</v>
-      </c>
-      <c r="T22" s="46">
-        <v>0.72689499999999996</v>
-      </c>
-      <c r="U22" s="46">
-        <v>240.281891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
-        <v>2033</v>
-      </c>
-      <c r="B23" s="46">
-        <v>193.40211500000001</v>
-      </c>
-      <c r="C23" s="46">
-        <v>65.216812000000004</v>
-      </c>
-      <c r="D23" s="46">
-        <v>0.47218100000000002</v>
-      </c>
-      <c r="E23" s="46">
-        <v>0.15541199999999999</v>
-      </c>
-      <c r="F23" s="46">
-        <v>47.615958999999997</v>
-      </c>
-      <c r="G23" s="46">
-        <v>0.54276400000000002</v>
-      </c>
-      <c r="H23" s="46">
-        <v>0.58544600000000002</v>
-      </c>
-      <c r="I23" s="46">
-        <v>0.59423000000000004</v>
-      </c>
-      <c r="J23" s="46">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="K23" s="46">
-        <v>308.58505200000002</v>
-      </c>
-      <c r="L23" s="46">
-        <v>148.244675</v>
-      </c>
-      <c r="M23" s="46">
-        <v>74.734939999999995</v>
-      </c>
-      <c r="N23" s="46">
-        <v>0.32441700000000001</v>
-      </c>
-      <c r="O23" s="46">
-        <v>0.63479699999999994</v>
-      </c>
-      <c r="P23" s="46">
-        <v>8.1739460000000008</v>
-      </c>
-      <c r="Q23" s="46">
-        <v>0.41406799999999999</v>
-      </c>
-      <c r="R23" s="46">
-        <v>0.44751999999999997</v>
-      </c>
-      <c r="S23" s="46">
-        <v>0.42028100000000002</v>
-      </c>
-      <c r="T23" s="46">
-        <v>0.68751499999999999</v>
-      </c>
-      <c r="U23" s="46">
-        <v>234.08216899999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="46">
-        <v>2032</v>
-      </c>
-      <c r="B24" s="46">
-        <v>193.21283</v>
-      </c>
-      <c r="C24" s="46">
-        <v>63.795490000000001</v>
-      </c>
-      <c r="D24" s="46">
-        <v>0.45240000000000002</v>
-      </c>
-      <c r="E24" s="46">
-        <v>0.15320500000000001</v>
-      </c>
-      <c r="F24" s="46">
-        <v>45.263236999999997</v>
-      </c>
-      <c r="G24" s="46">
-        <v>0.52002700000000002</v>
-      </c>
-      <c r="H24" s="46">
-        <v>0.560921</v>
-      </c>
-      <c r="I24" s="46">
-        <v>0.56933699999999998</v>
-      </c>
-      <c r="J24" s="46">
-        <v>1.73E-4</v>
-      </c>
-      <c r="K24" s="46">
-        <v>304.52761800000002</v>
-      </c>
-      <c r="L24" s="46">
-        <v>144.37342799999999</v>
-      </c>
-      <c r="M24" s="46">
-        <v>72.775604000000001</v>
-      </c>
-      <c r="N24" s="46">
-        <v>0.30631199999999997</v>
-      </c>
-      <c r="O24" s="46">
-        <v>0.61636500000000005</v>
-      </c>
-      <c r="P24" s="46">
-        <v>7.7177720000000001</v>
-      </c>
-      <c r="Q24" s="46">
-        <v>0.39095999999999997</v>
-      </c>
-      <c r="R24" s="46">
-        <v>0.422545</v>
-      </c>
-      <c r="S24" s="46">
-        <v>0.39682600000000001</v>
-      </c>
-      <c r="T24" s="46">
-        <v>0.649146</v>
-      </c>
-      <c r="U24" s="46">
-        <v>227.648956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="46">
-        <v>2031</v>
-      </c>
-      <c r="B25" s="46">
-        <v>192.50157200000001</v>
-      </c>
-      <c r="C25" s="46">
-        <v>62.242939</v>
-      </c>
-      <c r="D25" s="46">
-        <v>0.43269800000000003</v>
-      </c>
-      <c r="E25" s="46">
-        <v>0.150783</v>
-      </c>
-      <c r="F25" s="46">
-        <v>43.097050000000003</v>
-      </c>
-      <c r="G25" s="46">
-        <v>0.49737999999999999</v>
-      </c>
-      <c r="H25" s="46">
-        <v>0.536493</v>
-      </c>
-      <c r="I25" s="46">
-        <v>0.54454199999999997</v>
-      </c>
-      <c r="J25" s="46">
-        <v>1.74E-4</v>
-      </c>
-      <c r="K25" s="46">
-        <v>300.003601</v>
-      </c>
-      <c r="L25" s="46">
-        <v>140.22210699999999</v>
-      </c>
-      <c r="M25" s="46">
-        <v>70.691063</v>
-      </c>
-      <c r="N25" s="46">
-        <v>0.28846699999999997</v>
-      </c>
-      <c r="O25" s="46">
-        <v>0.59699899999999995</v>
-      </c>
-      <c r="P25" s="46">
-        <v>7.268141</v>
-      </c>
-      <c r="Q25" s="46">
-        <v>0.36818299999999998</v>
-      </c>
-      <c r="R25" s="46">
-        <v>0.397928</v>
-      </c>
-      <c r="S25" s="46">
-        <v>0.37370700000000001</v>
-      </c>
-      <c r="T25" s="46">
-        <v>0.61132699999999995</v>
-      </c>
-      <c r="U25" s="46">
-        <v>220.81791699999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="46">
-        <v>2030</v>
-      </c>
-      <c r="B26" s="46">
-        <v>192.29011499999999</v>
-      </c>
-      <c r="C26" s="46">
-        <v>60.703434000000001</v>
-      </c>
-      <c r="D26" s="46">
-        <v>0.415188</v>
-      </c>
-      <c r="E26" s="46">
-        <v>0.14888999999999999</v>
-      </c>
-      <c r="F26" s="46">
-        <v>41.426582000000003</v>
-      </c>
-      <c r="G26" s="46">
-        <v>0.47725200000000001</v>
-      </c>
-      <c r="H26" s="46">
-        <v>0.51478199999999996</v>
-      </c>
-      <c r="I26" s="46">
-        <v>0.52250600000000003</v>
-      </c>
-      <c r="J26" s="46">
-        <v>1.75E-4</v>
-      </c>
-      <c r="K26" s="46">
-        <v>296.49893200000002</v>
-      </c>
-      <c r="L26" s="46">
-        <v>138.25938400000001</v>
-      </c>
-      <c r="M26" s="46">
-        <v>69.727844000000005</v>
-      </c>
-      <c r="N26" s="46">
-        <v>0.27582400000000001</v>
-      </c>
-      <c r="O26" s="46">
-        <v>0.58718000000000004</v>
-      </c>
-      <c r="P26" s="46">
-        <v>6.9495969999999998</v>
-      </c>
-      <c r="Q26" s="46">
-        <v>0.35204600000000003</v>
-      </c>
-      <c r="R26" s="46">
-        <v>0.38048799999999999</v>
-      </c>
-      <c r="S26" s="46">
-        <v>0.35732799999999998</v>
-      </c>
-      <c r="T26" s="46">
-        <v>0.584534</v>
-      </c>
-      <c r="U26" s="46">
-        <v>217.47422800000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="46">
-        <v>2029</v>
-      </c>
-      <c r="B27" s="46">
-        <v>193.46637000000001</v>
-      </c>
-      <c r="C27" s="46">
-        <v>59.902965999999999</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.40217999999999998</v>
-      </c>
-      <c r="E27" s="46">
-        <v>0.14843200000000001</v>
-      </c>
-      <c r="F27" s="46">
-        <v>40.438293000000002</v>
-      </c>
-      <c r="G27" s="46">
-        <v>0.46229900000000002</v>
-      </c>
-      <c r="H27" s="46">
-        <v>0.49865300000000001</v>
-      </c>
-      <c r="I27" s="46">
-        <v>0.506135</v>
-      </c>
-      <c r="J27" s="46">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="K27" s="46">
-        <v>295.82556199999999</v>
-      </c>
-      <c r="L27" s="46">
-        <v>138.073395</v>
-      </c>
-      <c r="M27" s="46">
-        <v>69.592879999999994</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0.26708900000000002</v>
-      </c>
-      <c r="O27" s="46">
-        <v>0.585642</v>
-      </c>
-      <c r="P27" s="46">
-        <v>6.7641489999999997</v>
-      </c>
-      <c r="Q27" s="46">
-        <v>0.34089700000000001</v>
-      </c>
-      <c r="R27" s="46">
-        <v>0.36843799999999999</v>
-      </c>
-      <c r="S27" s="46">
-        <v>0.34601199999999999</v>
-      </c>
-      <c r="T27" s="46">
-        <v>0.56602200000000003</v>
-      </c>
-      <c r="U27" s="46">
-        <v>216.90455600000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="46">
-        <v>2028</v>
-      </c>
-      <c r="B28" s="46">
-        <v>192.70813000000001</v>
-      </c>
-      <c r="C28" s="46">
-        <v>58.327072000000001</v>
-      </c>
-      <c r="D28" s="46">
-        <v>0.38459199999999999</v>
-      </c>
-      <c r="E28" s="46">
-        <v>0.146093</v>
-      </c>
-      <c r="F28" s="46">
-        <v>38.406609000000003</v>
-      </c>
-      <c r="G28" s="46">
-        <v>0.442083</v>
-      </c>
-      <c r="H28" s="46">
-        <v>0.47684700000000002</v>
-      </c>
-      <c r="I28" s="46">
-        <v>0.48400199999999999</v>
-      </c>
-      <c r="J28" s="46">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="K28" s="46">
-        <v>291.37560999999999</v>
-      </c>
-      <c r="L28" s="46">
-        <v>138.36944600000001</v>
-      </c>
-      <c r="M28" s="46">
-        <v>69.762978000000004</v>
-      </c>
-      <c r="N28" s="46">
-        <v>0.25964300000000001</v>
-      </c>
-      <c r="O28" s="46">
-        <v>0.586395</v>
-      </c>
-      <c r="P28" s="46">
-        <v>6.6288530000000003</v>
-      </c>
-      <c r="Q28" s="46">
-        <v>0.33139400000000002</v>
-      </c>
-      <c r="R28" s="46">
-        <v>0.35816700000000001</v>
-      </c>
-      <c r="S28" s="46">
-        <v>0.336366</v>
-      </c>
-      <c r="T28" s="46">
-        <v>0.55024300000000004</v>
-      </c>
-      <c r="U28" s="46">
-        <v>217.18345600000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="46">
-        <v>2027</v>
-      </c>
-      <c r="B29" s="46">
-        <v>191.041031</v>
-      </c>
-      <c r="C29" s="46">
-        <v>56.316150999999998</v>
-      </c>
-      <c r="D29" s="46">
-        <v>0.36676199999999998</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0.14341400000000001</v>
-      </c>
-      <c r="F29" s="46">
-        <v>36.997703999999999</v>
-      </c>
-      <c r="G29" s="46">
-        <v>0.42158699999999999</v>
-      </c>
-      <c r="H29" s="46">
-        <v>0.45473999999999998</v>
-      </c>
-      <c r="I29" s="46">
-        <v>0.461563</v>
-      </c>
-      <c r="J29" s="46">
-        <v>1.76E-4</v>
-      </c>
-      <c r="K29" s="46">
-        <v>286.20315599999998</v>
-      </c>
-      <c r="L29" s="46">
-        <v>141.33781400000001</v>
-      </c>
-      <c r="M29" s="46">
-        <v>71.102187999999998</v>
-      </c>
-      <c r="N29" s="46">
-        <v>0.25709300000000002</v>
-      </c>
-      <c r="O29" s="46">
-        <v>0.598055</v>
-      </c>
-      <c r="P29" s="46">
-        <v>6.6461800000000002</v>
-      </c>
-      <c r="Q29" s="46">
-        <v>0.32813900000000001</v>
-      </c>
-      <c r="R29" s="46">
-        <v>0.35464899999999999</v>
-      </c>
-      <c r="S29" s="46">
-        <v>0.333063</v>
-      </c>
-      <c r="T29" s="46">
-        <v>0.54483899999999996</v>
-      </c>
-      <c r="U29" s="46">
-        <v>221.50202899999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="46">
-        <v>2026</v>
-      </c>
-      <c r="B30" s="46">
-        <v>193.94555700000001</v>
-      </c>
-      <c r="C30" s="46">
-        <v>55.909843000000002</v>
-      </c>
-      <c r="D30" s="46">
-        <v>0.35781400000000002</v>
-      </c>
-      <c r="E30" s="46">
-        <v>0.14452699999999999</v>
-      </c>
-      <c r="F30" s="46">
-        <v>35.934238000000001</v>
-      </c>
-      <c r="G30" s="46">
-        <v>0.411302</v>
-      </c>
-      <c r="H30" s="46">
-        <v>0.44364599999999998</v>
-      </c>
-      <c r="I30" s="46">
-        <v>0.45030199999999998</v>
-      </c>
-      <c r="J30" s="46">
-        <v>1.7799999999999999E-4</v>
-      </c>
-      <c r="K30" s="46">
-        <v>287.59738199999998</v>
-      </c>
-      <c r="L30" s="46">
-        <v>147.682907</v>
-      </c>
-      <c r="M30" s="46">
-        <v>74.008094999999997</v>
-      </c>
-      <c r="N30" s="46">
-        <v>0.26027600000000001</v>
-      </c>
-      <c r="O30" s="46">
-        <v>0.62362399999999996</v>
-      </c>
-      <c r="P30" s="46">
-        <v>6.8170840000000004</v>
-      </c>
-      <c r="Q30" s="46">
-        <v>0.332202</v>
-      </c>
-      <c r="R30" s="46">
-        <v>0.35904000000000003</v>
-      </c>
-      <c r="S30" s="46">
-        <v>0.33718700000000001</v>
-      </c>
-      <c r="T30" s="46">
-        <v>0.55158499999999999</v>
-      </c>
-      <c r="U30" s="46">
-        <v>230.97200000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="46">
-        <v>2025</v>
-      </c>
-      <c r="B31" s="46">
-        <v>193.86938499999999</v>
-      </c>
-      <c r="C31" s="46">
-        <v>54.672806000000001</v>
-      </c>
-      <c r="D31" s="46">
-        <v>0.34393200000000002</v>
-      </c>
-      <c r="E31" s="46">
-        <v>0.14356099999999999</v>
-      </c>
-      <c r="F31" s="46">
-        <v>34.448101000000001</v>
-      </c>
-      <c r="G31" s="46">
-        <v>0.395345</v>
-      </c>
-      <c r="H31" s="46">
-        <v>0.42643399999999998</v>
-      </c>
-      <c r="I31" s="46">
-        <v>0.43283199999999999</v>
-      </c>
-      <c r="J31" s="46">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="K31" s="46">
-        <v>284.73254400000002</v>
-      </c>
-      <c r="L31" s="46">
-        <v>148.109756</v>
-      </c>
-      <c r="M31" s="46">
-        <v>73.745536999999999</v>
-      </c>
-      <c r="N31" s="46">
-        <v>0.25270799999999999</v>
-      </c>
-      <c r="O31" s="46">
-        <v>0.62365400000000004</v>
-      </c>
-      <c r="P31" s="46">
-        <v>6.7173470000000002</v>
-      </c>
-      <c r="Q31" s="46">
-        <v>0.322542</v>
-      </c>
-      <c r="R31" s="46">
-        <v>0.34860000000000002</v>
-      </c>
-      <c r="S31" s="46">
-        <v>0.32738099999999998</v>
-      </c>
-      <c r="T31" s="46">
-        <v>0.53554500000000005</v>
-      </c>
-      <c r="U31" s="46">
-        <v>230.983047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="46">
-        <v>2024</v>
-      </c>
-      <c r="B32" s="46">
-        <v>187.83528100000001</v>
-      </c>
-      <c r="C32" s="46">
-        <v>51.582748000000002</v>
-      </c>
-      <c r="D32" s="46">
-        <v>0.32085599999999997</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0.138493</v>
-      </c>
-      <c r="F32" s="46">
-        <v>32.549633</v>
-      </c>
-      <c r="G32" s="46">
-        <v>0.36881900000000001</v>
-      </c>
-      <c r="H32" s="46">
-        <v>0.39782299999999998</v>
-      </c>
-      <c r="I32" s="46">
-        <v>0.40379100000000001</v>
-      </c>
-      <c r="J32" s="46">
-        <v>1.7100000000000001E-4</v>
-      </c>
-      <c r="K32" s="46">
-        <v>273.59762599999999</v>
-      </c>
-      <c r="L32" s="46">
-        <v>142.74681100000001</v>
-      </c>
-      <c r="M32" s="46">
-        <v>71.053955000000002</v>
-      </c>
-      <c r="N32" s="46">
-        <v>0.23633899999999999</v>
-      </c>
-      <c r="O32" s="46">
-        <v>0.60075699999999999</v>
-      </c>
-      <c r="P32" s="46">
-        <v>6.4301469999999998</v>
-      </c>
-      <c r="Q32" s="46">
-        <v>0.30164999999999997</v>
-      </c>
-      <c r="R32" s="46">
-        <v>0.32602100000000001</v>
-      </c>
-      <c r="S32" s="46">
-        <v>0.306176</v>
-      </c>
-      <c r="T32" s="46">
-        <v>0.500857</v>
-      </c>
-      <c r="U32" s="46">
-        <v>222.50271599999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="46">
-        <v>2023</v>
-      </c>
-      <c r="B33" s="46">
-        <v>180.52432300000001</v>
-      </c>
-      <c r="C33" s="46">
-        <v>48.275089000000001</v>
-      </c>
-      <c r="D33" s="46">
-        <v>0.296933</v>
-      </c>
-      <c r="E33" s="46">
-        <v>0.132655</v>
-      </c>
-      <c r="F33" s="46">
-        <v>30.481784999999999</v>
-      </c>
-      <c r="G33" s="46">
-        <v>0.34132000000000001</v>
-      </c>
-      <c r="H33" s="46">
-        <v>0.36816100000000002</v>
-      </c>
-      <c r="I33" s="46">
-        <v>0.37368499999999999</v>
-      </c>
-      <c r="J33" s="46">
-        <v>1.64E-4</v>
-      </c>
-      <c r="K33" s="46">
-        <v>260.79406699999998</v>
-      </c>
-      <c r="L33" s="46">
-        <v>134.36882</v>
-      </c>
-      <c r="M33" s="46">
-        <v>67.480025999999995</v>
-      </c>
-      <c r="N33" s="46">
-        <v>0.216553</v>
-      </c>
-      <c r="O33" s="46">
-        <v>0.56697600000000004</v>
-      </c>
-      <c r="P33" s="46">
-        <v>6.0439889999999998</v>
-      </c>
-      <c r="Q33" s="46">
-        <v>0.27639599999999998</v>
-      </c>
-      <c r="R33" s="46">
-        <v>0.29872599999999999</v>
-      </c>
-      <c r="S33" s="46">
-        <v>0.28054299999999999</v>
-      </c>
-      <c r="T33" s="46">
-        <v>0.458926</v>
-      </c>
-      <c r="U33" s="46">
-        <v>209.99099699999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="46">
-        <v>2022</v>
-      </c>
-      <c r="B34" s="46">
-        <v>174.73065199999999</v>
-      </c>
-      <c r="C34" s="46">
-        <v>45.466510999999997</v>
-      </c>
-      <c r="D34" s="46">
-        <v>0.276916</v>
-      </c>
-      <c r="E34" s="46">
-        <v>0.12817400000000001</v>
-      </c>
-      <c r="F34" s="46">
-        <v>28.895914000000001</v>
-      </c>
-      <c r="G34" s="46">
-        <v>0.318909</v>
-      </c>
-      <c r="H34" s="46">
-        <v>0.34334100000000001</v>
-      </c>
-      <c r="I34" s="46">
-        <v>0.348493</v>
-      </c>
-      <c r="J34" s="46">
-        <v>1.5799999999999999E-4</v>
-      </c>
-      <c r="K34" s="46">
-        <v>250.50907900000001</v>
-      </c>
-      <c r="L34" s="46">
-        <v>122.007324</v>
-      </c>
-      <c r="M34" s="46">
-        <v>61.584063999999998</v>
-      </c>
-      <c r="N34" s="46">
-        <v>0.19117899999999999</v>
-      </c>
-      <c r="O34" s="46">
-        <v>0.51820900000000003</v>
-      </c>
-      <c r="P34" s="46">
-        <v>5.4856290000000003</v>
-      </c>
-      <c r="Q34" s="46">
-        <v>0.24444199999999999</v>
-      </c>
-      <c r="R34" s="46">
-        <v>0.26372400000000001</v>
-      </c>
-      <c r="S34" s="46">
-        <v>0.247671</v>
-      </c>
-      <c r="T34" s="46">
-        <v>0.40515200000000001</v>
-      </c>
-      <c r="U34" s="46">
-        <v>190.94740300000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="46">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="46">
-        <v>162.874405</v>
-      </c>
-      <c r="C35" s="46">
-        <v>41.152985000000001</v>
-      </c>
-      <c r="D35" s="46">
-        <v>0.24865499999999999</v>
-      </c>
-      <c r="E35" s="46">
-        <v>0.11931600000000001</v>
-      </c>
-      <c r="F35" s="46">
-        <v>26.385145000000001</v>
-      </c>
-      <c r="G35" s="46">
-        <v>0.28985699999999998</v>
-      </c>
-      <c r="H35" s="46">
-        <v>0.30830200000000002</v>
-      </c>
-      <c r="I35" s="46">
-        <v>0.31292700000000001</v>
-      </c>
-      <c r="J35" s="46">
-        <v>1.47E-4</v>
-      </c>
-      <c r="K35" s="46">
-        <v>231.69172699999999</v>
-      </c>
-      <c r="L35" s="46">
-        <v>101.57009100000001</v>
-      </c>
-      <c r="M35" s="46">
-        <v>51.533301999999999</v>
-      </c>
-      <c r="N35" s="46">
-        <v>0.154755</v>
-      </c>
-      <c r="O35" s="46">
-        <v>0.43498399999999998</v>
-      </c>
-      <c r="P35" s="46">
-        <v>4.569261</v>
-      </c>
-      <c r="Q35" s="46">
-        <v>0.19970599999999999</v>
-      </c>
-      <c r="R35" s="46">
-        <v>0.213477</v>
-      </c>
-      <c r="S35" s="46">
-        <v>0.200484</v>
-      </c>
-      <c r="T35" s="46">
-        <v>0.32795999999999997</v>
-      </c>
-      <c r="U35" s="46">
-        <v>159.204025</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="46">
-        <v>2020</v>
-      </c>
-      <c r="B36" s="46">
-        <v>147.36698899999999</v>
-      </c>
-      <c r="C36" s="46">
-        <v>36.340527000000002</v>
-      </c>
-      <c r="D36" s="46">
-        <v>0.21667700000000001</v>
-      </c>
-      <c r="E36" s="46">
-        <v>0.10786</v>
-      </c>
-      <c r="F36" s="46">
-        <v>23.123978000000001</v>
-      </c>
-      <c r="G36" s="46">
-        <v>0.25462099999999999</v>
-      </c>
-      <c r="H36" s="46">
-        <v>0.26865299999999998</v>
-      </c>
-      <c r="I36" s="46">
-        <v>0.27268399999999998</v>
-      </c>
-      <c r="J36" s="46">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="K36" s="46">
-        <v>207.952133</v>
-      </c>
-      <c r="L36" s="46">
-        <v>91.140923000000001</v>
-      </c>
-      <c r="M36" s="46">
-        <v>46.458106999999998</v>
-      </c>
-      <c r="N36" s="46">
-        <v>0.13500999999999999</v>
-      </c>
-      <c r="O36" s="46">
-        <v>0.39564199999999999</v>
-      </c>
-      <c r="P36" s="46">
-        <v>4.1055859999999997</v>
-      </c>
-      <c r="Q36" s="46">
-        <v>0.175927</v>
-      </c>
-      <c r="R36" s="46">
-        <v>0.18624099999999999</v>
-      </c>
-      <c r="S36" s="46">
-        <v>0.174905</v>
-      </c>
-      <c r="T36" s="46">
-        <v>0.28611700000000001</v>
-      </c>
-      <c r="U36" s="46">
-        <v>143.05848700000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="46">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -20848,7 +16524,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="36"/>
       <c r="E10" s="37" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -20958,7 +16634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -21396,7 +17072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -22307,4 +17983,924 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:AG2" si="0">C2</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Heavy freight'!E11</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:M3" si="1">C3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:AC3" si="2">M3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <f t="shared" ref="B4:AG7" si="4">B3</f>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>